--- a/bh3/540131290399717606_2021-06-25_13-05-16.xlsx
+++ b/bh3/540131290399717606_2021-06-25_13-05-16.xlsx
@@ -16,7 +16,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="yyyy-mm-dd h:mm:ss"/>
+  </numFmts>
   <fonts count="1">
     <font>
       <name val="Calibri"/>
@@ -46,8 +48,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -419,6 +422,19 @@
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="12" customWidth="1" min="1" max="1"/>
+    <col width="12" customWidth="1" min="2" max="2"/>
+    <col width="12" customWidth="1" min="3" max="3"/>
+    <col width="50" customWidth="1" min="5" max="5"/>
+    <col width="12" customWidth="1" min="7" max="7"/>
+    <col width="20" customWidth="1" min="8" max="8"/>
+    <col width="12" customWidth="1" min="11" max="11"/>
+    <col width="12" customWidth="1" min="13" max="13"/>
+    <col width="12" customWidth="1" min="15" max="15"/>
+    <col width="20" customWidth="1" min="16" max="16"/>
+    <col width="20" customWidth="1" min="17" max="17"/>
+  </cols>
   <sheetData>
     <row r="1">
       <c r="A1" t="inlineStr">
@@ -551,10 +567,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>2021-07-02 06:23:01</t>
-        </is>
+      <c r="H2" s="1" t="n">
+        <v>44379.26598379629</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -626,10 +640,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>2021-07-02 06:12:22</t>
-        </is>
+      <c r="H3" s="1" t="n">
+        <v>44379.25858796296</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -708,10 +720,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>2021-06-30 22:48:37</t>
-        </is>
+      <c r="H4" s="1" t="n">
+        <v>44377.95042824074</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -810,10 +820,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>2021-06-30 11:19:37</t>
-        </is>
+      <c r="H5" s="1" t="n">
+        <v>44377.47195601852</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -889,10 +897,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H6" t="inlineStr">
-        <is>
-          <t>2021-06-30 11:19:34</t>
-        </is>
+      <c r="H6" s="1" t="n">
+        <v>44377.4719212963</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
@@ -980,10 +986,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H7" t="inlineStr">
-        <is>
-          <t>2021-06-30 07:50:49</t>
-        </is>
+      <c r="H7" s="1" t="n">
+        <v>44377.32695601852</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -1055,10 +1059,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H8" t="inlineStr">
-        <is>
-          <t>2021-06-30 07:44:26</t>
-        </is>
+      <c r="H8" s="1" t="n">
+        <v>44377.32252314815</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -1157,10 +1159,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H9" t="inlineStr">
-        <is>
-          <t>2021-06-29 21:41:11</t>
-        </is>
+      <c r="H9" s="1" t="n">
+        <v>44376.90359953704</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
@@ -1236,10 +1236,8 @@
           <t>4793558590</t>
         </is>
       </c>
-      <c r="H10" t="inlineStr">
-        <is>
-          <t>2021-06-29 09:15:16</t>
-        </is>
+      <c r="H10" s="1" t="n">
+        <v>44376.38560185185</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -1323,10 +1321,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H11" t="inlineStr">
-        <is>
-          <t>2021-06-29 07:22:43</t>
-        </is>
+      <c r="H11" s="1" t="n">
+        <v>44376.30744212963</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1398,10 +1394,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H12" t="inlineStr">
-        <is>
-          <t>2021-06-29 07:16:48</t>
-        </is>
+      <c r="H12" s="1" t="n">
+        <v>44376.30333333334</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
@@ -1473,10 +1467,8 @@
           <t>4808732696</t>
         </is>
       </c>
-      <c r="H13" t="inlineStr">
-        <is>
-          <t>2021-06-28 20:01:59</t>
-        </is>
+      <c r="H13" s="1" t="n">
+        <v>44375.83471064815</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1581,10 +1573,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H14" t="inlineStr">
-        <is>
-          <t>2021-06-28 10:01:28</t>
-        </is>
+      <c r="H14" s="1" t="n">
+        <v>44375.41768518519</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1660,10 +1650,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H15" t="inlineStr">
-        <is>
-          <t>2021-06-28 07:34:10</t>
-        </is>
+      <c r="H15" s="1" t="n">
+        <v>44375.31539351852</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
@@ -1747,10 +1735,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H16" t="inlineStr">
-        <is>
-          <t>2021-06-28 07:23:03</t>
-        </is>
+      <c r="H16" s="1" t="n">
+        <v>44375.30767361111</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1822,10 +1808,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H17" t="inlineStr">
-        <is>
-          <t>2021-06-28 02:11:21</t>
-        </is>
+      <c r="H17" s="1" t="n">
+        <v>44375.09121527777</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1889,10 +1873,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H18" t="inlineStr">
-        <is>
-          <t>2021-06-27 23:56:15</t>
-        </is>
+      <c r="H18" s="1" t="n">
+        <v>44374.99739583334</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
@@ -1960,10 +1942,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H19" t="inlineStr">
-        <is>
-          <t>2021-06-27 22:50:27</t>
-        </is>
+      <c r="H19" s="1" t="n">
+        <v>44374.95170138889</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2043,10 +2023,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H20" t="inlineStr">
-        <is>
-          <t>2021-06-27 16:01:22</t>
-        </is>
+      <c r="H20" s="1" t="n">
+        <v>44374.66761574074</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2106,10 +2084,8 @@
           <t>4788967000</t>
         </is>
       </c>
-      <c r="H21" t="inlineStr">
-        <is>
-          <t>2021-06-27 12:24:39</t>
-        </is>
+      <c r="H21" s="1" t="n">
+        <v>44374.51711805556</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
@@ -2181,10 +2157,8 @@
           <t>4793558590</t>
         </is>
       </c>
-      <c r="H22" t="inlineStr">
-        <is>
-          <t>2021-06-27 11:49:07</t>
-        </is>
+      <c r="H22" s="1" t="n">
+        <v>44374.49244212963</v>
       </c>
       <c r="I22" t="n">
         <v>1</v>
@@ -2260,10 +2234,8 @@
           <t>4793558590</t>
         </is>
       </c>
-      <c r="H23" t="inlineStr">
-        <is>
-          <t>2021-06-27 11:37:13</t>
-        </is>
+      <c r="H23" s="1" t="n">
+        <v>44374.48417824074</v>
       </c>
       <c r="I23" t="n">
         <v>1</v>
@@ -2331,10 +2303,8 @@
           <t>4788967000</t>
         </is>
       </c>
-      <c r="H24" t="inlineStr">
-        <is>
-          <t>2021-06-27 10:35:51</t>
-        </is>
+      <c r="H24" s="1" t="n">
+        <v>44374.4415625</v>
       </c>
       <c r="I24" t="n">
         <v>0</v>
@@ -2418,10 +2388,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H25" t="inlineStr">
-        <is>
-          <t>2021-06-27 07:51:32</t>
-        </is>
+      <c r="H25" s="1" t="n">
+        <v>44374.32745370371</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2495,10 +2463,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H26" t="inlineStr">
-        <is>
-          <t>2021-06-27 07:43:10</t>
-        </is>
+      <c r="H26" s="1" t="n">
+        <v>44374.32164351852</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2570,10 +2536,8 @@
           <t>4799016348</t>
         </is>
       </c>
-      <c r="H27" t="inlineStr">
-        <is>
-          <t>2021-06-27 05:03:37</t>
-        </is>
+      <c r="H27" s="1" t="n">
+        <v>44374.21084490741</v>
       </c>
       <c r="I27" t="n">
         <v>0</v>
@@ -2633,10 +2597,8 @@
           <t>4788679912</t>
         </is>
       </c>
-      <c r="H28" t="inlineStr">
-        <is>
-          <t>2021-06-27 02:47:53</t>
-        </is>
+      <c r="H28" s="1" t="n">
+        <v>44374.11658564815</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2712,10 +2674,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H29" t="inlineStr">
-        <is>
-          <t>2021-06-26 18:58:03</t>
-        </is>
+      <c r="H29" s="1" t="n">
+        <v>44373.7903125</v>
       </c>
       <c r="I29" t="n">
         <v>1</v>
@@ -2791,10 +2751,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H30" t="inlineStr">
-        <is>
-          <t>2021-06-26 18:57:46</t>
-        </is>
+      <c r="H30" s="1" t="n">
+        <v>44373.79011574074</v>
       </c>
       <c r="I30" t="n">
         <v>1</v>
@@ -2897,10 +2855,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H31" t="inlineStr">
-        <is>
-          <t>2021-06-26 18:57:37</t>
-        </is>
+      <c r="H31" s="1" t="n">
+        <v>44373.79001157408</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -2976,10 +2932,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H32" t="inlineStr">
-        <is>
-          <t>2021-06-26 17:25:32</t>
-        </is>
+      <c r="H32" s="1" t="n">
+        <v>44373.72606481481</v>
       </c>
       <c r="I32" t="n">
         <v>1</v>
@@ -3039,10 +2993,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H33" t="inlineStr">
-        <is>
-          <t>2021-06-26 13:51:06</t>
-        </is>
+      <c r="H33" s="1" t="n">
+        <v>44373.57715277778</v>
       </c>
       <c r="I33" t="n">
         <v>0</v>
@@ -3145,10 +3097,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H34" t="inlineStr">
-        <is>
-          <t>2021-06-26 13:50:57</t>
-        </is>
+      <c r="H34" s="1" t="n">
+        <v>44373.57704861111</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3224,10 +3174,8 @@
           <t>4794113547</t>
         </is>
       </c>
-      <c r="H35" t="inlineStr">
-        <is>
-          <t>2021-06-26 12:02:38</t>
-        </is>
+      <c r="H35" s="1" t="n">
+        <v>44373.5018287037</v>
       </c>
       <c r="I35" t="n">
         <v>1</v>
@@ -3295,10 +3243,8 @@
           <t>4793558590</t>
         </is>
       </c>
-      <c r="H36" t="inlineStr">
-        <is>
-          <t>2021-06-26 10:10:09</t>
-        </is>
+      <c r="H36" s="1" t="n">
+        <v>44373.42371527778</v>
       </c>
       <c r="I36" t="n">
         <v>3</v>
@@ -3389,10 +3335,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H37" t="inlineStr">
-        <is>
-          <t>2021-06-26 08:35:15</t>
-        </is>
+      <c r="H37" s="1" t="n">
+        <v>44373.3578125</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3480,10 +3424,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H38" t="inlineStr">
-        <is>
-          <t>2021-06-26 08:10:42</t>
-        </is>
+      <c r="H38" s="1" t="n">
+        <v>44373.34076388889</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3555,10 +3497,8 @@
           <t>4789517949</t>
         </is>
       </c>
-      <c r="H39" t="inlineStr">
-        <is>
-          <t>2021-06-26 08:04:35</t>
-        </is>
+      <c r="H39" s="1" t="n">
+        <v>44373.3365162037</v>
       </c>
       <c r="I39" t="n">
         <v>0</v>
@@ -3624,10 +3564,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H40" t="inlineStr">
-        <is>
-          <t>2021-06-26 08:04:30</t>
-        </is>
+      <c r="H40" s="1" t="n">
+        <v>44373.33645833333</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3700,10 +3638,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H41" t="inlineStr">
-        <is>
-          <t>2021-06-26 07:44:45</t>
-        </is>
+      <c r="H41" s="1" t="n">
+        <v>44373.32274305556</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3767,10 +3703,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H42" t="inlineStr">
-        <is>
-          <t>2021-06-26 06:04:11</t>
-        </is>
+      <c r="H42" s="1" t="n">
+        <v>44373.2529050926</v>
       </c>
       <c r="I42" t="n">
         <v>0</v>
@@ -3846,10 +3780,8 @@
           <t>4792776342</t>
         </is>
       </c>
-      <c r="H43" t="inlineStr">
-        <is>
-          <t>2021-06-26 03:21:31</t>
-        </is>
+      <c r="H43" s="1" t="n">
+        <v>44373.13994212963</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3913,10 +3845,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H44" t="inlineStr">
-        <is>
-          <t>2021-06-26 03:04:12</t>
-        </is>
+      <c r="H44" s="1" t="n">
+        <v>44373.12791666666</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -3980,10 +3910,8 @@
           <t>4789517949</t>
         </is>
       </c>
-      <c r="H45" t="inlineStr">
-        <is>
-          <t>2021-06-26 02:30:39</t>
-        </is>
+      <c r="H45" s="1" t="n">
+        <v>44373.10461805556</v>
       </c>
       <c r="I45" t="n">
         <v>0</v>
@@ -4051,10 +3979,8 @@
           <t>4792567405</t>
         </is>
       </c>
-      <c r="H46" t="inlineStr">
-        <is>
-          <t>2021-06-26 01:44:11</t>
-        </is>
+      <c r="H46" s="1" t="n">
+        <v>44373.07234953704</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4118,10 +4044,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H47" t="inlineStr">
-        <is>
-          <t>2021-06-26 01:15:19</t>
-        </is>
+      <c r="H47" s="1" t="n">
+        <v>44373.05230324074</v>
       </c>
       <c r="I47" t="n">
         <v>1</v>
@@ -4189,10 +4113,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H48" t="inlineStr">
-        <is>
-          <t>2021-06-26 00:09:57</t>
-        </is>
+      <c r="H48" s="1" t="n">
+        <v>44373.00690972222</v>
       </c>
       <c r="I48" t="n">
         <v>0</v>
@@ -4264,10 +4186,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H49" t="inlineStr">
-        <is>
-          <t>2021-06-25 23:35:26</t>
-        </is>
+      <c r="H49" s="1" t="n">
+        <v>44372.98293981481</v>
       </c>
       <c r="I49" t="n">
         <v>0</v>
@@ -4331,10 +4251,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H50" t="inlineStr">
-        <is>
-          <t>2021-06-25 23:32:37</t>
-        </is>
+      <c r="H50" s="1" t="n">
+        <v>44372.9809837963</v>
       </c>
       <c r="I50" t="n">
         <v>0</v>
@@ -4402,10 +4320,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H51" t="inlineStr">
-        <is>
-          <t>2021-06-25 23:15:59</t>
-        </is>
+      <c r="H51" s="1" t="n">
+        <v>44372.96943287037</v>
       </c>
       <c r="I51" t="n">
         <v>0</v>
@@ -4474,10 +4390,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H52" t="inlineStr">
-        <is>
-          <t>2021-06-25 22:55:03</t>
-        </is>
+      <c r="H52" s="1" t="n">
+        <v>44372.95489583333</v>
       </c>
       <c r="I52" t="n">
         <v>1</v>
@@ -4549,10 +4463,8 @@
           <t>4790110107</t>
         </is>
       </c>
-      <c r="H53" t="inlineStr">
-        <is>
-          <t>2021-06-25 21:45:05</t>
-        </is>
+      <c r="H53" s="1" t="n">
+        <v>44372.90630787037</v>
       </c>
       <c r="I53" t="n">
         <v>0</v>
@@ -4616,10 +4528,8 @@
           <t>4790110107</t>
         </is>
       </c>
-      <c r="H54" t="inlineStr">
-        <is>
-          <t>2021-06-25 21:38:16</t>
-        </is>
+      <c r="H54" s="1" t="n">
+        <v>44372.90157407407</v>
       </c>
       <c r="I54" t="n">
         <v>0</v>
@@ -4695,10 +4605,8 @@
           <t>4790110107</t>
         </is>
       </c>
-      <c r="H55" t="inlineStr">
-        <is>
-          <t>2021-06-25 21:25:45</t>
-        </is>
+      <c r="H55" s="1" t="n">
+        <v>44372.89288194444</v>
       </c>
       <c r="I55" t="n">
         <v>0</v>
@@ -4762,10 +4670,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H56" t="inlineStr">
-        <is>
-          <t>2021-06-25 21:06:38</t>
-        </is>
+      <c r="H56" s="1" t="n">
+        <v>44372.87960648148</v>
       </c>
       <c r="I56" t="n">
         <v>0</v>
@@ -4829,10 +4735,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H57" t="inlineStr">
-        <is>
-          <t>2021-06-25 21:00:45</t>
-        </is>
+      <c r="H57" s="1" t="n">
+        <v>44372.87552083333</v>
       </c>
       <c r="I57" t="n">
         <v>2</v>
@@ -4905,10 +4809,8 @@
           <t>4790745995</t>
         </is>
       </c>
-      <c r="H58" t="inlineStr">
-        <is>
-          <t>2021-06-25 20:34:43</t>
-        </is>
+      <c r="H58" s="1" t="n">
+        <v>44372.85744212963</v>
       </c>
       <c r="I58" t="n">
         <v>0</v>
@@ -4968,10 +4870,8 @@
           <t>4790736621</t>
         </is>
       </c>
-      <c r="H59" t="inlineStr">
-        <is>
-          <t>2021-06-25 20:34:09</t>
-        </is>
+      <c r="H59" s="1" t="n">
+        <v>44372.85704861111</v>
       </c>
       <c r="I59" t="n">
         <v>0</v>
@@ -5031,10 +4931,8 @@
           <t>4790734429</t>
         </is>
       </c>
-      <c r="H60" t="inlineStr">
-        <is>
-          <t>2021-06-25 20:33:52</t>
-        </is>
+      <c r="H60" s="1" t="n">
+        <v>44372.85685185185</v>
       </c>
       <c r="I60" t="n">
         <v>0</v>
@@ -5094,10 +4992,8 @@
           <t>4788884639</t>
         </is>
       </c>
-      <c r="H61" t="inlineStr">
-        <is>
-          <t>2021-06-25 20:33:32</t>
-        </is>
+      <c r="H61" s="1" t="n">
+        <v>44372.85662037037</v>
       </c>
       <c r="I61" t="n">
         <v>0</v>
@@ -5157,10 +5053,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H62" t="inlineStr">
-        <is>
-          <t>2021-06-25 20:32:01</t>
-        </is>
+      <c r="H62" s="1" t="n">
+        <v>44372.85556712963</v>
       </c>
       <c r="I62" t="n">
         <v>0</v>
@@ -5224,10 +5118,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H63" t="inlineStr">
-        <is>
-          <t>2021-06-25 20:30:39</t>
-        </is>
+      <c r="H63" s="1" t="n">
+        <v>44372.85461805556</v>
       </c>
       <c r="I63" t="n">
         <v>0</v>
@@ -5291,10 +5183,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H64" t="inlineStr">
-        <is>
-          <t>2021-06-25 20:26:59</t>
-        </is>
+      <c r="H64" s="1" t="n">
+        <v>44372.85207175926</v>
       </c>
       <c r="I64" t="n">
         <v>0</v>
@@ -5358,10 +5248,8 @@
           <t>4789279344</t>
         </is>
       </c>
-      <c r="H65" t="inlineStr">
-        <is>
-          <t>2021-06-25 20:10:55</t>
-        </is>
+      <c r="H65" s="1" t="n">
+        <v>44372.84091435185</v>
       </c>
       <c r="I65" t="n">
         <v>2</v>
@@ -5425,10 +5313,8 @@
           <t>4789279344</t>
         </is>
       </c>
-      <c r="H66" t="inlineStr">
-        <is>
-          <t>2021-06-25 20:06:14</t>
-        </is>
+      <c r="H66" s="1" t="n">
+        <v>44372.83766203704</v>
       </c>
       <c r="I66" t="n">
         <v>0</v>
@@ -5500,10 +5386,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H67" t="inlineStr">
-        <is>
-          <t>2021-06-25 20:03:37</t>
-        </is>
+      <c r="H67" s="1" t="n">
+        <v>44372.83584490741</v>
       </c>
       <c r="I67" t="n">
         <v>0</v>
@@ -5571,10 +5455,8 @@
           <t>4789564733</t>
         </is>
       </c>
-      <c r="H68" t="inlineStr">
-        <is>
-          <t>2021-06-25 19:54:29</t>
-        </is>
+      <c r="H68" s="1" t="n">
+        <v>44372.82950231482</v>
       </c>
       <c r="I68" t="n">
         <v>0</v>
@@ -5646,10 +5528,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H69" t="inlineStr">
-        <is>
-          <t>2021-06-25 19:51:58</t>
-        </is>
+      <c r="H69" s="1" t="n">
+        <v>44372.82775462963</v>
       </c>
       <c r="I69" t="n">
         <v>0</v>
@@ -5713,10 +5593,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H70" t="inlineStr">
-        <is>
-          <t>2021-06-25 19:50:32</t>
-        </is>
+      <c r="H70" s="1" t="n">
+        <v>44372.82675925926</v>
       </c>
       <c r="I70" t="n">
         <v>0</v>
@@ -5780,10 +5658,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H71" t="inlineStr">
-        <is>
-          <t>2021-06-25 19:37:50</t>
-        </is>
+      <c r="H71" s="1" t="n">
+        <v>44372.81793981481</v>
       </c>
       <c r="I71" t="n">
         <v>0</v>
@@ -5851,10 +5727,8 @@
           <t>4789302933</t>
         </is>
       </c>
-      <c r="H72" t="inlineStr">
-        <is>
-          <t>2021-06-25 19:33:54</t>
-        </is>
+      <c r="H72" s="1" t="n">
+        <v>44372.81520833333</v>
       </c>
       <c r="I72" t="n">
         <v>1</v>
@@ -5914,10 +5788,8 @@
           <t>4788967000</t>
         </is>
       </c>
-      <c r="H73" t="inlineStr">
-        <is>
-          <t>2021-06-25 19:30:47</t>
-        </is>
+      <c r="H73" s="1" t="n">
+        <v>44372.81304398148</v>
       </c>
       <c r="I73" t="n">
         <v>0</v>
@@ -5985,10 +5857,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H74" t="inlineStr">
-        <is>
-          <t>2021-06-25 19:29:35</t>
-        </is>
+      <c r="H74" s="1" t="n">
+        <v>44372.81221064815</v>
       </c>
       <c r="I74" t="n">
         <v>1</v>
@@ -6061,10 +5931,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H75" t="inlineStr">
-        <is>
-          <t>2021-06-25 19:29:29</t>
-        </is>
+      <c r="H75" s="1" t="n">
+        <v>44372.81214120371</v>
       </c>
       <c r="I75" t="n">
         <v>0</v>
@@ -6146,10 +6014,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H76" t="inlineStr">
-        <is>
-          <t>2021-06-25 19:25:45</t>
-        </is>
+      <c r="H76" s="1" t="n">
+        <v>44372.80954861111</v>
       </c>
       <c r="I76" t="n">
         <v>0</v>
@@ -6209,10 +6075,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H77" t="inlineStr">
-        <is>
-          <t>2021-06-25 19:25:05</t>
-        </is>
+      <c r="H77" s="1" t="n">
+        <v>44372.80908564815</v>
       </c>
       <c r="I77" t="n">
         <v>0</v>
@@ -6280,10 +6144,8 @@
           <t>4789302933</t>
         </is>
       </c>
-      <c r="H78" t="inlineStr">
-        <is>
-          <t>2021-06-25 19:23:17</t>
-        </is>
+      <c r="H78" s="1" t="n">
+        <v>44372.80783564815</v>
       </c>
       <c r="I78" t="n">
         <v>1</v>
@@ -6357,10 +6219,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H79" t="inlineStr">
-        <is>
-          <t>2021-06-25 19:21:22</t>
-        </is>
+      <c r="H79" s="1" t="n">
+        <v>44372.80650462963</v>
       </c>
       <c r="I79" t="n">
         <v>1</v>
@@ -6420,10 +6280,8 @@
           <t>4790074074</t>
         </is>
       </c>
-      <c r="H80" t="inlineStr">
-        <is>
-          <t>2021-06-25 19:20:23</t>
-        </is>
+      <c r="H80" s="1" t="n">
+        <v>44372.80582175926</v>
       </c>
       <c r="I80" t="n">
         <v>0</v>
@@ -6495,10 +6353,8 @@
           <t>4790074074</t>
         </is>
       </c>
-      <c r="H81" t="inlineStr">
-        <is>
-          <t>2021-06-25 19:18:12</t>
-        </is>
+      <c r="H81" s="1" t="n">
+        <v>44372.80430555555</v>
       </c>
       <c r="I81" t="n">
         <v>0</v>
@@ -6562,10 +6418,8 @@
           <t>4790110107</t>
         </is>
       </c>
-      <c r="H82" t="inlineStr">
-        <is>
-          <t>2021-06-25 19:12:59</t>
-        </is>
+      <c r="H82" s="1" t="n">
+        <v>44372.80068287037</v>
       </c>
       <c r="I82" t="n">
         <v>0</v>
@@ -6641,10 +6495,8 @@
           <t>4789279344</t>
         </is>
       </c>
-      <c r="H83" t="inlineStr">
-        <is>
-          <t>2021-06-25 19:12:43</t>
-        </is>
+      <c r="H83" s="1" t="n">
+        <v>44372.80049768519</v>
       </c>
       <c r="I83" t="n">
         <v>1</v>
@@ -6708,10 +6560,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H84" t="inlineStr">
-        <is>
-          <t>2021-06-25 19:11:49</t>
-        </is>
+      <c r="H84" s="1" t="n">
+        <v>44372.79987268519</v>
       </c>
       <c r="I84" t="n">
         <v>0</v>
@@ -6771,10 +6621,8 @@
           <t>4790074074</t>
         </is>
       </c>
-      <c r="H85" t="inlineStr">
-        <is>
-          <t>2021-06-25 19:10:50</t>
-        </is>
+      <c r="H85" s="1" t="n">
+        <v>44372.79918981482</v>
       </c>
       <c r="I85" t="n">
         <v>1</v>
@@ -6838,10 +6686,8 @@
           <t>4790074074</t>
         </is>
       </c>
-      <c r="H86" t="inlineStr">
-        <is>
-          <t>2021-06-25 19:08:18</t>
-        </is>
+      <c r="H86" s="1" t="n">
+        <v>44372.79743055555</v>
       </c>
       <c r="I86" t="n">
         <v>0</v>
@@ -6905,10 +6751,8 @@
           <t>4788636696</t>
         </is>
       </c>
-      <c r="H87" t="inlineStr">
-        <is>
-          <t>2021-06-25 19:08:17</t>
-        </is>
+      <c r="H87" s="1" t="n">
+        <v>44372.79741898148</v>
       </c>
       <c r="I87" t="n">
         <v>1</v>
@@ -6968,10 +6812,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H88" t="inlineStr">
-        <is>
-          <t>2021-06-25 19:06:38</t>
-        </is>
+      <c r="H88" s="1" t="n">
+        <v>44372.79627314815</v>
       </c>
       <c r="I88" t="n">
         <v>1</v>
@@ -7039,10 +6881,8 @@
           <t>4790217133</t>
         </is>
       </c>
-      <c r="H89" t="inlineStr">
-        <is>
-          <t>2021-06-25 19:05:55</t>
-        </is>
+      <c r="H89" s="1" t="n">
+        <v>44372.79577546296</v>
       </c>
       <c r="I89" t="n">
         <v>1</v>
@@ -7102,10 +6942,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H90" t="inlineStr">
-        <is>
-          <t>2021-06-25 19:05:48</t>
-        </is>
+      <c r="H90" s="1" t="n">
+        <v>44372.79569444444</v>
       </c>
       <c r="I90" t="n">
         <v>58</v>
@@ -7165,10 +7003,8 @@
           <t>4790074074</t>
         </is>
       </c>
-      <c r="H91" t="inlineStr">
-        <is>
-          <t>2021-06-25 18:53:57</t>
-        </is>
+      <c r="H91" s="1" t="n">
+        <v>44372.78746527778</v>
       </c>
       <c r="I91" t="n">
         <v>1</v>
@@ -7232,10 +7068,8 @@
           <t>4790116917</t>
         </is>
       </c>
-      <c r="H92" t="inlineStr">
-        <is>
-          <t>2021-06-25 18:50:22</t>
-        </is>
+      <c r="H92" s="1" t="n">
+        <v>44372.78497685185</v>
       </c>
       <c r="I92" t="n">
         <v>0</v>
@@ -7323,10 +7157,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H93" t="inlineStr">
-        <is>
-          <t>2021-06-25 18:50:14</t>
-        </is>
+      <c r="H93" s="1" t="n">
+        <v>44372.78488425926</v>
       </c>
       <c r="I93" t="n">
         <v>1</v>
@@ -7386,10 +7218,8 @@
           <t>4790110107</t>
         </is>
       </c>
-      <c r="H94" t="inlineStr">
-        <is>
-          <t>2021-06-25 18:48:30</t>
-        </is>
+      <c r="H94" s="1" t="n">
+        <v>44372.78368055556</v>
       </c>
       <c r="I94" t="n">
         <v>1</v>
@@ -7453,10 +7283,8 @@
           <t>4790074074</t>
         </is>
       </c>
-      <c r="H95" t="inlineStr">
-        <is>
-          <t>2021-06-25 18:44:41</t>
-        </is>
+      <c r="H95" s="1" t="n">
+        <v>44372.78103009259</v>
       </c>
       <c r="I95" t="n">
         <v>0</v>
@@ -7520,10 +7348,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H96" t="inlineStr">
-        <is>
-          <t>2021-06-25 18:42:57</t>
-        </is>
+      <c r="H96" s="1" t="n">
+        <v>44372.77982638889</v>
       </c>
       <c r="I96" t="n">
         <v>1</v>
@@ -7584,10 +7410,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H97" t="inlineStr">
-        <is>
-          <t>2021-06-25 18:41:37</t>
-        </is>
+      <c r="H97" s="1" t="n">
+        <v>44372.77890046296</v>
       </c>
       <c r="I97" t="n">
         <v>1</v>
@@ -7659,10 +7483,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H98" t="inlineStr">
-        <is>
-          <t>2021-06-25 18:41:34</t>
-        </is>
+      <c r="H98" s="1" t="n">
+        <v>44372.77886574074</v>
       </c>
       <c r="I98" t="n">
         <v>1</v>
@@ -7734,10 +7556,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H99" t="inlineStr">
-        <is>
-          <t>2021-06-25 18:41:28</t>
-        </is>
+      <c r="H99" s="1" t="n">
+        <v>44372.7787962963</v>
       </c>
       <c r="I99" t="n">
         <v>1</v>
@@ -7813,10 +7633,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H100" t="inlineStr">
-        <is>
-          <t>2021-06-25 18:41:25</t>
-        </is>
+      <c r="H100" s="1" t="n">
+        <v>44372.77876157407</v>
       </c>
       <c r="I100" t="n">
         <v>1</v>
@@ -7908,10 +7726,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H101" t="inlineStr">
-        <is>
-          <t>2021-06-25 18:30:40</t>
-        </is>
+      <c r="H101" s="1" t="n">
+        <v>44372.7712962963</v>
       </c>
       <c r="I101" t="n">
         <v>0</v>
@@ -7983,10 +7799,8 @@
           <t>4789983530</t>
         </is>
       </c>
-      <c r="H102" t="inlineStr">
-        <is>
-          <t>2021-06-25 18:29:02</t>
-        </is>
+      <c r="H102" s="1" t="n">
+        <v>44372.77016203704</v>
       </c>
       <c r="I102" t="n">
         <v>0</v>
@@ -8062,10 +7876,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H103" t="inlineStr">
-        <is>
-          <t>2021-06-25 18:27:48</t>
-        </is>
+      <c r="H103" s="1" t="n">
+        <v>44372.76930555556</v>
       </c>
       <c r="I103" t="n">
         <v>1</v>
@@ -8137,10 +7949,8 @@
           <t>4789334422</t>
         </is>
       </c>
-      <c r="H104" t="inlineStr">
-        <is>
-          <t>2021-06-25 18:27:29</t>
-        </is>
+      <c r="H104" s="1" t="n">
+        <v>44372.76908564815</v>
       </c>
       <c r="I104" t="n">
         <v>0</v>
@@ -8216,10 +8026,8 @@
           <t>4789334422</t>
         </is>
       </c>
-      <c r="H105" t="inlineStr">
-        <is>
-          <t>2021-06-25 18:22:35</t>
-        </is>
+      <c r="H105" s="1" t="n">
+        <v>44372.76568287037</v>
       </c>
       <c r="I105" t="n">
         <v>0</v>
@@ -8291,10 +8099,8 @@
           <t>4789334422</t>
         </is>
       </c>
-      <c r="H106" t="inlineStr">
-        <is>
-          <t>2021-06-25 18:21:59</t>
-        </is>
+      <c r="H106" s="1" t="n">
+        <v>44372.76526620371</v>
       </c>
       <c r="I106" t="n">
         <v>0</v>
@@ -8366,10 +8172,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H107" t="inlineStr">
-        <is>
-          <t>2021-06-25 18:20:40</t>
-        </is>
+      <c r="H107" s="1" t="n">
+        <v>44372.76435185185</v>
       </c>
       <c r="I107" t="n">
         <v>2</v>
@@ -8441,10 +8245,8 @@
           <t>4789334422</t>
         </is>
       </c>
-      <c r="H108" t="inlineStr">
-        <is>
-          <t>2021-06-25 18:20:30</t>
-        </is>
+      <c r="H108" s="1" t="n">
+        <v>44372.76423611111</v>
       </c>
       <c r="I108" t="n">
         <v>0</v>
@@ -8520,10 +8322,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H109" t="inlineStr">
-        <is>
-          <t>2021-06-25 18:20:10</t>
-        </is>
+      <c r="H109" s="1" t="n">
+        <v>44372.76400462963</v>
       </c>
       <c r="I109" t="n">
         <v>0</v>
@@ -8595,10 +8395,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H110" t="inlineStr">
-        <is>
-          <t>2021-06-25 18:19:33</t>
-        </is>
+      <c r="H110" s="1" t="n">
+        <v>44372.76357638889</v>
       </c>
       <c r="I110" t="n">
         <v>0</v>
@@ -8674,10 +8472,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H111" t="inlineStr">
-        <is>
-          <t>2021-06-25 18:18:01</t>
-        </is>
+      <c r="H111" s="1" t="n">
+        <v>44372.76251157407</v>
       </c>
       <c r="I111" t="n">
         <v>0</v>
@@ -8753,10 +8549,8 @@
           <t>4789334422</t>
         </is>
       </c>
-      <c r="H112" t="inlineStr">
-        <is>
-          <t>2021-06-25 18:17:02</t>
-        </is>
+      <c r="H112" s="1" t="n">
+        <v>44372.7618287037</v>
       </c>
       <c r="I112" t="n">
         <v>0</v>
@@ -8828,10 +8622,8 @@
           <t>4789517949</t>
         </is>
       </c>
-      <c r="H113" t="inlineStr">
-        <is>
-          <t>2021-06-25 18:08:06</t>
-        </is>
+      <c r="H113" s="1" t="n">
+        <v>44372.755625</v>
       </c>
       <c r="I113" t="n">
         <v>2</v>
@@ -8895,10 +8687,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H114" t="inlineStr">
-        <is>
-          <t>2021-06-25 18:06:54</t>
-        </is>
+      <c r="H114" s="1" t="n">
+        <v>44372.75479166667</v>
       </c>
       <c r="I114" t="n">
         <v>0</v>
@@ -8974,10 +8764,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H115" t="inlineStr">
-        <is>
-          <t>2021-06-25 18:04:33</t>
-        </is>
+      <c r="H115" s="1" t="n">
+        <v>44372.75315972222</v>
       </c>
       <c r="I115" t="n">
         <v>2</v>
@@ -9041,10 +8829,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H116" t="inlineStr">
-        <is>
-          <t>2021-06-25 18:03:32</t>
-        </is>
+      <c r="H116" s="1" t="n">
+        <v>44372.7524537037</v>
       </c>
       <c r="I116" t="n">
         <v>0</v>
@@ -9108,10 +8894,8 @@
           <t>4788884639</t>
         </is>
       </c>
-      <c r="H117" t="inlineStr">
-        <is>
-          <t>2021-06-25 18:00:24</t>
-        </is>
+      <c r="H117" s="1" t="n">
+        <v>44372.75027777778</v>
       </c>
       <c r="I117" t="n">
         <v>0</v>
@@ -9171,10 +8955,8 @@
           <t>4789802641</t>
         </is>
       </c>
-      <c r="H118" t="inlineStr">
-        <is>
-          <t>2021-06-25 18:00:15</t>
-        </is>
+      <c r="H118" s="1" t="n">
+        <v>44372.75017361111</v>
       </c>
       <c r="I118" t="n">
         <v>0</v>
@@ -9234,10 +9016,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H119" t="inlineStr">
-        <is>
-          <t>2021-06-25 17:56:35</t>
-        </is>
+      <c r="H119" s="1" t="n">
+        <v>44372.74762731481</v>
       </c>
       <c r="I119" t="n">
         <v>1</v>
@@ -9297,10 +9077,8 @@
           <t>4789334422</t>
         </is>
       </c>
-      <c r="H120" t="inlineStr">
-        <is>
-          <t>2021-06-25 17:55:29</t>
-        </is>
+      <c r="H120" s="1" t="n">
+        <v>44372.74686342593</v>
       </c>
       <c r="I120" t="n">
         <v>0</v>
@@ -9376,10 +9154,8 @@
           <t>4788967000</t>
         </is>
       </c>
-      <c r="H121" t="inlineStr">
-        <is>
-          <t>2021-06-25 17:53:01</t>
-        </is>
+      <c r="H121" s="1" t="n">
+        <v>44372.74515046296</v>
       </c>
       <c r="I121" t="n">
         <v>0</v>
@@ -9451,10 +9227,8 @@
           <t>4789750157</t>
         </is>
       </c>
-      <c r="H122" t="inlineStr">
-        <is>
-          <t>2021-06-25 17:50:09</t>
-        </is>
+      <c r="H122" s="1" t="n">
+        <v>44372.74315972222</v>
       </c>
       <c r="I122" t="n">
         <v>0</v>
@@ -9514,10 +9288,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H123" t="inlineStr">
-        <is>
-          <t>2021-06-25 17:50:02</t>
-        </is>
+      <c r="H123" s="1" t="n">
+        <v>44372.7430787037</v>
       </c>
       <c r="I123" t="n">
         <v>0</v>
@@ -9593,10 +9365,8 @@
           <t>4789717009</t>
         </is>
       </c>
-      <c r="H124" t="inlineStr">
-        <is>
-          <t>2021-06-25 17:44:23</t>
-        </is>
+      <c r="H124" s="1" t="n">
+        <v>44372.73915509259</v>
       </c>
       <c r="I124" t="n">
         <v>0</v>
@@ -9664,10 +9434,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H125" t="inlineStr">
-        <is>
-          <t>2021-06-25 17:42:40</t>
-        </is>
+      <c r="H125" s="1" t="n">
+        <v>44372.73796296296</v>
       </c>
       <c r="I125" t="n">
         <v>0</v>
@@ -9735,10 +9503,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H126" t="inlineStr">
-        <is>
-          <t>2021-06-25 17:41:00</t>
-        </is>
+      <c r="H126" s="1" t="n">
+        <v>44372.73680555556</v>
       </c>
       <c r="I126" t="n">
         <v>0</v>
@@ -9810,10 +9576,8 @@
           <t>4789697455</t>
         </is>
       </c>
-      <c r="H127" t="inlineStr">
-        <is>
-          <t>2021-06-25 17:40:35</t>
-        </is>
+      <c r="H127" s="1" t="n">
+        <v>44372.7365162037</v>
       </c>
       <c r="I127" t="n">
         <v>1</v>
@@ -9873,10 +9637,8 @@
           <t>4788862653</t>
         </is>
       </c>
-      <c r="H128" t="inlineStr">
-        <is>
-          <t>2021-06-25 17:40:02</t>
-        </is>
+      <c r="H128" s="1" t="n">
+        <v>44372.73613425926</v>
       </c>
       <c r="I128" t="n">
         <v>1</v>
@@ -9944,10 +9706,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H129" t="inlineStr">
-        <is>
-          <t>2021-06-25 17:39:51</t>
-        </is>
+      <c r="H129" s="1" t="n">
+        <v>44372.73600694445</v>
       </c>
       <c r="I129" t="n">
         <v>0</v>
@@ -10019,10 +9779,8 @@
           <t>4789302933</t>
         </is>
       </c>
-      <c r="H130" t="inlineStr">
-        <is>
-          <t>2021-06-25 17:39:19</t>
-        </is>
+      <c r="H130" s="1" t="n">
+        <v>44372.73563657407</v>
       </c>
       <c r="I130" t="n">
         <v>0</v>
@@ -10090,10 +9848,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H131" t="inlineStr">
-        <is>
-          <t>2021-06-25 17:35:56</t>
-        </is>
+      <c r="H131" s="1" t="n">
+        <v>44372.73328703704</v>
       </c>
       <c r="I131" t="n">
         <v>0</v>
@@ -10161,10 +9917,8 @@
           <t>4789665912</t>
         </is>
       </c>
-      <c r="H132" t="inlineStr">
-        <is>
-          <t>2021-06-25 17:34:09</t>
-        </is>
+      <c r="H132" s="1" t="n">
+        <v>44372.73204861111</v>
       </c>
       <c r="I132" t="n">
         <v>0</v>
@@ -10232,10 +9986,8 @@
           <t>4789418605</t>
         </is>
       </c>
-      <c r="H133" t="inlineStr">
-        <is>
-          <t>2021-06-25 17:33:43</t>
-        </is>
+      <c r="H133" s="1" t="n">
+        <v>44372.73174768518</v>
       </c>
       <c r="I133" t="n">
         <v>0</v>
@@ -10299,10 +10051,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H134" t="inlineStr">
-        <is>
-          <t>2021-06-25 17:31:32</t>
-        </is>
+      <c r="H134" s="1" t="n">
+        <v>44372.73023148148</v>
       </c>
       <c r="I134" t="n">
         <v>2</v>
@@ -10378,10 +10128,8 @@
           <t>4789611010</t>
         </is>
       </c>
-      <c r="H135" t="inlineStr">
-        <is>
-          <t>2021-06-25 17:30:25</t>
-        </is>
+      <c r="H135" s="1" t="n">
+        <v>44372.72945601852</v>
       </c>
       <c r="I135" t="n">
         <v>0</v>
@@ -10457,10 +10205,8 @@
           <t>4789302933</t>
         </is>
       </c>
-      <c r="H136" t="inlineStr">
-        <is>
-          <t>2021-06-25 17:29:59</t>
-        </is>
+      <c r="H136" s="1" t="n">
+        <v>44372.72915509259</v>
       </c>
       <c r="I136" t="n">
         <v>1</v>
@@ -10520,10 +10266,8 @@
           <t>4789633588</t>
         </is>
       </c>
-      <c r="H137" t="inlineStr">
-        <is>
-          <t>2021-06-25 17:29:36</t>
-        </is>
+      <c r="H137" s="1" t="n">
+        <v>44372.72888888889</v>
       </c>
       <c r="I137" t="n">
         <v>1</v>
@@ -10599,10 +10343,8 @@
           <t>4789616089</t>
         </is>
       </c>
-      <c r="H138" t="inlineStr">
-        <is>
-          <t>2021-06-25 17:25:08</t>
-        </is>
+      <c r="H138" s="1" t="n">
+        <v>44372.72578703704</v>
       </c>
       <c r="I138" t="n">
         <v>2</v>
@@ -10678,10 +10420,8 @@
           <t>4789611010</t>
         </is>
       </c>
-      <c r="H139" t="inlineStr">
-        <is>
-          <t>2021-06-25 17:24:49</t>
-        </is>
+      <c r="H139" s="1" t="n">
+        <v>44372.72556712963</v>
       </c>
       <c r="I139" t="n">
         <v>0</v>
@@ -10749,10 +10489,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H140" t="inlineStr">
-        <is>
-          <t>2021-06-25 17:24:06</t>
-        </is>
+      <c r="H140" s="1" t="n">
+        <v>44372.72506944444</v>
       </c>
       <c r="I140" t="n">
         <v>1</v>
@@ -10816,10 +10554,8 @@
           <t>4789302933</t>
         </is>
       </c>
-      <c r="H141" t="inlineStr">
-        <is>
-          <t>2021-06-25 17:22:11</t>
-        </is>
+      <c r="H141" s="1" t="n">
+        <v>44372.72373842593</v>
       </c>
       <c r="I141" t="n">
         <v>0</v>
@@ -10891,10 +10627,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H142" t="inlineStr">
-        <is>
-          <t>2021-06-25 17:21:08</t>
-        </is>
+      <c r="H142" s="1" t="n">
+        <v>44372.72300925926</v>
       </c>
       <c r="I142" t="n">
         <v>0</v>
@@ -10958,10 +10692,8 @@
           <t>4789086051</t>
         </is>
       </c>
-      <c r="H143" t="inlineStr">
-        <is>
-          <t>2021-06-25 17:19:50</t>
-        </is>
+      <c r="H143" s="1" t="n">
+        <v>44372.72210648148</v>
       </c>
       <c r="I143" t="n">
         <v>0</v>
@@ -11029,10 +10761,8 @@
           <t>4788967000</t>
         </is>
       </c>
-      <c r="H144" t="inlineStr">
-        <is>
-          <t>2021-06-25 17:19:33</t>
-        </is>
+      <c r="H144" s="1" t="n">
+        <v>44372.72190972222</v>
       </c>
       <c r="I144" t="n">
         <v>5</v>
@@ -11104,10 +10834,8 @@
           <t>4789580286</t>
         </is>
       </c>
-      <c r="H145" t="inlineStr">
-        <is>
-          <t>2021-06-25 17:18:38</t>
-        </is>
+      <c r="H145" s="1" t="n">
+        <v>44372.72127314815</v>
       </c>
       <c r="I145" t="n">
         <v>0</v>
@@ -11179,10 +10907,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H146" t="inlineStr">
-        <is>
-          <t>2021-06-25 17:18:04</t>
-        </is>
+      <c r="H146" s="1" t="n">
+        <v>44372.72087962963</v>
       </c>
       <c r="I146" t="n">
         <v>1</v>
@@ -11254,10 +10980,8 @@
           <t>4789302933</t>
         </is>
       </c>
-      <c r="H147" t="inlineStr">
-        <is>
-          <t>2021-06-25 17:17:15</t>
-        </is>
+      <c r="H147" s="1" t="n">
+        <v>44372.7203125</v>
       </c>
       <c r="I147" t="n">
         <v>5</v>
@@ -11319,10 +11043,8 @@
           <t>4789564733</t>
         </is>
       </c>
-      <c r="H148" t="inlineStr">
-        <is>
-          <t>2021-06-25 17:16:19</t>
-        </is>
+      <c r="H148" s="1" t="n">
+        <v>44372.71966435185</v>
       </c>
       <c r="I148" t="n">
         <v>12</v>
@@ -11392,10 +11114,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H149" t="inlineStr">
-        <is>
-          <t>2021-06-25 17:16:07</t>
-        </is>
+      <c r="H149" s="1" t="n">
+        <v>44372.71952546296</v>
       </c>
       <c r="I149" t="n">
         <v>1</v>
@@ -11463,10 +11183,8 @@
           <t>4788654179</t>
         </is>
       </c>
-      <c r="H150" t="inlineStr">
-        <is>
-          <t>2021-06-25 17:15:40</t>
-        </is>
+      <c r="H150" s="1" t="n">
+        <v>44372.71921296296</v>
       </c>
       <c r="I150" t="n">
         <v>0</v>
@@ -11538,10 +11256,8 @@
           <t>4789302933</t>
         </is>
       </c>
-      <c r="H151" t="inlineStr">
-        <is>
-          <t>2021-06-25 17:14:41</t>
-        </is>
+      <c r="H151" s="1" t="n">
+        <v>44372.71853009259</v>
       </c>
       <c r="I151" t="n">
         <v>2</v>
@@ -11605,10 +11321,8 @@
           <t>4788654619</t>
         </is>
       </c>
-      <c r="H152" t="inlineStr">
-        <is>
-          <t>2021-06-25 17:14:31</t>
-        </is>
+      <c r="H152" s="1" t="n">
+        <v>44372.71841435185</v>
       </c>
       <c r="I152" t="n">
         <v>0</v>
@@ -11684,10 +11398,8 @@
           <t>4789302933</t>
         </is>
       </c>
-      <c r="H153" t="inlineStr">
-        <is>
-          <t>2021-06-25 17:14:29</t>
-        </is>
+      <c r="H153" s="1" t="n">
+        <v>44372.71839120371</v>
       </c>
       <c r="I153" t="n">
         <v>0</v>
@@ -11747,10 +11459,8 @@
           <t>4789302933</t>
         </is>
       </c>
-      <c r="H154" t="inlineStr">
-        <is>
-          <t>2021-06-25 17:13:22</t>
-        </is>
+      <c r="H154" s="1" t="n">
+        <v>44372.71761574074</v>
       </c>
       <c r="I154" t="n">
         <v>5</v>
@@ -11810,10 +11520,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H155" t="inlineStr">
-        <is>
-          <t>2021-06-25 17:11:45</t>
-        </is>
+      <c r="H155" s="1" t="n">
+        <v>44372.71649305556</v>
       </c>
       <c r="I155" t="n">
         <v>1</v>
@@ -11873,10 +11581,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H156" t="inlineStr">
-        <is>
-          <t>2021-06-25 17:08:29</t>
-        </is>
+      <c r="H156" s="1" t="n">
+        <v>44372.71422453703</v>
       </c>
       <c r="I156" t="n">
         <v>0</v>
@@ -11952,10 +11658,8 @@
           <t>4788967000</t>
         </is>
       </c>
-      <c r="H157" t="inlineStr">
-        <is>
-          <t>2021-06-25 17:07:41</t>
-        </is>
+      <c r="H157" s="1" t="n">
+        <v>44372.71366898148</v>
       </c>
       <c r="I157" t="n">
         <v>0</v>
@@ -12027,10 +11731,8 @@
           <t>4789517949</t>
         </is>
       </c>
-      <c r="H158" t="inlineStr">
-        <is>
-          <t>2021-06-25 17:06:36</t>
-        </is>
+      <c r="H158" s="1" t="n">
+        <v>44372.71291666666</v>
       </c>
       <c r="I158" t="n">
         <v>3</v>
@@ -12094,10 +11796,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H159" t="inlineStr">
-        <is>
-          <t>2021-06-25 17:05:35</t>
-        </is>
+      <c r="H159" s="1" t="n">
+        <v>44372.71221064815</v>
       </c>
       <c r="I159" t="n">
         <v>1</v>
@@ -12173,10 +11873,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H160" t="inlineStr">
-        <is>
-          <t>2021-06-25 17:04:02</t>
-        </is>
+      <c r="H160" s="1" t="n">
+        <v>44372.71113425926</v>
       </c>
       <c r="I160" t="n">
         <v>0</v>
@@ -12252,10 +11950,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H161" t="inlineStr">
-        <is>
-          <t>2021-06-25 17:01:06</t>
-        </is>
+      <c r="H161" s="1" t="n">
+        <v>44372.70909722222</v>
       </c>
       <c r="I161" t="n">
         <v>1</v>
@@ -12319,10 +12015,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H162" t="inlineStr">
-        <is>
-          <t>2021-06-25 16:56:58</t>
-        </is>
+      <c r="H162" s="1" t="n">
+        <v>44372.70622685185</v>
       </c>
       <c r="I162" t="n">
         <v>0</v>
@@ -12382,10 +12076,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H163" t="inlineStr">
-        <is>
-          <t>2021-06-25 16:56:06</t>
-        </is>
+      <c r="H163" s="1" t="n">
+        <v>44372.705625</v>
       </c>
       <c r="I163" t="n">
         <v>0</v>
@@ -12453,10 +12145,8 @@
           <t>4789302933</t>
         </is>
       </c>
-      <c r="H164" t="inlineStr">
-        <is>
-          <t>2021-06-25 16:55:59</t>
-        </is>
+      <c r="H164" s="1" t="n">
+        <v>44372.70554398148</v>
       </c>
       <c r="I164" t="n">
         <v>4</v>
@@ -12520,10 +12210,8 @@
           <t>4789302933</t>
         </is>
       </c>
-      <c r="H165" t="inlineStr">
-        <is>
-          <t>2021-06-25 16:53:57</t>
-        </is>
+      <c r="H165" s="1" t="n">
+        <v>44372.70413194445</v>
       </c>
       <c r="I165" t="n">
         <v>2</v>
@@ -12595,10 +12283,8 @@
           <t>4789302933</t>
         </is>
       </c>
-      <c r="H166" t="inlineStr">
-        <is>
-          <t>2021-06-25 16:53:20</t>
-        </is>
+      <c r="H166" s="1" t="n">
+        <v>44372.7037037037</v>
       </c>
       <c r="I166" t="n">
         <v>4</v>
@@ -12670,10 +12356,8 @@
           <t>4789430540</t>
         </is>
       </c>
-      <c r="H167" t="inlineStr">
-        <is>
-          <t>2021-06-25 16:47:42</t>
-        </is>
+      <c r="H167" s="1" t="n">
+        <v>44372.69979166667</v>
       </c>
       <c r="I167" t="n">
         <v>0</v>
@@ -12745,10 +12429,8 @@
           <t>4789279344</t>
         </is>
       </c>
-      <c r="H168" t="inlineStr">
-        <is>
-          <t>2021-06-25 16:45:56</t>
-        </is>
+      <c r="H168" s="1" t="n">
+        <v>44372.69856481482</v>
       </c>
       <c r="I168" t="n">
         <v>2</v>
@@ -12812,10 +12494,8 @@
           <t>4789094428</t>
         </is>
       </c>
-      <c r="H169" t="inlineStr">
-        <is>
-          <t>2021-06-25 16:45:34</t>
-        </is>
+      <c r="H169" s="1" t="n">
+        <v>44372.69831018519</v>
       </c>
       <c r="I169" t="n">
         <v>0</v>
@@ -12887,10 +12567,8 @@
           <t>4789416341</t>
         </is>
       </c>
-      <c r="H170" t="inlineStr">
-        <is>
-          <t>2021-06-25 16:44:55</t>
-        </is>
+      <c r="H170" s="1" t="n">
+        <v>44372.69785879629</v>
       </c>
       <c r="I170" t="n">
         <v>2</v>
@@ -12962,10 +12640,8 @@
           <t>4789415910</t>
         </is>
       </c>
-      <c r="H171" t="inlineStr">
-        <is>
-          <t>2021-06-25 16:44:38</t>
-        </is>
+      <c r="H171" s="1" t="n">
+        <v>44372.69766203704</v>
       </c>
       <c r="I171" t="n">
         <v>0</v>
@@ -13037,10 +12713,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H172" t="inlineStr">
-        <is>
-          <t>2021-06-25 16:43:16</t>
-        </is>
+      <c r="H172" s="1" t="n">
+        <v>44372.69671296296</v>
       </c>
       <c r="I172" t="n">
         <v>0</v>
@@ -13100,10 +12774,8 @@
           <t>4789393889</t>
         </is>
       </c>
-      <c r="H173" t="inlineStr">
-        <is>
-          <t>2021-06-25 16:42:20</t>
-        </is>
+      <c r="H173" s="1" t="n">
+        <v>44372.69606481482</v>
       </c>
       <c r="I173" t="n">
         <v>7</v>
@@ -13167,10 +12839,8 @@
           <t>4789302933</t>
         </is>
       </c>
-      <c r="H174" t="inlineStr">
-        <is>
-          <t>2021-06-25 16:41:45</t>
-        </is>
+      <c r="H174" s="1" t="n">
+        <v>44372.69565972222</v>
       </c>
       <c r="I174" t="n">
         <v>6</v>
@@ -13238,10 +12908,8 @@
           <t>4789389844</t>
         </is>
       </c>
-      <c r="H175" t="inlineStr">
-        <is>
-          <t>2021-06-25 16:40:35</t>
-        </is>
+      <c r="H175" s="1" t="n">
+        <v>44372.69484953704</v>
       </c>
       <c r="I175" t="n">
         <v>0</v>
@@ -13311,10 +12979,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H176" t="inlineStr">
-        <is>
-          <t>2021-06-25 16:40:17</t>
-        </is>
+      <c r="H176" s="1" t="n">
+        <v>44372.69464120371</v>
       </c>
       <c r="I176" t="n">
         <v>0</v>
@@ -13374,10 +13040,8 @@
           <t>4789384900</t>
         </is>
       </c>
-      <c r="H177" t="inlineStr">
-        <is>
-          <t>2021-06-25 16:40:08</t>
-        </is>
+      <c r="H177" s="1" t="n">
+        <v>44372.69453703704</v>
       </c>
       <c r="I177" t="n">
         <v>0</v>
@@ -13453,10 +13117,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H178" t="inlineStr">
-        <is>
-          <t>2021-06-25 16:39:59</t>
-        </is>
+      <c r="H178" s="1" t="n">
+        <v>44372.69443287037</v>
       </c>
       <c r="I178" t="n">
         <v>0</v>
@@ -13534,10 +13196,8 @@
           <t>4789384095</t>
         </is>
       </c>
-      <c r="H179" t="inlineStr">
-        <is>
-          <t>2021-06-25 16:39:36</t>
-        </is>
+      <c r="H179" s="1" t="n">
+        <v>44372.69416666667</v>
       </c>
       <c r="I179" t="n">
         <v>0</v>
@@ -13613,10 +13273,8 @@
           <t>4789382996</t>
         </is>
       </c>
-      <c r="H180" t="inlineStr">
-        <is>
-          <t>2021-06-25 16:38:54</t>
-        </is>
+      <c r="H180" s="1" t="n">
+        <v>44372.69368055555</v>
       </c>
       <c r="I180" t="n">
         <v>0</v>
@@ -13688,10 +13346,8 @@
           <t>4789382816</t>
         </is>
       </c>
-      <c r="H181" t="inlineStr">
-        <is>
-          <t>2021-06-25 16:38:47</t>
-        </is>
+      <c r="H181" s="1" t="n">
+        <v>44372.69359953704</v>
       </c>
       <c r="I181" t="n">
         <v>3</v>
@@ -13773,10 +13429,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H182" t="inlineStr">
-        <is>
-          <t>2021-06-25 16:38:41</t>
-        </is>
+      <c r="H182" s="1" t="n">
+        <v>44372.69353009259</v>
       </c>
       <c r="I182" t="n">
         <v>1</v>
@@ -13840,10 +13494,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H183" t="inlineStr">
-        <is>
-          <t>2021-06-25 16:38:03</t>
-        </is>
+      <c r="H183" s="1" t="n">
+        <v>44372.69309027777</v>
       </c>
       <c r="I183" t="n">
         <v>0</v>
@@ -13911,10 +13563,8 @@
           <t>4789381599</t>
         </is>
       </c>
-      <c r="H184" t="inlineStr">
-        <is>
-          <t>2021-06-25 16:38:00</t>
-        </is>
+      <c r="H184" s="1" t="n">
+        <v>44372.69305555556</v>
       </c>
       <c r="I184" t="n">
         <v>0</v>
@@ -13982,10 +13632,8 @@
           <t>4789367115</t>
         </is>
       </c>
-      <c r="H185" t="inlineStr">
-        <is>
-          <t>2021-06-25 16:35:05</t>
-        </is>
+      <c r="H185" s="1" t="n">
+        <v>44372.6910300926</v>
       </c>
       <c r="I185" t="n">
         <v>0</v>
@@ -14049,10 +13697,8 @@
           <t>4789302933</t>
         </is>
       </c>
-      <c r="H186" t="inlineStr">
-        <is>
-          <t>2021-06-25 16:34:12</t>
-        </is>
+      <c r="H186" s="1" t="n">
+        <v>44372.69041666666</v>
       </c>
       <c r="I186" t="n">
         <v>5</v>
@@ -14116,10 +13762,8 @@
           <t>4789365667</t>
         </is>
       </c>
-      <c r="H187" t="inlineStr">
-        <is>
-          <t>2021-06-25 16:34:03</t>
-        </is>
+      <c r="H187" s="1" t="n">
+        <v>44372.6903125</v>
       </c>
       <c r="I187" t="n">
         <v>12</v>
@@ -14195,10 +13839,8 @@
           <t>4789302933</t>
         </is>
       </c>
-      <c r="H188" t="inlineStr">
-        <is>
-          <t>2021-06-25 16:33:28</t>
-        </is>
+      <c r="H188" s="1" t="n">
+        <v>44372.68990740741</v>
       </c>
       <c r="I188" t="n">
         <v>9</v>
@@ -14274,10 +13916,8 @@
           <t>4789352299</t>
         </is>
       </c>
-      <c r="H189" t="inlineStr">
-        <is>
-          <t>2021-06-25 16:31:50</t>
-        </is>
+      <c r="H189" s="1" t="n">
+        <v>44372.68877314815</v>
       </c>
       <c r="I189" t="n">
         <v>0</v>
@@ -14353,10 +13993,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H190" t="inlineStr">
-        <is>
-          <t>2021-06-25 16:31:21</t>
-        </is>
+      <c r="H190" s="1" t="n">
+        <v>44372.6884375</v>
       </c>
       <c r="I190" t="n">
         <v>0</v>
@@ -14420,10 +14058,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H191" t="inlineStr">
-        <is>
-          <t>2021-06-25 16:30:22</t>
-        </is>
+      <c r="H191" s="1" t="n">
+        <v>44372.68775462963</v>
       </c>
       <c r="I191" t="n">
         <v>0</v>
@@ -14495,10 +14131,8 @@
           <t>4789339902</t>
         </is>
       </c>
-      <c r="H192" t="inlineStr">
-        <is>
-          <t>2021-06-25 16:30:14</t>
-        </is>
+      <c r="H192" s="1" t="n">
+        <v>44372.68766203704</v>
       </c>
       <c r="I192" t="n">
         <v>1</v>
@@ -14570,10 +14204,8 @@
           <t>4789339192</t>
         </is>
       </c>
-      <c r="H193" t="inlineStr">
-        <is>
-          <t>2021-06-25 16:29:43</t>
-        </is>
+      <c r="H193" s="1" t="n">
+        <v>44372.68730324074</v>
       </c>
       <c r="I193" t="n">
         <v>0</v>
@@ -14645,10 +14277,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H194" t="inlineStr">
-        <is>
-          <t>2021-06-25 16:29:03</t>
-        </is>
+      <c r="H194" s="1" t="n">
+        <v>44372.68684027778</v>
       </c>
       <c r="I194" t="n">
         <v>1</v>
@@ -14742,10 +14372,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H195" t="inlineStr">
-        <is>
-          <t>2021-06-25 16:28:27</t>
-        </is>
+      <c r="H195" s="1" t="n">
+        <v>44372.68642361111</v>
       </c>
       <c r="I195" t="n">
         <v>2</v>
@@ -14813,10 +14441,8 @@
           <t>4789340009</t>
         </is>
       </c>
-      <c r="H196" t="inlineStr">
-        <is>
-          <t>2021-06-25 16:26:51</t>
-        </is>
+      <c r="H196" s="1" t="n">
+        <v>44372.6853125</v>
       </c>
       <c r="I196" t="n">
         <v>0</v>
@@ -14892,10 +14518,8 @@
           <t>4789302933</t>
         </is>
       </c>
-      <c r="H197" t="inlineStr">
-        <is>
-          <t>2021-06-25 16:25:24</t>
-        </is>
+      <c r="H197" s="1" t="n">
+        <v>44372.68430555556</v>
       </c>
       <c r="I197" t="n">
         <v>15</v>
@@ -14967,10 +14591,8 @@
           <t>4789302933</t>
         </is>
       </c>
-      <c r="H198" t="inlineStr">
-        <is>
-          <t>2021-06-25 16:24:37</t>
-        </is>
+      <c r="H198" s="1" t="n">
+        <v>44372.68376157407</v>
       </c>
       <c r="I198" t="n">
         <v>16</v>
@@ -15042,10 +14664,8 @@
           <t>4789304967</t>
         </is>
       </c>
-      <c r="H199" t="inlineStr">
-        <is>
-          <t>2021-06-25 16:22:33</t>
-        </is>
+      <c r="H199" s="1" t="n">
+        <v>44372.68232638889</v>
       </c>
       <c r="I199" t="n">
         <v>0</v>
@@ -15113,10 +14733,8 @@
           <t>4789302933</t>
         </is>
       </c>
-      <c r="H200" t="inlineStr">
-        <is>
-          <t>2021-06-25 16:22:14</t>
-        </is>
+      <c r="H200" s="1" t="n">
+        <v>44372.68210648148</v>
       </c>
       <c r="I200" t="n">
         <v>1</v>
@@ -15184,10 +14802,8 @@
           <t>4789307881</t>
         </is>
       </c>
-      <c r="H201" t="inlineStr">
-        <is>
-          <t>2021-06-25 16:21:39</t>
-        </is>
+      <c r="H201" s="1" t="n">
+        <v>44372.68170138889</v>
       </c>
       <c r="I201" t="n">
         <v>0</v>
@@ -15255,10 +14871,8 @@
           <t>4789302933</t>
         </is>
       </c>
-      <c r="H202" t="inlineStr">
-        <is>
-          <t>2021-06-25 16:21:07</t>
-        </is>
+      <c r="H202" s="1" t="n">
+        <v>44372.68133101852</v>
       </c>
       <c r="I202" t="n">
         <v>4</v>
@@ -15326,10 +14940,8 @@
           <t>4789311537</t>
         </is>
       </c>
-      <c r="H203" t="inlineStr">
-        <is>
-          <t>2021-06-25 16:21:03</t>
-        </is>
+      <c r="H203" s="1" t="n">
+        <v>44372.68128472222</v>
       </c>
       <c r="I203" t="n">
         <v>0</v>
@@ -15397,10 +15009,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H204" t="inlineStr">
-        <is>
-          <t>2021-06-25 16:20:59</t>
-        </is>
+      <c r="H204" s="1" t="n">
+        <v>44372.68123842592</v>
       </c>
       <c r="I204" t="n">
         <v>3</v>
@@ -15472,10 +15082,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H205" t="inlineStr">
-        <is>
-          <t>2021-06-25 16:18:58</t>
-        </is>
+      <c r="H205" s="1" t="n">
+        <v>44372.67983796296</v>
       </c>
       <c r="I205" t="n">
         <v>0</v>
@@ -15547,10 +15155,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H206" t="inlineStr">
-        <is>
-          <t>2021-06-25 16:17:34</t>
-        </is>
+      <c r="H206" s="1" t="n">
+        <v>44372.67886574074</v>
       </c>
       <c r="I206" t="n">
         <v>1</v>
@@ -15614,10 +15220,8 @@
           <t>4789286326</t>
         </is>
       </c>
-      <c r="H207" t="inlineStr">
-        <is>
-          <t>2021-06-25 16:16:26</t>
-        </is>
+      <c r="H207" s="1" t="n">
+        <v>44372.67807870371</v>
       </c>
       <c r="I207" t="n">
         <v>5</v>
@@ -15689,10 +15293,8 @@
           <t>4789285125</t>
         </is>
       </c>
-      <c r="H208" t="inlineStr">
-        <is>
-          <t>2021-06-25 16:15:34</t>
-        </is>
+      <c r="H208" s="1" t="n">
+        <v>44372.67747685185</v>
       </c>
       <c r="I208" t="n">
         <v>0</v>
@@ -15764,10 +15366,8 @@
           <t>4789279344</t>
         </is>
       </c>
-      <c r="H209" t="inlineStr">
-        <is>
-          <t>2021-06-25 16:15:30</t>
-        </is>
+      <c r="H209" s="1" t="n">
+        <v>44372.67743055556</v>
       </c>
       <c r="I209" t="n">
         <v>13</v>
@@ -15835,10 +15435,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H210" t="inlineStr">
-        <is>
-          <t>2021-06-25 16:15:27</t>
-        </is>
+      <c r="H210" s="1" t="n">
+        <v>44372.67739583334</v>
       </c>
       <c r="I210" t="n">
         <v>3</v>
@@ -15902,10 +15500,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H211" t="inlineStr">
-        <is>
-          <t>2021-06-25 16:15:15</t>
-        </is>
+      <c r="H211" s="1" t="n">
+        <v>44372.67725694444</v>
       </c>
       <c r="I211" t="n">
         <v>3</v>
@@ -15978,10 +15574,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H212" t="inlineStr">
-        <is>
-          <t>2021-06-25 16:14:01</t>
-        </is>
+      <c r="H212" s="1" t="n">
+        <v>44372.67640046297</v>
       </c>
       <c r="I212" t="n">
         <v>0</v>
@@ -16045,10 +15639,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H213" t="inlineStr">
-        <is>
-          <t>2021-06-25 16:12:31</t>
-        </is>
+      <c r="H213" s="1" t="n">
+        <v>44372.6753587963</v>
       </c>
       <c r="I213" t="n">
         <v>0</v>
@@ -16113,10 +15705,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H214" t="inlineStr">
-        <is>
-          <t>2021-06-25 16:11:36</t>
-        </is>
+      <c r="H214" s="1" t="n">
+        <v>44372.67472222223</v>
       </c>
       <c r="I214" t="n">
         <v>1</v>
@@ -16191,10 +15781,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H215" t="inlineStr">
-        <is>
-          <t>2021-06-25 16:11:09</t>
-        </is>
+      <c r="H215" s="1" t="n">
+        <v>44372.67440972223</v>
       </c>
       <c r="I215" t="n">
         <v>1</v>
@@ -16262,10 +15850,8 @@
           <t>4789258759</t>
         </is>
       </c>
-      <c r="H216" t="inlineStr">
-        <is>
-          <t>2021-06-25 16:11:03</t>
-        </is>
+      <c r="H216" s="1" t="n">
+        <v>44372.67434027778</v>
       </c>
       <c r="I216" t="n">
         <v>0</v>
@@ -16333,10 +15919,8 @@
           <t>4789256695</t>
         </is>
       </c>
-      <c r="H217" t="inlineStr">
-        <is>
-          <t>2021-06-25 16:09:35</t>
-        </is>
+      <c r="H217" s="1" t="n">
+        <v>44372.67332175926</v>
       </c>
       <c r="I217" t="n">
         <v>0</v>
@@ -16408,10 +15992,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H218" t="inlineStr">
-        <is>
-          <t>2021-06-25 16:08:50</t>
-        </is>
+      <c r="H218" s="1" t="n">
+        <v>44372.67280092592</v>
       </c>
       <c r="I218" t="n">
         <v>12</v>
@@ -16483,10 +16065,8 @@
           <t>4789250688</t>
         </is>
       </c>
-      <c r="H219" t="inlineStr">
-        <is>
-          <t>2021-06-25 16:06:30</t>
-        </is>
+      <c r="H219" s="1" t="n">
+        <v>44372.67118055555</v>
       </c>
       <c r="I219" t="n">
         <v>0</v>
@@ -16562,10 +16142,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H220" t="inlineStr">
-        <is>
-          <t>2021-06-25 16:06:20</t>
-        </is>
+      <c r="H220" s="1" t="n">
+        <v>44372.67106481481</v>
       </c>
       <c r="I220" t="n">
         <v>1</v>
@@ -16633,10 +16211,8 @@
           <t>4789233893</t>
         </is>
       </c>
-      <c r="H221" t="inlineStr">
-        <is>
-          <t>2021-06-25 16:04:17</t>
-        </is>
+      <c r="H221" s="1" t="n">
+        <v>44372.66964120371</v>
       </c>
       <c r="I221" t="n">
         <v>0</v>
@@ -16700,10 +16276,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H222" t="inlineStr">
-        <is>
-          <t>2021-06-25 16:02:52</t>
-        </is>
+      <c r="H222" s="1" t="n">
+        <v>44372.6686574074</v>
       </c>
       <c r="I222" t="n">
         <v>0</v>
@@ -16771,10 +16345,8 @@
           <t>4788942627</t>
         </is>
       </c>
-      <c r="H223" t="inlineStr">
-        <is>
-          <t>2021-06-25 16:02:36</t>
-        </is>
+      <c r="H223" s="1" t="n">
+        <v>44372.66847222222</v>
       </c>
       <c r="I223" t="n">
         <v>0</v>
@@ -16843,10 +16415,8 @@
           <t>4789219137</t>
         </is>
       </c>
-      <c r="H224" t="inlineStr">
-        <is>
-          <t>2021-06-25 16:00:43</t>
-        </is>
+      <c r="H224" s="1" t="n">
+        <v>44372.66716435185</v>
       </c>
       <c r="I224" t="n">
         <v>43</v>
@@ -16914,10 +16484,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H225" t="inlineStr">
-        <is>
-          <t>2021-06-25 16:00:39</t>
-        </is>
+      <c r="H225" s="1" t="n">
+        <v>44372.66711805556</v>
       </c>
       <c r="I225" t="n">
         <v>0</v>
@@ -16985,10 +16553,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H226" t="inlineStr">
-        <is>
-          <t>2021-06-25 16:00:33</t>
-        </is>
+      <c r="H226" s="1" t="n">
+        <v>44372.66704861111</v>
       </c>
       <c r="I226" t="n">
         <v>1</v>
@@ -17056,10 +16622,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H227" t="inlineStr">
-        <is>
-          <t>2021-06-25 15:59:04</t>
-        </is>
+      <c r="H227" s="1" t="n">
+        <v>44372.66601851852</v>
       </c>
       <c r="I227" t="n">
         <v>1</v>
@@ -17119,10 +16683,8 @@
           <t>4789210174</t>
         </is>
       </c>
-      <c r="H228" t="inlineStr">
-        <is>
-          <t>2021-06-25 15:57:40</t>
-        </is>
+      <c r="H228" s="1" t="n">
+        <v>44372.66504629629</v>
       </c>
       <c r="I228" t="n">
         <v>5</v>
@@ -17190,10 +16752,8 @@
           <t>4789208053</t>
         </is>
       </c>
-      <c r="H229" t="inlineStr">
-        <is>
-          <t>2021-06-25 15:57:32</t>
-        </is>
+      <c r="H229" s="1" t="n">
+        <v>44372.6649537037</v>
       </c>
       <c r="I229" t="n">
         <v>5</v>
@@ -17265,10 +16825,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H230" t="inlineStr">
-        <is>
-          <t>2021-06-25 15:56:42</t>
-        </is>
+      <c r="H230" s="1" t="n">
+        <v>44372.664375</v>
       </c>
       <c r="I230" t="n">
         <v>37</v>
@@ -17344,10 +16902,8 @@
           <t>4789202962</t>
         </is>
       </c>
-      <c r="H231" t="inlineStr">
-        <is>
-          <t>2021-06-25 15:56:02</t>
-        </is>
+      <c r="H231" s="1" t="n">
+        <v>44372.66391203704</v>
       </c>
       <c r="I231" t="n">
         <v>0</v>
@@ -17422,10 +16978,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H232" t="inlineStr">
-        <is>
-          <t>2021-06-25 15:55:41</t>
-        </is>
+      <c r="H232" s="1" t="n">
+        <v>44372.66366898148</v>
       </c>
       <c r="I232" t="n">
         <v>4</v>
@@ -17485,10 +17039,8 @@
           <t>4789201908</t>
         </is>
       </c>
-      <c r="H233" t="inlineStr">
-        <is>
-          <t>2021-06-25 15:55:16</t>
-        </is>
+      <c r="H233" s="1" t="n">
+        <v>44372.66337962963</v>
       </c>
       <c r="I233" t="n">
         <v>0</v>
@@ -17560,10 +17112,8 @@
           <t>4789200103</t>
         </is>
       </c>
-      <c r="H234" t="inlineStr">
-        <is>
-          <t>2021-06-25 15:53:57</t>
-        </is>
+      <c r="H234" s="1" t="n">
+        <v>44372.66246527778</v>
       </c>
       <c r="I234" t="n">
         <v>0</v>
@@ -17631,10 +17181,8 @@
           <t>4789186963</t>
         </is>
       </c>
-      <c r="H235" t="inlineStr">
-        <is>
-          <t>2021-06-25 15:51:37</t>
-        </is>
+      <c r="H235" s="1" t="n">
+        <v>44372.6608449074</v>
       </c>
       <c r="I235" t="n">
         <v>1</v>
@@ -17723,10 +17271,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H236" t="inlineStr">
-        <is>
-          <t>2021-06-25 15:51:35</t>
-        </is>
+      <c r="H236" s="1" t="n">
+        <v>44372.66082175926</v>
       </c>
       <c r="I236" t="n">
         <v>3</v>
@@ -17798,10 +17344,8 @@
           <t>4789179410</t>
         </is>
       </c>
-      <c r="H237" t="inlineStr">
-        <is>
-          <t>2021-06-25 15:51:19</t>
-        </is>
+      <c r="H237" s="1" t="n">
+        <v>44372.66063657407</v>
       </c>
       <c r="I237" t="n">
         <v>3</v>
@@ -17877,10 +17421,8 @@
           <t>4788967000</t>
         </is>
       </c>
-      <c r="H238" t="inlineStr">
-        <is>
-          <t>2021-06-25 15:49:51</t>
-        </is>
+      <c r="H238" s="1" t="n">
+        <v>44372.65961805556</v>
       </c>
       <c r="I238" t="n">
         <v>2</v>
@@ -17952,10 +17494,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H239" t="inlineStr">
-        <is>
-          <t>2021-06-25 15:49:17</t>
-        </is>
+      <c r="H239" s="1" t="n">
+        <v>44372.65922453703</v>
       </c>
       <c r="I239" t="n">
         <v>0</v>
@@ -18019,10 +17559,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H240" t="inlineStr">
-        <is>
-          <t>2021-06-25 15:49:10</t>
-        </is>
+      <c r="H240" s="1" t="n">
+        <v>44372.65914351852</v>
       </c>
       <c r="I240" t="n">
         <v>0</v>
@@ -18086,10 +17624,8 @@
           <t>4789168325</t>
         </is>
       </c>
-      <c r="H241" t="inlineStr">
-        <is>
-          <t>2021-06-25 15:48:44</t>
-        </is>
+      <c r="H241" s="1" t="n">
+        <v>44372.65884259259</v>
       </c>
       <c r="I241" t="n">
         <v>0</v>
@@ -18153,10 +17689,8 @@
           <t>4789175100</t>
         </is>
       </c>
-      <c r="H242" t="inlineStr">
-        <is>
-          <t>2021-06-25 15:48:18</t>
-        </is>
+      <c r="H242" s="1" t="n">
+        <v>44372.65854166666</v>
       </c>
       <c r="I242" t="n">
         <v>9</v>
@@ -18230,10 +17764,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H243" t="inlineStr">
-        <is>
-          <t>2021-06-25 15:46:36</t>
-        </is>
+      <c r="H243" s="1" t="n">
+        <v>44372.65736111111</v>
       </c>
       <c r="I243" t="n">
         <v>1</v>
@@ -18309,10 +17841,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H244" t="inlineStr">
-        <is>
-          <t>2021-06-25 15:46:28</t>
-        </is>
+      <c r="H244" s="1" t="n">
+        <v>44372.65726851852</v>
       </c>
       <c r="I244" t="n">
         <v>286</v>
@@ -18388,10 +17918,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H245" t="inlineStr">
-        <is>
-          <t>2021-06-25 15:45:59</t>
-        </is>
+      <c r="H245" s="1" t="n">
+        <v>44372.65693287037</v>
       </c>
       <c r="I245" t="n">
         <v>1</v>
@@ -18463,10 +17991,8 @@
           <t>4788654179</t>
         </is>
       </c>
-      <c r="H246" t="inlineStr">
-        <is>
-          <t>2021-06-25 15:45:12</t>
-        </is>
+      <c r="H246" s="1" t="n">
+        <v>44372.65638888889</v>
       </c>
       <c r="I246" t="n">
         <v>0</v>
@@ -18542,10 +18068,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H247" t="inlineStr">
-        <is>
-          <t>2021-06-25 15:44:13</t>
-        </is>
+      <c r="H247" s="1" t="n">
+        <v>44372.65570601852</v>
       </c>
       <c r="I247" t="n">
         <v>1</v>
@@ -18613,10 +18137,8 @@
           <t>4788679912</t>
         </is>
       </c>
-      <c r="H248" t="inlineStr">
-        <is>
-          <t>2021-06-25 15:43:38</t>
-        </is>
+      <c r="H248" s="1" t="n">
+        <v>44372.65530092592</v>
       </c>
       <c r="I248" t="n">
         <v>0</v>
@@ -18692,10 +18214,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H249" t="inlineStr">
-        <is>
-          <t>2021-06-25 15:42:39</t>
-        </is>
+      <c r="H249" s="1" t="n">
+        <v>44372.65461805555</v>
       </c>
       <c r="I249" t="n">
         <v>0</v>
@@ -18759,10 +18279,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H250" t="inlineStr">
-        <is>
-          <t>2021-06-25 15:41:45</t>
-        </is>
+      <c r="H250" s="1" t="n">
+        <v>44372.65399305556</v>
       </c>
       <c r="I250" t="n">
         <v>0</v>
@@ -18834,10 +18352,8 @@
           <t>4789143017</t>
         </is>
       </c>
-      <c r="H251" t="inlineStr">
-        <is>
-          <t>2021-06-25 15:41:14</t>
-        </is>
+      <c r="H251" s="1" t="n">
+        <v>44372.65363425926</v>
       </c>
       <c r="I251" t="n">
         <v>1</v>
@@ -18905,10 +18421,8 @@
           <t>4788726232</t>
         </is>
       </c>
-      <c r="H252" t="inlineStr">
-        <is>
-          <t>2021-06-25 15:40:39</t>
-        </is>
+      <c r="H252" s="1" t="n">
+        <v>44372.65322916667</v>
       </c>
       <c r="I252" t="n">
         <v>0</v>
@@ -18977,10 +18491,8 @@
           <t>4789140718</t>
         </is>
       </c>
-      <c r="H253" t="inlineStr">
-        <is>
-          <t>2021-06-25 15:39:33</t>
-        </is>
+      <c r="H253" s="1" t="n">
+        <v>44372.65246527778</v>
       </c>
       <c r="I253" t="n">
         <v>0</v>
@@ -19044,10 +18556,8 @@
           <t>4789129810</t>
         </is>
       </c>
-      <c r="H254" t="inlineStr">
-        <is>
-          <t>2021-06-25 15:38:51</t>
-        </is>
+      <c r="H254" s="1" t="n">
+        <v>44372.65197916667</v>
       </c>
       <c r="I254" t="n">
         <v>1</v>
@@ -19111,10 +18621,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H255" t="inlineStr">
-        <is>
-          <t>2021-06-25 15:38:21</t>
-        </is>
+      <c r="H255" s="1" t="n">
+        <v>44372.65163194444</v>
       </c>
       <c r="I255" t="n">
         <v>4</v>
@@ -19190,10 +18698,8 @@
           <t>4789130088</t>
         </is>
       </c>
-      <c r="H256" t="inlineStr">
-        <is>
-          <t>2021-06-25 15:37:12</t>
-        </is>
+      <c r="H256" s="1" t="n">
+        <v>44372.65083333333</v>
       </c>
       <c r="I256" t="n">
         <v>3</v>
@@ -19269,10 +18775,8 @@
           <t>4789121918</t>
         </is>
       </c>
-      <c r="H257" t="inlineStr">
-        <is>
-          <t>2021-06-25 15:36:16</t>
-        </is>
+      <c r="H257" s="1" t="n">
+        <v>44372.65018518519</v>
       </c>
       <c r="I257" t="n">
         <v>1</v>
@@ -19362,10 +18866,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H258" t="inlineStr">
-        <is>
-          <t>2021-06-25 15:34:30</t>
-        </is>
+      <c r="H258" s="1" t="n">
+        <v>44372.64895833333</v>
       </c>
       <c r="I258" t="n">
         <v>1</v>
@@ -19468,10 +18970,8 @@
           <t>4789116309</t>
         </is>
       </c>
-      <c r="H259" t="inlineStr">
-        <is>
-          <t>2021-06-25 15:34:25</t>
-        </is>
+      <c r="H259" s="1" t="n">
+        <v>44372.64890046296</v>
       </c>
       <c r="I259" t="n">
         <v>1</v>
@@ -19547,10 +19047,8 @@
           <t>4789107798</t>
         </is>
       </c>
-      <c r="H260" t="inlineStr">
-        <is>
-          <t>2021-06-25 15:33:07</t>
-        </is>
+      <c r="H260" s="1" t="n">
+        <v>44372.64799768518</v>
       </c>
       <c r="I260" t="n">
         <v>0</v>
@@ -19622,10 +19120,8 @@
           <t>4789106964</t>
         </is>
       </c>
-      <c r="H261" t="inlineStr">
-        <is>
-          <t>2021-06-25 15:32:28</t>
-        </is>
+      <c r="H261" s="1" t="n">
+        <v>44372.6475462963</v>
       </c>
       <c r="I261" t="n">
         <v>3</v>
@@ -19701,10 +19197,8 @@
           <t>4789103517</t>
         </is>
       </c>
-      <c r="H262" t="inlineStr">
-        <is>
-          <t>2021-06-25 15:32:20</t>
-        </is>
+      <c r="H262" s="1" t="n">
+        <v>44372.64745370371</v>
       </c>
       <c r="I262" t="n">
         <v>0</v>
@@ -19780,10 +19274,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H263" t="inlineStr">
-        <is>
-          <t>2021-06-25 15:31:53</t>
-        </is>
+      <c r="H263" s="1" t="n">
+        <v>44372.64714120371</v>
       </c>
       <c r="I263" t="n">
         <v>1</v>
@@ -19851,10 +19343,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H264" t="inlineStr">
-        <is>
-          <t>2021-06-25 15:31:30</t>
-        </is>
+      <c r="H264" s="1" t="n">
+        <v>44372.646875</v>
       </c>
       <c r="I264" t="n">
         <v>107</v>
@@ -19926,10 +19416,8 @@
           <t>4789094428</t>
         </is>
       </c>
-      <c r="H265" t="inlineStr">
-        <is>
-          <t>2021-06-25 15:30:35</t>
-        </is>
+      <c r="H265" s="1" t="n">
+        <v>44372.64623842593</v>
       </c>
       <c r="I265" t="n">
         <v>0</v>
@@ -19993,10 +19481,8 @@
           <t>4788709570</t>
         </is>
       </c>
-      <c r="H266" t="inlineStr">
-        <is>
-          <t>2021-06-25 15:30:28</t>
-        </is>
+      <c r="H266" s="1" t="n">
+        <v>44372.64615740741</v>
       </c>
       <c r="I266" t="n">
         <v>0</v>
@@ -20065,10 +19551,8 @@
           <t>4789086323</t>
         </is>
       </c>
-      <c r="H267" t="inlineStr">
-        <is>
-          <t>2021-06-25 15:27:04</t>
-        </is>
+      <c r="H267" s="1" t="n">
+        <v>44372.6437962963</v>
       </c>
       <c r="I267" t="n">
         <v>3</v>
@@ -20144,10 +19628,8 @@
           <t>4789086051</t>
         </is>
       </c>
-      <c r="H268" t="inlineStr">
-        <is>
-          <t>2021-06-25 15:26:52</t>
-        </is>
+      <c r="H268" s="1" t="n">
+        <v>44372.64365740741</v>
       </c>
       <c r="I268" t="n">
         <v>7</v>
@@ -20211,10 +19693,8 @@
           <t>4789085846</t>
         </is>
       </c>
-      <c r="H269" t="inlineStr">
-        <is>
-          <t>2021-06-25 15:26:43</t>
-        </is>
+      <c r="H269" s="1" t="n">
+        <v>44372.64355324074</v>
       </c>
       <c r="I269" t="n">
         <v>7</v>
@@ -20290,10 +19770,8 @@
           <t>4789049822</t>
         </is>
       </c>
-      <c r="H270" t="inlineStr">
-        <is>
-          <t>2021-06-25 15:26:14</t>
-        </is>
+      <c r="H270" s="1" t="n">
+        <v>44372.64321759259</v>
       </c>
       <c r="I270" t="n">
         <v>0</v>
@@ -20365,10 +19843,8 @@
           <t>4788936232</t>
         </is>
       </c>
-      <c r="H271" t="inlineStr">
-        <is>
-          <t>2021-06-25 15:26:01</t>
-        </is>
+      <c r="H271" s="1" t="n">
+        <v>44372.64306712963</v>
       </c>
       <c r="I271" t="n">
         <v>0</v>
@@ -20440,10 +19916,8 @@
           <t>4788813407</t>
         </is>
       </c>
-      <c r="H272" t="inlineStr">
-        <is>
-          <t>2021-06-25 15:25:38</t>
-        </is>
+      <c r="H272" s="1" t="n">
+        <v>44372.64280092593</v>
       </c>
       <c r="I272" t="n">
         <v>0</v>
@@ -20511,10 +19985,8 @@
           <t>4788575679</t>
         </is>
       </c>
-      <c r="H273" t="inlineStr">
-        <is>
-          <t>2021-06-25 15:25:07</t>
-        </is>
+      <c r="H273" s="1" t="n">
+        <v>44372.64244212963</v>
       </c>
       <c r="I273" t="n">
         <v>0</v>
@@ -20582,10 +20054,8 @@
           <t>4789069501</t>
         </is>
       </c>
-      <c r="H274" t="inlineStr">
-        <is>
-          <t>2021-06-25 15:23:23</t>
-        </is>
+      <c r="H274" s="1" t="n">
+        <v>44372.64123842592</v>
       </c>
       <c r="I274" t="n">
         <v>0</v>
@@ -20657,10 +20127,8 @@
           <t>4789049822</t>
         </is>
       </c>
-      <c r="H275" t="inlineStr">
-        <is>
-          <t>2021-06-25 15:22:58</t>
-        </is>
+      <c r="H275" s="1" t="n">
+        <v>44372.64094907408</v>
       </c>
       <c r="I275" t="n">
         <v>0</v>
@@ -20732,10 +20200,8 @@
           <t>4788759040</t>
         </is>
       </c>
-      <c r="H276" t="inlineStr">
-        <is>
-          <t>2021-06-25 15:21:34</t>
-        </is>
+      <c r="H276" s="1" t="n">
+        <v>44372.63997685185</v>
       </c>
       <c r="I276" t="n">
         <v>0</v>
@@ -20807,10 +20273,8 @@
           <t>4789049822</t>
         </is>
       </c>
-      <c r="H277" t="inlineStr">
-        <is>
-          <t>2021-06-25 15:21:09</t>
-        </is>
+      <c r="H277" s="1" t="n">
+        <v>44372.6396875</v>
       </c>
       <c r="I277" t="n">
         <v>0</v>
@@ -20884,10 +20348,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H278" t="inlineStr">
-        <is>
-          <t>2021-06-25 15:21:02</t>
-        </is>
+      <c r="H278" s="1" t="n">
+        <v>44372.63960648148</v>
       </c>
       <c r="I278" t="n">
         <v>5</v>
@@ -20947,10 +20409,8 @@
           <t>4789044104</t>
         </is>
       </c>
-      <c r="H279" t="inlineStr">
-        <is>
-          <t>2021-06-25 15:20:15</t>
-        </is>
+      <c r="H279" s="1" t="n">
+        <v>44372.6390625</v>
       </c>
       <c r="I279" t="n">
         <v>0</v>
@@ -21014,10 +20474,8 @@
           <t>4788967000</t>
         </is>
       </c>
-      <c r="H280" t="inlineStr">
-        <is>
-          <t>2021-06-25 15:20:11</t>
-        </is>
+      <c r="H280" s="1" t="n">
+        <v>44372.63901620371</v>
       </c>
       <c r="I280" t="n">
         <v>1</v>
@@ -21085,10 +20543,8 @@
           <t>4789060503</t>
         </is>
       </c>
-      <c r="H281" t="inlineStr">
-        <is>
-          <t>2021-06-25 15:19:52</t>
-        </is>
+      <c r="H281" s="1" t="n">
+        <v>44372.6387962963</v>
       </c>
       <c r="I281" t="n">
         <v>0</v>
@@ -21156,10 +20612,8 @@
           <t>4789049822</t>
         </is>
       </c>
-      <c r="H282" t="inlineStr">
-        <is>
-          <t>2021-06-25 15:19:20</t>
-        </is>
+      <c r="H282" s="1" t="n">
+        <v>44372.63842592593</v>
       </c>
       <c r="I282" t="n">
         <v>0</v>
@@ -21231,10 +20685,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H283" t="inlineStr">
-        <is>
-          <t>2021-06-25 15:19:17</t>
-        </is>
+      <c r="H283" s="1" t="n">
+        <v>44372.63839120371</v>
       </c>
       <c r="I283" t="n">
         <v>3</v>
@@ -21310,10 +20762,8 @@
           <t>4789049000</t>
         </is>
       </c>
-      <c r="H284" t="inlineStr">
-        <is>
-          <t>2021-06-25 15:18:41</t>
-        </is>
+      <c r="H284" s="1" t="n">
+        <v>44372.63797453704</v>
       </c>
       <c r="I284" t="n">
         <v>0</v>
@@ -21386,10 +20836,8 @@
           <t>4789044272</t>
         </is>
       </c>
-      <c r="H285" t="inlineStr">
-        <is>
-          <t>2021-06-25 15:18:00</t>
-        </is>
+      <c r="H285" s="1" t="n">
+        <v>44372.6375</v>
       </c>
       <c r="I285" t="n">
         <v>0</v>
@@ -21453,10 +20901,8 @@
           <t>4789044104</t>
         </is>
       </c>
-      <c r="H286" t="inlineStr">
-        <is>
-          <t>2021-06-25 15:17:52</t>
-        </is>
+      <c r="H286" s="1" t="n">
+        <v>44372.6374074074</v>
       </c>
       <c r="I286" t="n">
         <v>2</v>
@@ -21524,10 +20970,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H287" t="inlineStr">
-        <is>
-          <t>2021-06-25 15:17:13</t>
-        </is>
+      <c r="H287" s="1" t="n">
+        <v>44372.63695601852</v>
       </c>
       <c r="I287" t="n">
         <v>0</v>
@@ -21591,10 +21035,8 @@
           <t>4789050787</t>
         </is>
       </c>
-      <c r="H288" t="inlineStr">
-        <is>
-          <t>2021-06-25 15:16:38</t>
-        </is>
+      <c r="H288" s="1" t="n">
+        <v>44372.63655092593</v>
       </c>
       <c r="I288" t="n">
         <v>1</v>
@@ -21658,10 +21100,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H289" t="inlineStr">
-        <is>
-          <t>2021-06-25 15:15:40</t>
-        </is>
+      <c r="H289" s="1" t="n">
+        <v>44372.63587962963</v>
       </c>
       <c r="I289" t="n">
         <v>0</v>
@@ -21725,10 +21165,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H290" t="inlineStr">
-        <is>
-          <t>2021-06-25 15:15:07</t>
-        </is>
+      <c r="H290" s="1" t="n">
+        <v>44372.63549768519</v>
       </c>
       <c r="I290" t="n">
         <v>1</v>
@@ -21796,10 +21234,8 @@
           <t>4788936232</t>
         </is>
       </c>
-      <c r="H291" t="inlineStr">
-        <is>
-          <t>2021-06-25 15:13:11</t>
-        </is>
+      <c r="H291" s="1" t="n">
+        <v>44372.63415509259</v>
       </c>
       <c r="I291" t="n">
         <v>0</v>
@@ -21871,10 +21307,8 @@
           <t>4788902067</t>
         </is>
       </c>
-      <c r="H292" t="inlineStr">
-        <is>
-          <t>2021-06-25 15:12:33</t>
-        </is>
+      <c r="H292" s="1" t="n">
+        <v>44372.63371527778</v>
       </c>
       <c r="I292" t="n">
         <v>0</v>
@@ -21942,10 +21376,8 @@
           <t>4788936232</t>
         </is>
       </c>
-      <c r="H293" t="inlineStr">
-        <is>
-          <t>2021-06-25 15:12:15</t>
-        </is>
+      <c r="H293" s="1" t="n">
+        <v>44372.63350694445</v>
       </c>
       <c r="I293" t="n">
         <v>0</v>
@@ -22021,10 +21453,8 @@
           <t>4789013539</t>
         </is>
       </c>
-      <c r="H294" t="inlineStr">
-        <is>
-          <t>2021-06-25 15:09:40</t>
-        </is>
+      <c r="H294" s="1" t="n">
+        <v>44372.63171296296</v>
       </c>
       <c r="I294" t="n">
         <v>1</v>
@@ -22088,10 +21518,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H295" t="inlineStr">
-        <is>
-          <t>2021-06-25 15:09:34</t>
-        </is>
+      <c r="H295" s="1" t="n">
+        <v>44372.63164351852</v>
       </c>
       <c r="I295" t="n">
         <v>24</v>
@@ -22159,10 +21587,8 @@
           <t>4788741504</t>
         </is>
       </c>
-      <c r="H296" t="inlineStr">
-        <is>
-          <t>2021-06-25 15:09:26</t>
-        </is>
+      <c r="H296" s="1" t="n">
+        <v>44372.63155092593</v>
       </c>
       <c r="I296" t="n">
         <v>0</v>
@@ -22234,10 +21660,8 @@
           <t>4789016415</t>
         </is>
       </c>
-      <c r="H297" t="inlineStr">
-        <is>
-          <t>2021-06-25 15:08:35</t>
-        </is>
+      <c r="H297" s="1" t="n">
+        <v>44372.63096064814</v>
       </c>
       <c r="I297" t="n">
         <v>0</v>
@@ -22305,10 +21729,8 @@
           <t>4788767985</t>
         </is>
       </c>
-      <c r="H298" t="inlineStr">
-        <is>
-          <t>2021-06-25 15:08:03</t>
-        </is>
+      <c r="H298" s="1" t="n">
+        <v>44372.63059027777</v>
       </c>
       <c r="I298" t="n">
         <v>1</v>
@@ -22376,10 +21798,8 @@
           <t>4789009155</t>
         </is>
       </c>
-      <c r="H299" t="inlineStr">
-        <is>
-          <t>2021-06-25 15:07:25</t>
-        </is>
+      <c r="H299" s="1" t="n">
+        <v>44372.63015046297</v>
       </c>
       <c r="I299" t="n">
         <v>0</v>
@@ -22451,10 +21871,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H300" t="inlineStr">
-        <is>
-          <t>2021-06-25 15:07:09</t>
-        </is>
+      <c r="H300" s="1" t="n">
+        <v>44372.62996527777</v>
       </c>
       <c r="I300" t="n">
         <v>4</v>
@@ -22520,10 +21938,8 @@
           <t>4788767985</t>
         </is>
       </c>
-      <c r="H301" t="inlineStr">
-        <is>
-          <t>2021-06-25 15:06:11</t>
-        </is>
+      <c r="H301" s="1" t="n">
+        <v>44372.62929398148</v>
       </c>
       <c r="I301" t="n">
         <v>1</v>
@@ -22591,10 +22007,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H302" t="inlineStr">
-        <is>
-          <t>2021-06-25 15:05:58</t>
-        </is>
+      <c r="H302" s="1" t="n">
+        <v>44372.62914351852</v>
       </c>
       <c r="I302" t="n">
         <v>26</v>
@@ -22675,10 +22089,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H303" t="inlineStr">
-        <is>
-          <t>2021-06-25 15:05:50</t>
-        </is>
+      <c r="H303" s="1" t="n">
+        <v>44372.62905092593</v>
       </c>
       <c r="I303" t="n">
         <v>15</v>
@@ -22745,10 +22157,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H304" t="inlineStr">
-        <is>
-          <t>2021-06-25 15:05:44</t>
-        </is>
+      <c r="H304" s="1" t="n">
+        <v>44372.62898148148</v>
       </c>
       <c r="I304" t="n">
         <v>1</v>
@@ -22808,10 +22218,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H305" t="inlineStr">
-        <is>
-          <t>2021-06-25 15:05:37</t>
-        </is>
+      <c r="H305" s="1" t="n">
+        <v>44372.62890046297</v>
       </c>
       <c r="I305" t="n">
         <v>0</v>
@@ -22871,10 +22279,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H306" t="inlineStr">
-        <is>
-          <t>2021-06-25 15:05:31</t>
-        </is>
+      <c r="H306" s="1" t="n">
+        <v>44372.62883101852</v>
       </c>
       <c r="I306" t="n">
         <v>0</v>
@@ -22934,10 +22340,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H307" t="inlineStr">
-        <is>
-          <t>2021-06-25 15:05:14</t>
-        </is>
+      <c r="H307" s="1" t="n">
+        <v>44372.62863425926</v>
       </c>
       <c r="I307" t="n">
         <v>0</v>
@@ -22997,10 +22401,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H308" t="inlineStr">
-        <is>
-          <t>2021-06-25 15:04:37</t>
-        </is>
+      <c r="H308" s="1" t="n">
+        <v>44372.62820601852</v>
       </c>
       <c r="I308" t="n">
         <v>0</v>
@@ -23060,10 +22462,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H309" t="inlineStr">
-        <is>
-          <t>2021-06-25 15:04:31</t>
-        </is>
+      <c r="H309" s="1" t="n">
+        <v>44372.62813657407</v>
       </c>
       <c r="I309" t="n">
         <v>0</v>
@@ -23123,10 +22523,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H310" t="inlineStr">
-        <is>
-          <t>2021-06-25 15:04:26</t>
-        </is>
+      <c r="H310" s="1" t="n">
+        <v>44372.6280787037</v>
       </c>
       <c r="I310" t="n">
         <v>0</v>
@@ -23186,10 +22584,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H311" t="inlineStr">
-        <is>
-          <t>2021-06-25 15:04:21</t>
-        </is>
+      <c r="H311" s="1" t="n">
+        <v>44372.62802083333</v>
       </c>
       <c r="I311" t="n">
         <v>0</v>
@@ -23249,10 +22645,8 @@
           <t>4788564886</t>
         </is>
       </c>
-      <c r="H312" t="inlineStr">
-        <is>
-          <t>2021-06-25 15:04:01</t>
-        </is>
+      <c r="H312" s="1" t="n">
+        <v>44372.62778935185</v>
       </c>
       <c r="I312" t="n">
         <v>0</v>
@@ -23320,10 +22714,8 @@
           <t>4788654179</t>
         </is>
       </c>
-      <c r="H313" t="inlineStr">
-        <is>
-          <t>2021-06-25 15:03:30</t>
-        </is>
+      <c r="H313" s="1" t="n">
+        <v>44372.62743055556</v>
       </c>
       <c r="I313" t="n">
         <v>0</v>
@@ -23395,10 +22787,8 @@
           <t>4788984842</t>
         </is>
       </c>
-      <c r="H314" t="inlineStr">
-        <is>
-          <t>2021-06-25 15:02:57</t>
-        </is>
+      <c r="H314" s="1" t="n">
+        <v>44372.62704861111</v>
       </c>
       <c r="I314" t="n">
         <v>2</v>
@@ -23466,10 +22856,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H315" t="inlineStr">
-        <is>
-          <t>2021-06-25 15:02:43</t>
-        </is>
+      <c r="H315" s="1" t="n">
+        <v>44372.62688657407</v>
       </c>
       <c r="I315" t="n">
         <v>1</v>
@@ -23545,10 +22933,8 @@
           <t>4788984506</t>
         </is>
       </c>
-      <c r="H316" t="inlineStr">
-        <is>
-          <t>2021-06-25 15:02:41</t>
-        </is>
+      <c r="H316" s="1" t="n">
+        <v>44372.62686342592</v>
       </c>
       <c r="I316" t="n">
         <v>2</v>
@@ -23616,10 +23002,8 @@
           <t>4788984100</t>
         </is>
       </c>
-      <c r="H317" t="inlineStr">
-        <is>
-          <t>2021-06-25 15:02:23</t>
-        </is>
+      <c r="H317" s="1" t="n">
+        <v>44372.62665509259</v>
       </c>
       <c r="I317" t="n">
         <v>1</v>
@@ -23687,10 +23071,8 @@
           <t>4788991608</t>
         </is>
       </c>
-      <c r="H318" t="inlineStr">
-        <is>
-          <t>2021-06-25 15:01:33</t>
-        </is>
+      <c r="H318" s="1" t="n">
+        <v>44372.62607638889</v>
       </c>
       <c r="I318" t="n">
         <v>3</v>
@@ -23766,10 +23148,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H319" t="inlineStr">
-        <is>
-          <t>2021-06-25 15:00:46</t>
-        </is>
+      <c r="H319" s="1" t="n">
+        <v>44372.62553240741</v>
       </c>
       <c r="I319" t="n">
         <v>0</v>
@@ -23833,10 +23213,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H320" t="inlineStr">
-        <is>
-          <t>2021-06-25 14:57:44</t>
-        </is>
+      <c r="H320" s="1" t="n">
+        <v>44372.62342592593</v>
       </c>
       <c r="I320" t="n">
         <v>44</v>
@@ -23913,10 +23291,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H321" t="inlineStr">
-        <is>
-          <t>2021-06-25 14:57:27</t>
-        </is>
+      <c r="H321" s="1" t="n">
+        <v>44372.62322916667</v>
       </c>
       <c r="I321" t="n">
         <v>1</v>
@@ -23988,10 +23364,8 @@
           <t>4788902067</t>
         </is>
       </c>
-      <c r="H322" t="inlineStr">
-        <is>
-          <t>2021-06-25 14:57:05</t>
-        </is>
+      <c r="H322" s="1" t="n">
+        <v>44372.62297453704</v>
       </c>
       <c r="I322" t="n">
         <v>0</v>
@@ -24051,10 +23425,8 @@
           <t>4788967000</t>
         </is>
       </c>
-      <c r="H323" t="inlineStr">
-        <is>
-          <t>2021-06-25 14:56:59</t>
-        </is>
+      <c r="H323" s="1" t="n">
+        <v>44372.62290509259</v>
       </c>
       <c r="I323" t="n">
         <v>23</v>
@@ -24126,10 +23498,8 @@
           <t>4788654179</t>
         </is>
       </c>
-      <c r="H324" t="inlineStr">
-        <is>
-          <t>2021-06-25 14:56:56</t>
-        </is>
+      <c r="H324" s="1" t="n">
+        <v>44372.62287037037</v>
       </c>
       <c r="I324" t="n">
         <v>0</v>
@@ -24193,10 +23563,8 @@
           <t>4788970107</t>
         </is>
       </c>
-      <c r="H325" t="inlineStr">
-        <is>
-          <t>2021-06-25 14:55:46</t>
-        </is>
+      <c r="H325" s="1" t="n">
+        <v>44372.62206018518</v>
       </c>
       <c r="I325" t="n">
         <v>0</v>
@@ -24261,10 +23629,8 @@
           <t>4788767985</t>
         </is>
       </c>
-      <c r="H326" t="inlineStr">
-        <is>
-          <t>2021-06-25 14:54:48</t>
-        </is>
+      <c r="H326" s="1" t="n">
+        <v>44372.62138888889</v>
       </c>
       <c r="I326" t="n">
         <v>0</v>
@@ -24328,10 +23694,8 @@
           <t>4788740044</t>
         </is>
       </c>
-      <c r="H327" t="inlineStr">
-        <is>
-          <t>2021-06-25 14:54:32</t>
-        </is>
+      <c r="H327" s="1" t="n">
+        <v>44372.6212037037</v>
       </c>
       <c r="I327" t="n">
         <v>0</v>
@@ -24407,10 +23771,8 @@
           <t>4788953693</t>
         </is>
       </c>
-      <c r="H328" t="inlineStr">
-        <is>
-          <t>2021-06-25 14:54:25</t>
-        </is>
+      <c r="H328" s="1" t="n">
+        <v>44372.62112268519</v>
       </c>
       <c r="I328" t="n">
         <v>6</v>
@@ -24478,10 +23840,8 @@
           <t>4788952421</t>
         </is>
       </c>
-      <c r="H329" t="inlineStr">
-        <is>
-          <t>2021-06-25 14:54:13</t>
-        </is>
+      <c r="H329" s="1" t="n">
+        <v>44372.6209837963</v>
       </c>
       <c r="I329" t="n">
         <v>0</v>
@@ -24545,10 +23905,8 @@
           <t>4788767985</t>
         </is>
       </c>
-      <c r="H330" t="inlineStr">
-        <is>
-          <t>2021-06-25 14:53:45</t>
-        </is>
+      <c r="H330" s="1" t="n">
+        <v>44372.62065972222</v>
       </c>
       <c r="I330" t="n">
         <v>0</v>
@@ -24612,10 +23970,8 @@
           <t>4788957561</t>
         </is>
       </c>
-      <c r="H331" t="inlineStr">
-        <is>
-          <t>2021-06-25 14:53:42</t>
-        </is>
+      <c r="H331" s="1" t="n">
+        <v>44372.620625</v>
       </c>
       <c r="I331" t="n">
         <v>0</v>
@@ -24691,10 +24047,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H332" t="inlineStr">
-        <is>
-          <t>2021-06-25 14:53:25</t>
-        </is>
+      <c r="H332" s="1" t="n">
+        <v>44372.62042824074</v>
       </c>
       <c r="I332" t="n">
         <v>1</v>
@@ -24770,10 +24124,8 @@
           <t>4788952421</t>
         </is>
       </c>
-      <c r="H333" t="inlineStr">
-        <is>
-          <t>2021-06-25 14:53:24</t>
-        </is>
+      <c r="H333" s="1" t="n">
+        <v>44372.62041666666</v>
       </c>
       <c r="I333" t="n">
         <v>0</v>
@@ -24849,10 +24201,8 @@
           <t>4788654179</t>
         </is>
       </c>
-      <c r="H334" t="inlineStr">
-        <is>
-          <t>2021-06-25 14:52:58</t>
-        </is>
+      <c r="H334" s="1" t="n">
+        <v>44372.62011574074</v>
       </c>
       <c r="I334" t="n">
         <v>0</v>
@@ -24924,10 +24274,8 @@
           <t>4788767985</t>
         </is>
       </c>
-      <c r="H335" t="inlineStr">
-        <is>
-          <t>2021-06-25 14:52:55</t>
-        </is>
+      <c r="H335" s="1" t="n">
+        <v>44372.62008101852</v>
       </c>
       <c r="I335" t="n">
         <v>1</v>
@@ -24995,10 +24343,8 @@
           <t>4788575679</t>
         </is>
       </c>
-      <c r="H336" t="inlineStr">
-        <is>
-          <t>2021-06-25 14:51:38</t>
-        </is>
+      <c r="H336" s="1" t="n">
+        <v>44372.61918981482</v>
       </c>
       <c r="I336" t="n">
         <v>0</v>
@@ -25070,10 +24416,8 @@
           <t>4788950145</t>
         </is>
       </c>
-      <c r="H337" t="inlineStr">
-        <is>
-          <t>2021-06-25 14:51:37</t>
-        </is>
+      <c r="H337" s="1" t="n">
+        <v>44372.61917824074</v>
       </c>
       <c r="I337" t="n">
         <v>0</v>
@@ -25153,10 +24497,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H338" t="inlineStr">
-        <is>
-          <t>2021-06-25 14:51:23</t>
-        </is>
+      <c r="H338" s="1" t="n">
+        <v>44372.6190162037</v>
       </c>
       <c r="I338" t="n">
         <v>123</v>
@@ -25220,10 +24562,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H339" t="inlineStr">
-        <is>
-          <t>2021-06-25 14:50:20</t>
-        </is>
+      <c r="H339" s="1" t="n">
+        <v>44372.61828703704</v>
       </c>
       <c r="I339" t="n">
         <v>75</v>
@@ -25299,10 +24639,8 @@
           <t>4788942627</t>
         </is>
       </c>
-      <c r="H340" t="inlineStr">
-        <is>
-          <t>2021-06-25 14:49:40</t>
-        </is>
+      <c r="H340" s="1" t="n">
+        <v>44372.61782407408</v>
       </c>
       <c r="I340" t="n">
         <v>0</v>
@@ -25378,10 +24716,8 @@
           <t>4788936232</t>
         </is>
       </c>
-      <c r="H341" t="inlineStr">
-        <is>
-          <t>2021-06-25 14:48:30</t>
-        </is>
+      <c r="H341" s="1" t="n">
+        <v>44372.61701388889</v>
       </c>
       <c r="I341" t="n">
         <v>2</v>
@@ -25455,10 +24791,8 @@
           <t>4788767985</t>
         </is>
       </c>
-      <c r="H342" t="inlineStr">
-        <is>
-          <t>2021-06-25 14:47:58</t>
-        </is>
+      <c r="H342" s="1" t="n">
+        <v>44372.61664351852</v>
       </c>
       <c r="I342" t="n">
         <v>2</v>
@@ -25522,10 +24856,8 @@
           <t>4788741504</t>
         </is>
       </c>
-      <c r="H343" t="inlineStr">
-        <is>
-          <t>2021-06-25 14:47:01</t>
-        </is>
+      <c r="H343" s="1" t="n">
+        <v>44372.6159837963</v>
       </c>
       <c r="I343" t="n">
         <v>0</v>
@@ -25597,10 +24929,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H344" t="inlineStr">
-        <is>
-          <t>2021-06-25 14:45:19</t>
-        </is>
+      <c r="H344" s="1" t="n">
+        <v>44372.61480324074</v>
       </c>
       <c r="I344" t="n">
         <v>0</v>
@@ -25668,10 +24998,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H345" t="inlineStr">
-        <is>
-          <t>2021-06-25 14:45:02</t>
-        </is>
+      <c r="H345" s="1" t="n">
+        <v>44372.61460648148</v>
       </c>
       <c r="I345" t="n">
         <v>1</v>
@@ -25749,10 +25077,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H346" t="inlineStr">
-        <is>
-          <t>2021-06-25 14:44:46</t>
-        </is>
+      <c r="H346" s="1" t="n">
+        <v>44372.6144212963</v>
       </c>
       <c r="I346" t="n">
         <v>1</v>
@@ -25820,10 +25146,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H347" t="inlineStr">
-        <is>
-          <t>2021-06-25 14:44:36</t>
-        </is>
+      <c r="H347" s="1" t="n">
+        <v>44372.61430555556</v>
       </c>
       <c r="I347" t="n">
         <v>13</v>
@@ -25895,10 +25219,8 @@
           <t>4788919821</t>
         </is>
       </c>
-      <c r="H348" t="inlineStr">
-        <is>
-          <t>2021-06-25 14:44:23</t>
-        </is>
+      <c r="H348" s="1" t="n">
+        <v>44372.61415509259</v>
       </c>
       <c r="I348" t="n">
         <v>4</v>
@@ -25979,10 +25301,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H349" t="inlineStr">
-        <is>
-          <t>2021-06-25 14:42:59</t>
-        </is>
+      <c r="H349" s="1" t="n">
+        <v>44372.61318287037</v>
       </c>
       <c r="I349" t="n">
         <v>0</v>
@@ -26050,10 +25370,8 @@
           <t>4788908107</t>
         </is>
       </c>
-      <c r="H350" t="inlineStr">
-        <is>
-          <t>2021-06-25 14:42:07</t>
-        </is>
+      <c r="H350" s="1" t="n">
+        <v>44372.61258101852</v>
       </c>
       <c r="I350" t="n">
         <v>1</v>
@@ -26121,10 +25439,8 @@
           <t>4788902067</t>
         </is>
       </c>
-      <c r="H351" t="inlineStr">
-        <is>
-          <t>2021-06-25 14:42:04</t>
-        </is>
+      <c r="H351" s="1" t="n">
+        <v>44372.6125462963</v>
       </c>
       <c r="I351" t="n">
         <v>3</v>
@@ -26192,10 +25508,8 @@
           <t>4788911927</t>
         </is>
       </c>
-      <c r="H352" t="inlineStr">
-        <is>
-          <t>2021-06-25 14:41:15</t>
-        </is>
+      <c r="H352" s="1" t="n">
+        <v>44372.61197916666</v>
       </c>
       <c r="I352" t="n">
         <v>2</v>
@@ -26263,10 +25577,8 @@
           <t>4788915649</t>
         </is>
       </c>
-      <c r="H353" t="inlineStr">
-        <is>
-          <t>2021-06-25 14:41:07</t>
-        </is>
+      <c r="H353" s="1" t="n">
+        <v>44372.61188657407</v>
       </c>
       <c r="I353" t="n">
         <v>0</v>
@@ -26344,10 +25656,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H354" t="inlineStr">
-        <is>
-          <t>2021-06-25 14:40:02</t>
-        </is>
+      <c r="H354" s="1" t="n">
+        <v>44372.61113425926</v>
       </c>
       <c r="I354" t="n">
         <v>94</v>
@@ -26416,10 +25726,8 @@
           <t>4788902845</t>
         </is>
       </c>
-      <c r="H355" t="inlineStr">
-        <is>
-          <t>2021-06-25 14:38:56</t>
-        </is>
+      <c r="H355" s="1" t="n">
+        <v>44372.61037037037</v>
       </c>
       <c r="I355" t="n">
         <v>4</v>
@@ -26487,10 +25795,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H356" t="inlineStr">
-        <is>
-          <t>2021-06-25 14:38:32</t>
-        </is>
+      <c r="H356" s="1" t="n">
+        <v>44372.61009259259</v>
       </c>
       <c r="I356" t="n">
         <v>2</v>
@@ -26558,10 +25864,8 @@
           <t>4788902067</t>
         </is>
       </c>
-      <c r="H357" t="inlineStr">
-        <is>
-          <t>2021-06-25 14:38:19</t>
-        </is>
+      <c r="H357" s="1" t="n">
+        <v>44372.60994212963</v>
       </c>
       <c r="I357" t="n">
         <v>5</v>
@@ -26637,10 +25941,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H358" t="inlineStr">
-        <is>
-          <t>2021-06-25 14:38:01</t>
-        </is>
+      <c r="H358" s="1" t="n">
+        <v>44372.60973379629</v>
       </c>
       <c r="I358" t="n">
         <v>33</v>
@@ -26704,10 +26006,8 @@
           <t>4788896112</t>
         </is>
       </c>
-      <c r="H359" t="inlineStr">
-        <is>
-          <t>2021-06-25 14:36:44</t>
-        </is>
+      <c r="H359" s="1" t="n">
+        <v>44372.60884259259</v>
       </c>
       <c r="I359" t="n">
         <v>0</v>
@@ -26767,10 +26067,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H360" t="inlineStr">
-        <is>
-          <t>2021-06-25 14:35:58</t>
-        </is>
+      <c r="H360" s="1" t="n">
+        <v>44372.60831018518</v>
       </c>
       <c r="I360" t="n">
         <v>7</v>
@@ -26838,10 +26136,8 @@
           <t>4788767985</t>
         </is>
       </c>
-      <c r="H361" t="inlineStr">
-        <is>
-          <t>2021-06-25 14:35:41</t>
-        </is>
+      <c r="H361" s="1" t="n">
+        <v>44372.60811342593</v>
       </c>
       <c r="I361" t="n">
         <v>0</v>
@@ -26905,10 +26201,8 @@
           <t>4788884639</t>
         </is>
       </c>
-      <c r="H362" t="inlineStr">
-        <is>
-          <t>2021-06-25 14:35:34</t>
-        </is>
+      <c r="H362" s="1" t="n">
+        <v>44372.60803240741</v>
       </c>
       <c r="I362" t="n">
         <v>0</v>
@@ -26968,10 +26262,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H363" t="inlineStr">
-        <is>
-          <t>2021-06-25 14:35:19</t>
-        </is>
+      <c r="H363" s="1" t="n">
+        <v>44372.6078587963</v>
       </c>
       <c r="I363" t="n">
         <v>3</v>
@@ -27046,10 +26338,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H364" t="inlineStr">
-        <is>
-          <t>2021-06-25 14:35:00</t>
-        </is>
+      <c r="H364" s="1" t="n">
+        <v>44372.60763888889</v>
       </c>
       <c r="I364" t="n">
         <v>45</v>
@@ -27126,10 +26416,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H365" t="inlineStr">
-        <is>
-          <t>2021-06-25 14:34:50</t>
-        </is>
+      <c r="H365" s="1" t="n">
+        <v>44372.60752314814</v>
       </c>
       <c r="I365" t="n">
         <v>0</v>
@@ -27193,10 +26481,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H366" t="inlineStr">
-        <is>
-          <t>2021-06-25 14:34:36</t>
-        </is>
+      <c r="H366" s="1" t="n">
+        <v>44372.60736111111</v>
       </c>
       <c r="I366" t="n">
         <v>0</v>
@@ -27268,10 +26554,8 @@
           <t>4788767985</t>
         </is>
       </c>
-      <c r="H367" t="inlineStr">
-        <is>
-          <t>2021-06-25 14:33:42</t>
-        </is>
+      <c r="H367" s="1" t="n">
+        <v>44372.60673611111</v>
       </c>
       <c r="I367" t="n">
         <v>0</v>
@@ -27343,10 +26627,8 @@
           <t>4788741504</t>
         </is>
       </c>
-      <c r="H368" t="inlineStr">
-        <is>
-          <t>2021-06-25 14:33:35</t>
-        </is>
+      <c r="H368" s="1" t="n">
+        <v>44372.60665509259</v>
       </c>
       <c r="I368" t="n">
         <v>0</v>
@@ -27418,10 +26700,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H369" t="inlineStr">
-        <is>
-          <t>2021-06-25 14:33:12</t>
-        </is>
+      <c r="H369" s="1" t="n">
+        <v>44372.60638888889</v>
       </c>
       <c r="I369" t="n">
         <v>0</v>
@@ -27485,10 +26765,8 @@
           <t>4788741504</t>
         </is>
       </c>
-      <c r="H370" t="inlineStr">
-        <is>
-          <t>2021-06-25 14:32:55</t>
-        </is>
+      <c r="H370" s="1" t="n">
+        <v>44372.60619212963</v>
       </c>
       <c r="I370" t="n">
         <v>0</v>
@@ -27560,10 +26838,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H371" t="inlineStr">
-        <is>
-          <t>2021-06-25 14:32:41</t>
-        </is>
+      <c r="H371" s="1" t="n">
+        <v>44372.60603009259</v>
       </c>
       <c r="I371" t="n">
         <v>0</v>
@@ -27639,10 +26915,8 @@
           <t>4788874778</t>
         </is>
       </c>
-      <c r="H372" t="inlineStr">
-        <is>
-          <t>2021-06-25 14:32:29</t>
-        </is>
+      <c r="H372" s="1" t="n">
+        <v>44372.6058912037</v>
       </c>
       <c r="I372" t="n">
         <v>0</v>
@@ -27706,10 +26980,8 @@
           <t>4788875587</t>
         </is>
       </c>
-      <c r="H373" t="inlineStr">
-        <is>
-          <t>2021-06-25 14:32:08</t>
-        </is>
+      <c r="H373" s="1" t="n">
+        <v>44372.60564814815</v>
       </c>
       <c r="I373" t="n">
         <v>0</v>
@@ -27770,10 +27042,8 @@
           <t>4788741504</t>
         </is>
       </c>
-      <c r="H374" t="inlineStr">
-        <is>
-          <t>2021-06-25 14:32:05</t>
-        </is>
+      <c r="H374" s="1" t="n">
+        <v>44372.60561342593</v>
       </c>
       <c r="I374" t="n">
         <v>1</v>
@@ -27837,10 +27107,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H375" t="inlineStr">
-        <is>
-          <t>2021-06-25 14:32:02</t>
-        </is>
+      <c r="H375" s="1" t="n">
+        <v>44372.6055787037</v>
       </c>
       <c r="I375" t="n">
         <v>0</v>
@@ -27916,10 +27184,8 @@
           <t>4788741504</t>
         </is>
       </c>
-      <c r="H376" t="inlineStr">
-        <is>
-          <t>2021-06-25 14:31:44</t>
-        </is>
+      <c r="H376" s="1" t="n">
+        <v>44372.60537037037</v>
       </c>
       <c r="I376" t="n">
         <v>1</v>
@@ -27991,10 +27257,8 @@
           <t>4788875057</t>
         </is>
       </c>
-      <c r="H377" t="inlineStr">
-        <is>
-          <t>2021-06-25 14:31:44</t>
-        </is>
+      <c r="H377" s="1" t="n">
+        <v>44372.60537037037</v>
       </c>
       <c r="I377" t="n">
         <v>1</v>
@@ -28058,10 +27322,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H378" t="inlineStr">
-        <is>
-          <t>2021-06-25 14:31:30</t>
-        </is>
+      <c r="H378" s="1" t="n">
+        <v>44372.60520833333</v>
       </c>
       <c r="I378" t="n">
         <v>0</v>
@@ -28137,10 +27399,8 @@
           <t>4788873489</t>
         </is>
       </c>
-      <c r="H379" t="inlineStr">
-        <is>
-          <t>2021-06-25 14:31:28</t>
-        </is>
+      <c r="H379" s="1" t="n">
+        <v>44372.60518518519</v>
       </c>
       <c r="I379" t="n">
         <v>0</v>
@@ -28200,10 +27460,8 @@
           <t>4788759040</t>
         </is>
       </c>
-      <c r="H380" t="inlineStr">
-        <is>
-          <t>2021-06-25 14:31:24</t>
-        </is>
+      <c r="H380" s="1" t="n">
+        <v>44372.60513888889</v>
       </c>
       <c r="I380" t="n">
         <v>0</v>
@@ -28267,10 +27525,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H381" t="inlineStr">
-        <is>
-          <t>2021-06-25 14:30:57</t>
-        </is>
+      <c r="H381" s="1" t="n">
+        <v>44372.60482638889</v>
       </c>
       <c r="I381" t="n">
         <v>0</v>
@@ -28342,10 +27598,8 @@
           <t>4788767985</t>
         </is>
       </c>
-      <c r="H382" t="inlineStr">
-        <is>
-          <t>2021-06-25 14:30:36</t>
-        </is>
+      <c r="H382" s="1" t="n">
+        <v>44372.60458333333</v>
       </c>
       <c r="I382" t="n">
         <v>2</v>
@@ -28409,10 +27663,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H383" t="inlineStr">
-        <is>
-          <t>2021-06-25 14:30:34</t>
-        </is>
+      <c r="H383" s="1" t="n">
+        <v>44372.60456018519</v>
       </c>
       <c r="I383" t="n">
         <v>0</v>
@@ -28480,10 +27732,8 @@
           <t>4788872340</t>
         </is>
       </c>
-      <c r="H384" t="inlineStr">
-        <is>
-          <t>2021-06-25 14:30:34</t>
-        </is>
+      <c r="H384" s="1" t="n">
+        <v>44372.60456018519</v>
       </c>
       <c r="I384" t="n">
         <v>0</v>
@@ -28559,10 +27809,8 @@
           <t>4788862653</t>
         </is>
       </c>
-      <c r="H385" t="inlineStr">
-        <is>
-          <t>2021-06-25 14:29:52</t>
-        </is>
+      <c r="H385" s="1" t="n">
+        <v>44372.60407407407</v>
       </c>
       <c r="I385" t="n">
         <v>2</v>
@@ -28630,10 +27878,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H386" t="inlineStr">
-        <is>
-          <t>2021-06-25 14:29:11</t>
-        </is>
+      <c r="H386" s="1" t="n">
+        <v>44372.60359953704</v>
       </c>
       <c r="I386" t="n">
         <v>0</v>
@@ -28693,10 +27939,8 @@
           <t>4788861758</t>
         </is>
       </c>
-      <c r="H387" t="inlineStr">
-        <is>
-          <t>2021-06-25 14:29:09</t>
-        </is>
+      <c r="H387" s="1" t="n">
+        <v>44372.60357638889</v>
       </c>
       <c r="I387" t="n">
         <v>0</v>
@@ -28764,10 +28008,8 @@
           <t>4788759040</t>
         </is>
       </c>
-      <c r="H388" t="inlineStr">
-        <is>
-          <t>2021-06-25 14:28:40</t>
-        </is>
+      <c r="H388" s="1" t="n">
+        <v>44372.60324074074</v>
       </c>
       <c r="I388" t="n">
         <v>1</v>
@@ -28839,10 +28081,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H389" t="inlineStr">
-        <is>
-          <t>2021-06-25 14:28:39</t>
-        </is>
+      <c r="H389" s="1" t="n">
+        <v>44372.60322916666</v>
       </c>
       <c r="I389" t="n">
         <v>0</v>
@@ -28902,10 +28142,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H390" t="inlineStr">
-        <is>
-          <t>2021-06-25 14:27:51</t>
-        </is>
+      <c r="H390" s="1" t="n">
+        <v>44372.60267361111</v>
       </c>
       <c r="I390" t="n">
         <v>0</v>
@@ -28977,10 +28215,8 @@
           <t>4788854415</t>
         </is>
       </c>
-      <c r="H391" t="inlineStr">
-        <is>
-          <t>2021-06-25 14:27:43</t>
-        </is>
+      <c r="H391" s="1" t="n">
+        <v>44372.60258101852</v>
       </c>
       <c r="I391" t="n">
         <v>0</v>
@@ -29044,10 +28280,8 @@
           <t>4788741504</t>
         </is>
       </c>
-      <c r="H392" t="inlineStr">
-        <is>
-          <t>2021-06-25 14:26:33</t>
-        </is>
+      <c r="H392" s="1" t="n">
+        <v>44372.60177083333</v>
       </c>
       <c r="I392" t="n">
         <v>0</v>
@@ -29112,10 +28346,8 @@
           <t>4788856802</t>
         </is>
       </c>
-      <c r="H393" t="inlineStr">
-        <is>
-          <t>2021-06-25 14:26:10</t>
-        </is>
+      <c r="H393" s="1" t="n">
+        <v>44372.60150462963</v>
       </c>
       <c r="I393" t="n">
         <v>0</v>
@@ -29191,10 +28423,8 @@
           <t>4788772851</t>
         </is>
       </c>
-      <c r="H394" t="inlineStr">
-        <is>
-          <t>2021-06-25 14:25:50</t>
-        </is>
+      <c r="H394" s="1" t="n">
+        <v>44372.60127314815</v>
       </c>
       <c r="I394" t="n">
         <v>0</v>
@@ -29258,10 +28488,8 @@
           <t>4788772851</t>
         </is>
       </c>
-      <c r="H395" t="inlineStr">
-        <is>
-          <t>2021-06-25 14:25:28</t>
-        </is>
+      <c r="H395" s="1" t="n">
+        <v>44372.60101851852</v>
       </c>
       <c r="I395" t="n">
         <v>0</v>
@@ -29325,10 +28553,8 @@
           <t>4788772851</t>
         </is>
       </c>
-      <c r="H396" t="inlineStr">
-        <is>
-          <t>2021-06-25 14:25:09</t>
-        </is>
+      <c r="H396" s="1" t="n">
+        <v>44372.60079861111</v>
       </c>
       <c r="I396" t="n">
         <v>0</v>
@@ -29396,10 +28622,8 @@
           <t>4788846643</t>
         </is>
       </c>
-      <c r="H397" t="inlineStr">
-        <is>
-          <t>2021-06-25 14:25:08</t>
-        </is>
+      <c r="H397" s="1" t="n">
+        <v>44372.60078703704</v>
       </c>
       <c r="I397" t="n">
         <v>0</v>
@@ -29463,10 +28687,8 @@
           <t>4788741504</t>
         </is>
       </c>
-      <c r="H398" t="inlineStr">
-        <is>
-          <t>2021-06-25 14:24:49</t>
-        </is>
+      <c r="H398" s="1" t="n">
+        <v>44372.60056712963</v>
       </c>
       <c r="I398" t="n">
         <v>0</v>
@@ -29530,10 +28752,8 @@
           <t>4788772851</t>
         </is>
       </c>
-      <c r="H399" t="inlineStr">
-        <is>
-          <t>2021-06-25 14:24:38</t>
-        </is>
+      <c r="H399" s="1" t="n">
+        <v>44372.60043981481</v>
       </c>
       <c r="I399" t="n">
         <v>0</v>
@@ -29601,10 +28821,8 @@
           <t>4788679912</t>
         </is>
       </c>
-      <c r="H400" t="inlineStr">
-        <is>
-          <t>2021-06-25 14:24:20</t>
-        </is>
+      <c r="H400" s="1" t="n">
+        <v>44372.60023148148</v>
       </c>
       <c r="I400" t="n">
         <v>0</v>
@@ -29680,10 +28898,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H401" t="inlineStr">
-        <is>
-          <t>2021-06-25 14:24:03</t>
-        </is>
+      <c r="H401" s="1" t="n">
+        <v>44372.60003472222</v>
       </c>
       <c r="I401" t="n">
         <v>0</v>
@@ -29743,10 +28959,8 @@
           <t>4788838492</t>
         </is>
       </c>
-      <c r="H402" t="inlineStr">
-        <is>
-          <t>2021-06-25 14:23:10</t>
-        </is>
+      <c r="H402" s="1" t="n">
+        <v>44372.5994212963</v>
       </c>
       <c r="I402" t="n">
         <v>1</v>
@@ -29818,10 +29032,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H403" t="inlineStr">
-        <is>
-          <t>2021-06-25 14:22:52</t>
-        </is>
+      <c r="H403" s="1" t="n">
+        <v>44372.59921296296</v>
       </c>
       <c r="I403" t="n">
         <v>0</v>
@@ -29897,10 +29109,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H404" t="inlineStr">
-        <is>
-          <t>2021-06-25 14:22:42</t>
-        </is>
+      <c r="H404" s="1" t="n">
+        <v>44372.59909722222</v>
       </c>
       <c r="I404" t="n">
         <v>0</v>
@@ -29968,10 +29178,8 @@
           <t>4788769250</t>
         </is>
       </c>
-      <c r="H405" t="inlineStr">
-        <is>
-          <t>2021-06-25 14:22:26</t>
-        </is>
+      <c r="H405" s="1" t="n">
+        <v>44372.59891203704</v>
       </c>
       <c r="I405" t="n">
         <v>0</v>
@@ -30035,10 +29243,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H406" t="inlineStr">
-        <is>
-          <t>2021-06-25 14:22:11</t>
-        </is>
+      <c r="H406" s="1" t="n">
+        <v>44372.59873842593</v>
       </c>
       <c r="I406" t="n">
         <v>0</v>
@@ -30102,10 +29308,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H407" t="inlineStr">
-        <is>
-          <t>2021-06-25 14:22:03</t>
-        </is>
+      <c r="H407" s="1" t="n">
+        <v>44372.59864583334</v>
       </c>
       <c r="I407" t="n">
         <v>59</v>
@@ -30181,10 +29385,8 @@
           <t>4788832484</t>
         </is>
       </c>
-      <c r="H408" t="inlineStr">
-        <is>
-          <t>2021-06-25 14:21:51</t>
-        </is>
+      <c r="H408" s="1" t="n">
+        <v>44372.59850694444</v>
       </c>
       <c r="I408" t="n">
         <v>1</v>
@@ -30248,10 +29450,8 @@
           <t>4788832304</t>
         </is>
       </c>
-      <c r="H409" t="inlineStr">
-        <is>
-          <t>2021-06-25 14:21:42</t>
-        </is>
+      <c r="H409" s="1" t="n">
+        <v>44372.59840277778</v>
       </c>
       <c r="I409" t="n">
         <v>0</v>
@@ -30323,10 +29523,8 @@
           <t>4788769250</t>
         </is>
       </c>
-      <c r="H410" t="inlineStr">
-        <is>
-          <t>2021-06-25 14:21:23</t>
-        </is>
+      <c r="H410" s="1" t="n">
+        <v>44372.59818287037</v>
       </c>
       <c r="I410" t="n">
         <v>0</v>
@@ -30391,10 +29589,8 @@
           <t>4788769250</t>
         </is>
       </c>
-      <c r="H411" t="inlineStr">
-        <is>
-          <t>2021-06-25 14:21:04</t>
-        </is>
+      <c r="H411" s="1" t="n">
+        <v>44372.59796296297</v>
       </c>
       <c r="I411" t="n">
         <v>0</v>
@@ -30458,10 +29654,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H412" t="inlineStr">
-        <is>
-          <t>2021-06-25 14:20:59</t>
-        </is>
+      <c r="H412" s="1" t="n">
+        <v>44372.5979050926</v>
       </c>
       <c r="I412" t="n">
         <v>0</v>
@@ -30529,10 +29723,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H413" t="inlineStr">
-        <is>
-          <t>2021-06-25 14:20:32</t>
-        </is>
+      <c r="H413" s="1" t="n">
+        <v>44372.5975925926</v>
       </c>
       <c r="I413" t="n">
         <v>1</v>
@@ -30600,10 +29792,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H414" t="inlineStr">
-        <is>
-          <t>2021-06-25 14:20:29</t>
-        </is>
+      <c r="H414" s="1" t="n">
+        <v>44372.59755787037</v>
       </c>
       <c r="I414" t="n">
         <v>1</v>
@@ -30675,10 +29865,8 @@
           <t>4788769250</t>
         </is>
       </c>
-      <c r="H415" t="inlineStr">
-        <is>
-          <t>2021-06-25 14:20:23</t>
-        </is>
+      <c r="H415" s="1" t="n">
+        <v>44372.59748842593</v>
       </c>
       <c r="I415" t="n">
         <v>0</v>
@@ -30742,10 +29930,8 @@
           <t>4788575679</t>
         </is>
       </c>
-      <c r="H416" t="inlineStr">
-        <is>
-          <t>2021-06-25 14:19:56</t>
-        </is>
+      <c r="H416" s="1" t="n">
+        <v>44372.59717592593</v>
       </c>
       <c r="I416" t="n">
         <v>0</v>
@@ -30821,10 +30007,8 @@
           <t>4788769250</t>
         </is>
       </c>
-      <c r="H417" t="inlineStr">
-        <is>
-          <t>2021-06-25 14:19:31</t>
-        </is>
+      <c r="H417" s="1" t="n">
+        <v>44372.59688657407</v>
       </c>
       <c r="I417" t="n">
         <v>0</v>
@@ -30888,10 +30072,8 @@
           <t>4788823581</t>
         </is>
       </c>
-      <c r="H418" t="inlineStr">
-        <is>
-          <t>2021-06-25 14:19:21</t>
-        </is>
+      <c r="H418" s="1" t="n">
+        <v>44372.59677083333</v>
       </c>
       <c r="I418" t="n">
         <v>1</v>
@@ -30967,10 +30149,8 @@
           <t>4788679912</t>
         </is>
       </c>
-      <c r="H419" t="inlineStr">
-        <is>
-          <t>2021-06-25 14:19:14</t>
-        </is>
+      <c r="H419" s="1" t="n">
+        <v>44372.59668981482</v>
       </c>
       <c r="I419" t="n">
         <v>0</v>
@@ -31034,10 +30214,8 @@
           <t>4788769250</t>
         </is>
       </c>
-      <c r="H420" t="inlineStr">
-        <is>
-          <t>2021-06-25 14:18:40</t>
-        </is>
+      <c r="H420" s="1" t="n">
+        <v>44372.59629629629</v>
       </c>
       <c r="I420" t="n">
         <v>1</v>
@@ -31101,10 +30279,8 @@
           <t>4788769250</t>
         </is>
       </c>
-      <c r="H421" t="inlineStr">
-        <is>
-          <t>2021-06-25 14:18:00</t>
-        </is>
+      <c r="H421" s="1" t="n">
+        <v>44372.59583333333</v>
       </c>
       <c r="I421" t="n">
         <v>1</v>
@@ -31168,10 +30344,8 @@
           <t>4788826080</t>
         </is>
       </c>
-      <c r="H422" t="inlineStr">
-        <is>
-          <t>2021-06-25 14:17:51</t>
-        </is>
+      <c r="H422" s="1" t="n">
+        <v>44372.59572916666</v>
       </c>
       <c r="I422" t="n">
         <v>0</v>
@@ -31239,10 +30413,8 @@
           <t>4788654179</t>
         </is>
       </c>
-      <c r="H423" t="inlineStr">
-        <is>
-          <t>2021-06-25 14:17:47</t>
-        </is>
+      <c r="H423" s="1" t="n">
+        <v>44372.59568287037</v>
       </c>
       <c r="I423" t="n">
         <v>0</v>
@@ -31306,10 +30478,8 @@
           <t>4788821360</t>
         </is>
       </c>
-      <c r="H424" t="inlineStr">
-        <is>
-          <t>2021-06-25 14:17:38</t>
-        </is>
+      <c r="H424" s="1" t="n">
+        <v>44372.5955787037</v>
       </c>
       <c r="I424" t="n">
         <v>0</v>
@@ -31381,10 +30551,8 @@
           <t>4788769250</t>
         </is>
       </c>
-      <c r="H425" t="inlineStr">
-        <is>
-          <t>2021-06-25 14:17:36</t>
-        </is>
+      <c r="H425" s="1" t="n">
+        <v>44372.59555555556</v>
       </c>
       <c r="I425" t="n">
         <v>2</v>
@@ -31448,10 +30616,8 @@
           <t>4788816663</t>
         </is>
       </c>
-      <c r="H426" t="inlineStr">
-        <is>
-          <t>2021-06-25 14:17:20</t>
-        </is>
+      <c r="H426" s="1" t="n">
+        <v>44372.59537037037</v>
       </c>
       <c r="I426" t="n">
         <v>0</v>
@@ -31520,10 +30686,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H427" t="inlineStr">
-        <is>
-          <t>2021-06-25 14:17:11</t>
-        </is>
+      <c r="H427" s="1" t="n">
+        <v>44372.5952662037</v>
       </c>
       <c r="I427" t="n">
         <v>2</v>
@@ -31591,10 +30755,8 @@
           <t>4788769250</t>
         </is>
       </c>
-      <c r="H428" t="inlineStr">
-        <is>
-          <t>2021-06-25 14:17:00</t>
-        </is>
+      <c r="H428" s="1" t="n">
+        <v>44372.59513888889</v>
       </c>
       <c r="I428" t="n">
         <v>0</v>
@@ -31658,10 +30820,8 @@
           <t>4788820435</t>
         </is>
       </c>
-      <c r="H429" t="inlineStr">
-        <is>
-          <t>2021-06-25 14:16:57</t>
-        </is>
+      <c r="H429" s="1" t="n">
+        <v>44372.59510416666</v>
       </c>
       <c r="I429" t="n">
         <v>3</v>
@@ -31729,10 +30889,8 @@
           <t>4788741504</t>
         </is>
       </c>
-      <c r="H430" t="inlineStr">
-        <is>
-          <t>2021-06-25 14:16:54</t>
-        </is>
+      <c r="H430" s="1" t="n">
+        <v>44372.59506944445</v>
       </c>
       <c r="I430" t="n">
         <v>5</v>
@@ -31796,10 +30954,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H431" t="inlineStr">
-        <is>
-          <t>2021-06-25 14:16:48</t>
-        </is>
+      <c r="H431" s="1" t="n">
+        <v>44372.595</v>
       </c>
       <c r="I431" t="n">
         <v>1</v>
@@ -31867,10 +31023,8 @@
           <t>4788759040</t>
         </is>
       </c>
-      <c r="H432" t="inlineStr">
-        <is>
-          <t>2021-06-25 14:16:27</t>
-        </is>
+      <c r="H432" s="1" t="n">
+        <v>44372.59475694445</v>
       </c>
       <c r="I432" t="n">
         <v>1</v>
@@ -31934,10 +31088,8 @@
           <t>4788606441</t>
         </is>
       </c>
-      <c r="H433" t="inlineStr">
-        <is>
-          <t>2021-06-25 14:16:17</t>
-        </is>
+      <c r="H433" s="1" t="n">
+        <v>44372.5946412037</v>
       </c>
       <c r="I433" t="n">
         <v>0</v>
@@ -32009,10 +31161,8 @@
           <t>4788813407</t>
         </is>
       </c>
-      <c r="H434" t="inlineStr">
-        <is>
-          <t>2021-06-25 14:15:52</t>
-        </is>
+      <c r="H434" s="1" t="n">
+        <v>44372.59435185185</v>
       </c>
       <c r="I434" t="n">
         <v>0</v>
@@ -32088,10 +31238,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H435" t="inlineStr">
-        <is>
-          <t>2021-06-25 14:14:38</t>
-        </is>
+      <c r="H435" s="1" t="n">
+        <v>44372.59349537037</v>
       </c>
       <c r="I435" t="n">
         <v>0</v>
@@ -32159,10 +31307,8 @@
           <t>4788679912</t>
         </is>
       </c>
-      <c r="H436" t="inlineStr">
-        <is>
-          <t>2021-06-25 14:14:32</t>
-        </is>
+      <c r="H436" s="1" t="n">
+        <v>44372.59342592592</v>
       </c>
       <c r="I436" t="n">
         <v>0</v>
@@ -32234,10 +31380,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H437" t="inlineStr">
-        <is>
-          <t>2021-06-25 14:14:31</t>
-        </is>
+      <c r="H437" s="1" t="n">
+        <v>44372.59341435185</v>
       </c>
       <c r="I437" t="n">
         <v>1</v>
@@ -32310,10 +31454,8 @@
           <t>4788679912</t>
         </is>
       </c>
-      <c r="H438" t="inlineStr">
-        <is>
-          <t>2021-06-25 14:14:28</t>
-        </is>
+      <c r="H438" s="1" t="n">
+        <v>44372.59337962963</v>
       </c>
       <c r="I438" t="n">
         <v>1</v>
@@ -32389,10 +31531,8 @@
           <t>4788746684</t>
         </is>
       </c>
-      <c r="H439" t="inlineStr">
-        <is>
-          <t>2021-06-25 14:14:21</t>
-        </is>
+      <c r="H439" s="1" t="n">
+        <v>44372.59329861111</v>
       </c>
       <c r="I439" t="n">
         <v>0</v>
@@ -32456,10 +31596,8 @@
           <t>4788767985</t>
         </is>
       </c>
-      <c r="H440" t="inlineStr">
-        <is>
-          <t>2021-06-25 14:13:55</t>
-        </is>
+      <c r="H440" s="1" t="n">
+        <v>44372.59299768518</v>
       </c>
       <c r="I440" t="n">
         <v>0</v>
@@ -32523,10 +31661,8 @@
           <t>4788654179</t>
         </is>
       </c>
-      <c r="H441" t="inlineStr">
-        <is>
-          <t>2021-06-25 14:13:06</t>
-        </is>
+      <c r="H441" s="1" t="n">
+        <v>44372.59243055555</v>
       </c>
       <c r="I441" t="n">
         <v>0</v>
@@ -32598,10 +31734,8 @@
           <t>4788767985</t>
         </is>
       </c>
-      <c r="H442" t="inlineStr">
-        <is>
-          <t>2021-06-25 14:12:52</t>
-        </is>
+      <c r="H442" s="1" t="n">
+        <v>44372.59226851852</v>
       </c>
       <c r="I442" t="n">
         <v>0</v>
@@ -32665,10 +31799,8 @@
           <t>4788800736</t>
         </is>
       </c>
-      <c r="H443" t="inlineStr">
-        <is>
-          <t>2021-06-25 14:12:46</t>
-        </is>
+      <c r="H443" s="1" t="n">
+        <v>44372.59219907408</v>
       </c>
       <c r="I443" t="n">
         <v>10</v>
@@ -32732,10 +31864,8 @@
           <t>4788800415</t>
         </is>
       </c>
-      <c r="H444" t="inlineStr">
-        <is>
-          <t>2021-06-25 14:12:31</t>
-        </is>
+      <c r="H444" s="1" t="n">
+        <v>44372.59202546296</v>
       </c>
       <c r="I444" t="n">
         <v>2</v>
@@ -32815,10 +31945,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H445" t="inlineStr">
-        <is>
-          <t>2021-06-25 14:11:17</t>
-        </is>
+      <c r="H445" s="1" t="n">
+        <v>44372.59116898148</v>
       </c>
       <c r="I445" t="n">
         <v>11</v>
@@ -32878,10 +32006,8 @@
           <t>4788767985</t>
         </is>
       </c>
-      <c r="H446" t="inlineStr">
-        <is>
-          <t>2021-06-25 14:11:13</t>
-        </is>
+      <c r="H446" s="1" t="n">
+        <v>44372.59112268518</v>
       </c>
       <c r="I446" t="n">
         <v>4</v>
@@ -32951,10 +32077,8 @@
           <t>4788767985</t>
         </is>
       </c>
-      <c r="H447" t="inlineStr">
-        <is>
-          <t>2021-06-25 14:11:09</t>
-        </is>
+      <c r="H447" s="1" t="n">
+        <v>44372.59107638889</v>
       </c>
       <c r="I447" t="n">
         <v>2</v>
@@ -33030,10 +32154,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H448" t="inlineStr">
-        <is>
-          <t>2021-06-25 14:11:08</t>
-        </is>
+      <c r="H448" s="1" t="n">
+        <v>44372.59106481481</v>
       </c>
       <c r="I448" t="n">
         <v>30</v>
@@ -33093,10 +32215,8 @@
           <t>4788787500</t>
         </is>
       </c>
-      <c r="H449" t="inlineStr">
-        <is>
-          <t>2021-06-25 14:10:16</t>
-        </is>
+      <c r="H449" s="1" t="n">
+        <v>44372.59046296297</v>
       </c>
       <c r="I449" t="n">
         <v>0</v>
@@ -33160,10 +32280,8 @@
           <t>4788679912</t>
         </is>
       </c>
-      <c r="H450" t="inlineStr">
-        <is>
-          <t>2021-06-25 14:09:56</t>
-        </is>
+      <c r="H450" s="1" t="n">
+        <v>44372.59023148148</v>
       </c>
       <c r="I450" t="n">
         <v>1</v>
@@ -33239,10 +32357,8 @@
           <t>4788564886</t>
         </is>
       </c>
-      <c r="H451" t="inlineStr">
-        <is>
-          <t>2021-06-25 14:09:54</t>
-        </is>
+      <c r="H451" s="1" t="n">
+        <v>44372.59020833333</v>
       </c>
       <c r="I451" t="n">
         <v>0</v>
@@ -33310,10 +32426,8 @@
           <t>4788767985</t>
         </is>
       </c>
-      <c r="H452" t="inlineStr">
-        <is>
-          <t>2021-06-25 14:09:43</t>
-        </is>
+      <c r="H452" s="1" t="n">
+        <v>44372.59008101852</v>
       </c>
       <c r="I452" t="n">
         <v>0</v>
@@ -33377,10 +32491,8 @@
           <t>4788786548</t>
         </is>
       </c>
-      <c r="H453" t="inlineStr">
-        <is>
-          <t>2021-06-25 14:09:32</t>
-        </is>
+      <c r="H453" s="1" t="n">
+        <v>44372.5899537037</v>
       </c>
       <c r="I453" t="n">
         <v>2</v>
@@ -33448,10 +32560,8 @@
           <t>4788790117</t>
         </is>
       </c>
-      <c r="H454" t="inlineStr">
-        <is>
-          <t>2021-06-25 14:09:21</t>
-        </is>
+      <c r="H454" s="1" t="n">
+        <v>44372.58982638889</v>
       </c>
       <c r="I454" t="n">
         <v>0</v>
@@ -33515,10 +32625,8 @@
           <t>4788679912</t>
         </is>
       </c>
-      <c r="H455" t="inlineStr">
-        <is>
-          <t>2021-06-25 14:08:48</t>
-        </is>
+      <c r="H455" s="1" t="n">
+        <v>44372.58944444444</v>
       </c>
       <c r="I455" t="n">
         <v>0</v>
@@ -33590,10 +32698,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H456" t="inlineStr">
-        <is>
-          <t>2021-06-25 14:08:41</t>
-        </is>
+      <c r="H456" s="1" t="n">
+        <v>44372.58936342593</v>
       </c>
       <c r="I456" t="n">
         <v>0</v>
@@ -33653,10 +32759,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H457" t="inlineStr">
-        <is>
-          <t>2021-06-25 14:08:32</t>
-        </is>
+      <c r="H457" s="1" t="n">
+        <v>44372.58925925926</v>
       </c>
       <c r="I457" t="n">
         <v>13</v>
@@ -33716,10 +32820,8 @@
           <t>4788785126</t>
         </is>
       </c>
-      <c r="H458" t="inlineStr">
-        <is>
-          <t>2021-06-25 14:08:29</t>
-        </is>
+      <c r="H458" s="1" t="n">
+        <v>44372.58922453703</v>
       </c>
       <c r="I458" t="n">
         <v>0</v>
@@ -33797,10 +32899,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H459" t="inlineStr">
-        <is>
-          <t>2021-06-25 14:08:24</t>
-        </is>
+      <c r="H459" s="1" t="n">
+        <v>44372.58916666666</v>
       </c>
       <c r="I459" t="n">
         <v>8</v>
@@ -33860,10 +32960,8 @@
           <t>4788679912</t>
         </is>
       </c>
-      <c r="H460" t="inlineStr">
-        <is>
-          <t>2021-06-25 14:07:23</t>
-        </is>
+      <c r="H460" s="1" t="n">
+        <v>44372.58846064815</v>
       </c>
       <c r="I460" t="n">
         <v>0</v>
@@ -33935,10 +33033,8 @@
           <t>4788772851</t>
         </is>
       </c>
-      <c r="H461" t="inlineStr">
-        <is>
-          <t>2021-06-25 14:06:45</t>
-        </is>
+      <c r="H461" s="1" t="n">
+        <v>44372.58802083333</v>
       </c>
       <c r="I461" t="n">
         <v>5</v>
@@ -34006,10 +33102,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H462" t="inlineStr">
-        <is>
-          <t>2021-06-25 14:06:24</t>
-        </is>
+      <c r="H462" s="1" t="n">
+        <v>44372.58777777778</v>
       </c>
       <c r="I462" t="n">
         <v>0</v>
@@ -34085,10 +33179,8 @@
           <t>4788767985</t>
         </is>
       </c>
-      <c r="H463" t="inlineStr">
-        <is>
-          <t>2021-06-25 14:05:42</t>
-        </is>
+      <c r="H463" s="1" t="n">
+        <v>44372.58729166666</v>
       </c>
       <c r="I463" t="n">
         <v>10</v>
@@ -34156,10 +33248,8 @@
           <t>4788769250</t>
         </is>
       </c>
-      <c r="H464" t="inlineStr">
-        <is>
-          <t>2021-06-25 14:05:22</t>
-        </is>
+      <c r="H464" s="1" t="n">
+        <v>44372.58706018519</v>
       </c>
       <c r="I464" t="n">
         <v>0</v>
@@ -34223,10 +33313,8 @@
           <t>4788764292</t>
         </is>
       </c>
-      <c r="H465" t="inlineStr">
-        <is>
-          <t>2021-06-25 14:05:10</t>
-        </is>
+      <c r="H465" s="1" t="n">
+        <v>44372.58692129629</v>
       </c>
       <c r="I465" t="n">
         <v>0</v>
@@ -34298,10 +33386,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H466" t="inlineStr">
-        <is>
-          <t>2021-06-25 14:05:07</t>
-        </is>
+      <c r="H466" s="1" t="n">
+        <v>44372.58688657408</v>
       </c>
       <c r="I466" t="n">
         <v>0</v>
@@ -34369,10 +33455,8 @@
           <t>4788679912</t>
         </is>
       </c>
-      <c r="H467" t="inlineStr">
-        <is>
-          <t>2021-06-25 14:04:49</t>
-        </is>
+      <c r="H467" s="1" t="n">
+        <v>44372.58667824074</v>
       </c>
       <c r="I467" t="n">
         <v>0</v>
@@ -34448,10 +33532,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H468" t="inlineStr">
-        <is>
-          <t>2021-06-25 14:04:48</t>
-        </is>
+      <c r="H468" s="1" t="n">
+        <v>44372.58666666667</v>
       </c>
       <c r="I468" t="n">
         <v>7</v>
@@ -34519,10 +33601,8 @@
           <t>4788679912</t>
         </is>
       </c>
-      <c r="H469" t="inlineStr">
-        <is>
-          <t>2021-06-25 14:04:26</t>
-        </is>
+      <c r="H469" s="1" t="n">
+        <v>44372.58641203704</v>
       </c>
       <c r="I469" t="n">
         <v>0</v>
@@ -34598,10 +33678,8 @@
           <t>4788767985</t>
         </is>
       </c>
-      <c r="H470" t="inlineStr">
-        <is>
-          <t>2021-06-25 14:04:24</t>
-        </is>
+      <c r="H470" s="1" t="n">
+        <v>44372.58638888889</v>
       </c>
       <c r="I470" t="n">
         <v>0</v>
@@ -34665,10 +33743,8 @@
           <t>4788633687</t>
         </is>
       </c>
-      <c r="H471" t="inlineStr">
-        <is>
-          <t>2021-06-25 14:04:02</t>
-        </is>
+      <c r="H471" s="1" t="n">
+        <v>44372.58613425926</v>
       </c>
       <c r="I471" t="n">
         <v>0</v>
@@ -34740,10 +33816,8 @@
           <t>4788762699</t>
         </is>
       </c>
-      <c r="H472" t="inlineStr">
-        <is>
-          <t>2021-06-25 14:04:02</t>
-        </is>
+      <c r="H472" s="1" t="n">
+        <v>44372.58613425926</v>
       </c>
       <c r="I472" t="n">
         <v>0</v>
@@ -34815,10 +33889,8 @@
           <t>4788759040</t>
         </is>
       </c>
-      <c r="H473" t="inlineStr">
-        <is>
-          <t>2021-06-25 14:03:55</t>
-        </is>
+      <c r="H473" s="1" t="n">
+        <v>44372.58605324074</v>
       </c>
       <c r="I473" t="n">
         <v>7</v>
@@ -34890,10 +33962,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H474" t="inlineStr">
-        <is>
-          <t>2021-06-25 14:03:33</t>
-        </is>
+      <c r="H474" s="1" t="n">
+        <v>44372.58579861111</v>
       </c>
       <c r="I474" t="n">
         <v>0</v>
@@ -34969,10 +34039,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H475" t="inlineStr">
-        <is>
-          <t>2021-06-25 14:03:14</t>
-        </is>
+      <c r="H475" s="1" t="n">
+        <v>44372.58557870371</v>
       </c>
       <c r="I475" t="n">
         <v>0</v>
@@ -35044,10 +34112,8 @@
           <t>4788679912</t>
         </is>
       </c>
-      <c r="H476" t="inlineStr">
-        <is>
-          <t>2021-06-25 14:03:13</t>
-        </is>
+      <c r="H476" s="1" t="n">
+        <v>44372.58556712963</v>
       </c>
       <c r="I476" t="n">
         <v>1</v>
@@ -35123,10 +34189,8 @@
           <t>4788757982</t>
         </is>
       </c>
-      <c r="H477" t="inlineStr">
-        <is>
-          <t>2021-06-25 14:03:08</t>
-        </is>
+      <c r="H477" s="1" t="n">
+        <v>44372.58550925926</v>
       </c>
       <c r="I477" t="n">
         <v>0</v>
@@ -35198,10 +34262,8 @@
           <t>4788679912</t>
         </is>
       </c>
-      <c r="H478" t="inlineStr">
-        <is>
-          <t>2021-06-25 14:02:55</t>
-        </is>
+      <c r="H478" s="1" t="n">
+        <v>44372.5853587963</v>
       </c>
       <c r="I478" t="n">
         <v>1</v>
@@ -35277,10 +34339,8 @@
           <t>4788575679</t>
         </is>
       </c>
-      <c r="H479" t="inlineStr">
-        <is>
-          <t>2021-06-25 14:02:49</t>
-        </is>
+      <c r="H479" s="1" t="n">
+        <v>44372.58528935185</v>
       </c>
       <c r="I479" t="n">
         <v>0</v>
@@ -35352,10 +34412,8 @@
           <t>4788757467</t>
         </is>
       </c>
-      <c r="H480" t="inlineStr">
-        <is>
-          <t>2021-06-25 14:02:45</t>
-        </is>
+      <c r="H480" s="1" t="n">
+        <v>44372.58524305555</v>
       </c>
       <c r="I480" t="n">
         <v>0</v>
@@ -35423,10 +34481,8 @@
           <t>4788633687</t>
         </is>
       </c>
-      <c r="H481" t="inlineStr">
-        <is>
-          <t>2021-06-25 14:02:30</t>
-        </is>
+      <c r="H481" s="1" t="n">
+        <v>44372.58506944445</v>
       </c>
       <c r="I481" t="n">
         <v>0</v>
@@ -35498,10 +34554,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H482" t="inlineStr">
-        <is>
-          <t>2021-06-25 14:01:48</t>
-        </is>
+      <c r="H482" s="1" t="n">
+        <v>44372.58458333334</v>
       </c>
       <c r="I482" t="n">
         <v>12</v>
@@ -35577,10 +34631,8 @@
           <t>4788754101</t>
         </is>
       </c>
-      <c r="H483" t="inlineStr">
-        <is>
-          <t>2021-06-25 14:01:34</t>
-        </is>
+      <c r="H483" s="1" t="n">
+        <v>44372.5844212963</v>
       </c>
       <c r="I483" t="n">
         <v>0</v>
@@ -35658,10 +34710,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H484" t="inlineStr">
-        <is>
-          <t>2021-06-25 14:01:29</t>
-        </is>
+      <c r="H484" s="1" t="n">
+        <v>44372.58436342593</v>
       </c>
       <c r="I484" t="n">
         <v>0</v>
@@ -35737,10 +34787,8 @@
           <t>4788679912</t>
         </is>
       </c>
-      <c r="H485" t="inlineStr">
-        <is>
-          <t>2021-06-25 14:01:28</t>
-        </is>
+      <c r="H485" s="1" t="n">
+        <v>44372.58435185185</v>
       </c>
       <c r="I485" t="n">
         <v>0</v>
@@ -35812,10 +34860,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H486" t="inlineStr">
-        <is>
-          <t>2021-06-25 14:01:09</t>
-        </is>
+      <c r="H486" s="1" t="n">
+        <v>44372.58413194444</v>
       </c>
       <c r="I486" t="n">
         <v>0</v>
@@ -35883,10 +34929,8 @@
           <t>4788679912</t>
         </is>
       </c>
-      <c r="H487" t="inlineStr">
-        <is>
-          <t>2021-06-25 14:00:31</t>
-        </is>
+      <c r="H487" s="1" t="n">
+        <v>44372.58369212963</v>
       </c>
       <c r="I487" t="n">
         <v>0</v>
@@ -35958,10 +35002,8 @@
           <t>4788746684</t>
         </is>
       </c>
-      <c r="H488" t="inlineStr">
-        <is>
-          <t>2021-06-25 13:59:41</t>
-        </is>
+      <c r="H488" s="1" t="n">
+        <v>44372.58311342593</v>
       </c>
       <c r="I488" t="n">
         <v>0</v>
@@ -36025,10 +35067,8 @@
           <t>4788741504</t>
         </is>
       </c>
-      <c r="H489" t="inlineStr">
-        <is>
-          <t>2021-06-25 13:58:15</t>
-        </is>
+      <c r="H489" s="1" t="n">
+        <v>44372.58211805556</v>
       </c>
       <c r="I489" t="n">
         <v>17</v>
@@ -36100,10 +35140,8 @@
           <t>4788739192</t>
         </is>
       </c>
-      <c r="H490" t="inlineStr">
-        <is>
-          <t>2021-06-25 13:57:58</t>
-        </is>
+      <c r="H490" s="1" t="n">
+        <v>44372.5819212963</v>
       </c>
       <c r="I490" t="n">
         <v>0</v>
@@ -36171,10 +35209,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H491" t="inlineStr">
-        <is>
-          <t>2021-06-25 13:57:47</t>
-        </is>
+      <c r="H491" s="1" t="n">
+        <v>44372.58179398148</v>
       </c>
       <c r="I491" t="n">
         <v>0</v>
@@ -36238,10 +35274,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H492" t="inlineStr">
-        <is>
-          <t>2021-06-25 13:57:30</t>
-        </is>
+      <c r="H492" s="1" t="n">
+        <v>44372.58159722222</v>
       </c>
       <c r="I492" t="n">
         <v>145</v>
@@ -36310,10 +35344,8 @@
           <t>4788740044</t>
         </is>
       </c>
-      <c r="H493" t="inlineStr">
-        <is>
-          <t>2021-06-25 13:57:12</t>
-        </is>
+      <c r="H493" s="1" t="n">
+        <v>44372.58138888889</v>
       </c>
       <c r="I493" t="n">
         <v>7</v>
@@ -36373,10 +35405,8 @@
           <t>4788575679</t>
         </is>
       </c>
-      <c r="H494" t="inlineStr">
-        <is>
-          <t>2021-06-25 13:57:05</t>
-        </is>
+      <c r="H494" s="1" t="n">
+        <v>44372.58130787037</v>
       </c>
       <c r="I494" t="n">
         <v>0</v>
@@ -36444,10 +35474,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H495" t="inlineStr">
-        <is>
-          <t>2021-06-25 13:55:51</t>
-        </is>
+      <c r="H495" s="1" t="n">
+        <v>44372.58045138889</v>
       </c>
       <c r="I495" t="n">
         <v>7</v>
@@ -36522,10 +35550,8 @@
           <t>4788736219</t>
         </is>
       </c>
-      <c r="H496" t="inlineStr">
-        <is>
-          <t>2021-06-25 13:55:51</t>
-        </is>
+      <c r="H496" s="1" t="n">
+        <v>44372.58045138889</v>
       </c>
       <c r="I496" t="n">
         <v>13</v>
@@ -36597,10 +35623,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H497" t="inlineStr">
-        <is>
-          <t>2021-06-25 13:55:31</t>
-        </is>
+      <c r="H497" s="1" t="n">
+        <v>44372.58021990741</v>
       </c>
       <c r="I497" t="n">
         <v>4</v>
@@ -36664,10 +35688,8 @@
           <t>4788679912</t>
         </is>
       </c>
-      <c r="H498" t="inlineStr">
-        <is>
-          <t>2021-06-25 13:55:19</t>
-        </is>
+      <c r="H498" s="1" t="n">
+        <v>44372.58008101852</v>
       </c>
       <c r="I498" t="n">
         <v>1</v>
@@ -36739,10 +35761,8 @@
           <t>4788726232</t>
         </is>
       </c>
-      <c r="H499" t="inlineStr">
-        <is>
-          <t>2021-06-25 13:54:27</t>
-        </is>
+      <c r="H499" s="1" t="n">
+        <v>44372.57947916666</v>
       </c>
       <c r="I499" t="n">
         <v>6</v>
@@ -36810,10 +35830,8 @@
           <t>4788679912</t>
         </is>
       </c>
-      <c r="H500" t="inlineStr">
-        <is>
-          <t>2021-06-25 13:52:40</t>
-        </is>
+      <c r="H500" s="1" t="n">
+        <v>44372.57824074074</v>
       </c>
       <c r="I500" t="n">
         <v>0</v>
@@ -36889,10 +35907,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H501" t="inlineStr">
-        <is>
-          <t>2021-06-25 13:52:05</t>
-        </is>
+      <c r="H501" s="1" t="n">
+        <v>44372.57783564815</v>
       </c>
       <c r="I501" t="n">
         <v>53</v>
@@ -36956,10 +35972,8 @@
           <t>4788679912</t>
         </is>
       </c>
-      <c r="H502" t="inlineStr">
-        <is>
-          <t>2021-06-25 13:52:03</t>
-        </is>
+      <c r="H502" s="1" t="n">
+        <v>44372.5778125</v>
       </c>
       <c r="I502" t="n">
         <v>0</v>
@@ -37027,10 +36041,8 @@
           <t>4788720414</t>
         </is>
       </c>
-      <c r="H503" t="inlineStr">
-        <is>
-          <t>2021-06-25 13:51:48</t>
-        </is>
+      <c r="H503" s="1" t="n">
+        <v>44372.57763888889</v>
       </c>
       <c r="I503" t="n">
         <v>1</v>
@@ -37106,10 +36118,8 @@
           <t>4788709570</t>
         </is>
       </c>
-      <c r="H504" t="inlineStr">
-        <is>
-          <t>2021-06-25 13:51:25</t>
-        </is>
+      <c r="H504" s="1" t="n">
+        <v>44372.57737268518</v>
       </c>
       <c r="I504" t="n">
         <v>0</v>
@@ -37173,10 +36183,8 @@
           <t>4788709570</t>
         </is>
       </c>
-      <c r="H505" t="inlineStr">
-        <is>
-          <t>2021-06-25 13:51:13</t>
-        </is>
+      <c r="H505" s="1" t="n">
+        <v>44372.5772337963</v>
       </c>
       <c r="I505" t="n">
         <v>0</v>
@@ -37240,10 +36248,8 @@
           <t>4788679912</t>
         </is>
       </c>
-      <c r="H506" t="inlineStr">
-        <is>
-          <t>2021-06-25 13:51:11</t>
-        </is>
+      <c r="H506" s="1" t="n">
+        <v>44372.57721064815</v>
       </c>
       <c r="I506" t="n">
         <v>0</v>
@@ -37319,10 +36325,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H507" t="inlineStr">
-        <is>
-          <t>2021-06-25 13:51:05</t>
-        </is>
+      <c r="H507" s="1" t="n">
+        <v>44372.57714120371</v>
       </c>
       <c r="I507" t="n">
         <v>0</v>
@@ -37394,10 +36398,8 @@
           <t>4788710939</t>
         </is>
       </c>
-      <c r="H508" t="inlineStr">
-        <is>
-          <t>2021-06-25 13:50:40</t>
-        </is>
+      <c r="H508" s="1" t="n">
+        <v>44372.57685185185</v>
       </c>
       <c r="I508" t="n">
         <v>0</v>
@@ -37473,10 +36475,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H509" t="inlineStr">
-        <is>
-          <t>2021-06-25 13:50:37</t>
-        </is>
+      <c r="H509" s="1" t="n">
+        <v>44372.57681712963</v>
       </c>
       <c r="I509" t="n">
         <v>0</v>
@@ -37548,10 +36548,8 @@
           <t>4788679912</t>
         </is>
       </c>
-      <c r="H510" t="inlineStr">
-        <is>
-          <t>2021-06-25 13:50:19</t>
-        </is>
+      <c r="H510" s="1" t="n">
+        <v>44372.5766087963</v>
       </c>
       <c r="I510" t="n">
         <v>0</v>
@@ -37627,10 +36625,8 @@
           <t>4788679912</t>
         </is>
       </c>
-      <c r="H511" t="inlineStr">
-        <is>
-          <t>2021-06-25 13:50:14</t>
-        </is>
+      <c r="H511" s="1" t="n">
+        <v>44372.57655092593</v>
       </c>
       <c r="I511" t="n">
         <v>0</v>
@@ -37702,10 +36698,8 @@
           <t>4788710020</t>
         </is>
       </c>
-      <c r="H512" t="inlineStr">
-        <is>
-          <t>2021-06-25 13:50:00</t>
-        </is>
+      <c r="H512" s="1" t="n">
+        <v>44372.57638888889</v>
       </c>
       <c r="I512" t="n">
         <v>0</v>
@@ -37781,10 +36775,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H513" t="inlineStr">
-        <is>
-          <t>2021-06-25 13:49:39</t>
-        </is>
+      <c r="H513" s="1" t="n">
+        <v>44372.57614583334</v>
       </c>
       <c r="I513" t="n">
         <v>0</v>
@@ -37849,10 +36841,8 @@
           <t>4788707099</t>
         </is>
       </c>
-      <c r="H514" t="inlineStr">
-        <is>
-          <t>2021-06-25 13:49:32</t>
-        </is>
+      <c r="H514" s="1" t="n">
+        <v>44372.57606481481</v>
       </c>
       <c r="I514" t="n">
         <v>1</v>
@@ -37920,10 +36910,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H515" t="inlineStr">
-        <is>
-          <t>2021-06-25 13:49:07</t>
-        </is>
+      <c r="H515" s="1" t="n">
+        <v>44372.57577546296</v>
       </c>
       <c r="I515" t="n">
         <v>0</v>
@@ -37999,10 +36987,8 @@
           <t>4788698730</t>
         </is>
       </c>
-      <c r="H516" t="inlineStr">
-        <is>
-          <t>2021-06-25 13:49:06</t>
-        </is>
+      <c r="H516" s="1" t="n">
+        <v>44372.57576388889</v>
       </c>
       <c r="I516" t="n">
         <v>6</v>
@@ -38070,10 +37056,8 @@
           <t>4788679912</t>
         </is>
       </c>
-      <c r="H517" t="inlineStr">
-        <is>
-          <t>2021-06-25 13:48:42</t>
-        </is>
+      <c r="H517" s="1" t="n">
+        <v>44372.57548611111</v>
       </c>
       <c r="I517" t="n">
         <v>1</v>
@@ -38149,10 +37133,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H518" t="inlineStr">
-        <is>
-          <t>2021-06-25 13:48:30</t>
-        </is>
+      <c r="H518" s="1" t="n">
+        <v>44372.57534722222</v>
       </c>
       <c r="I518" t="n">
         <v>0</v>
@@ -38228,10 +37210,8 @@
           <t>4788701068</t>
         </is>
       </c>
-      <c r="H519" t="inlineStr">
-        <is>
-          <t>2021-06-25 13:48:29</t>
-        </is>
+      <c r="H519" s="1" t="n">
+        <v>44372.57533564815</v>
       </c>
       <c r="I519" t="n">
         <v>0</v>
@@ -38307,10 +37287,8 @@
           <t>4788575679</t>
         </is>
       </c>
-      <c r="H520" t="inlineStr">
-        <is>
-          <t>2021-06-25 13:48:24</t>
-        </is>
+      <c r="H520" s="1" t="n">
+        <v>44372.57527777777</v>
       </c>
       <c r="I520" t="n">
         <v>0</v>
@@ -38382,10 +37360,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H521" t="inlineStr">
-        <is>
-          <t>2021-06-25 13:48:06</t>
-        </is>
+      <c r="H521" s="1" t="n">
+        <v>44372.57506944444</v>
       </c>
       <c r="I521" t="n">
         <v>94</v>
@@ -38449,10 +37425,8 @@
           <t>4788636696</t>
         </is>
       </c>
-      <c r="H522" t="inlineStr">
-        <is>
-          <t>2021-06-25 13:48:00</t>
-        </is>
+      <c r="H522" s="1" t="n">
+        <v>44372.575</v>
       </c>
       <c r="I522" t="n">
         <v>4</v>
@@ -38532,10 +37506,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H523" t="inlineStr">
-        <is>
-          <t>2021-06-25 13:47:42</t>
-        </is>
+      <c r="H523" s="1" t="n">
+        <v>44372.57479166667</v>
       </c>
       <c r="I523" t="n">
         <v>0</v>
@@ -38607,10 +37579,8 @@
           <t>4788694062</t>
         </is>
       </c>
-      <c r="H524" t="inlineStr">
-        <is>
-          <t>2021-06-25 13:47:25</t>
-        </is>
+      <c r="H524" s="1" t="n">
+        <v>44372.5745949074</v>
       </c>
       <c r="I524" t="n">
         <v>0</v>
@@ -38686,10 +37656,8 @@
           <t>4788689202</t>
         </is>
       </c>
-      <c r="H525" t="inlineStr">
-        <is>
-          <t>2021-06-25 13:47:12</t>
-        </is>
+      <c r="H525" s="1" t="n">
+        <v>44372.57444444444</v>
       </c>
       <c r="I525" t="n">
         <v>3</v>
@@ -38765,10 +37733,8 @@
           <t>4788693707</t>
         </is>
       </c>
-      <c r="H526" t="inlineStr">
-        <is>
-          <t>2021-06-25 13:47:11</t>
-        </is>
+      <c r="H526" s="1" t="n">
+        <v>44372.57443287037</v>
       </c>
       <c r="I526" t="n">
         <v>0</v>
@@ -38844,10 +37810,8 @@
           <t>4788695682</t>
         </is>
       </c>
-      <c r="H527" t="inlineStr">
-        <is>
-          <t>2021-06-25 13:46:57</t>
-        </is>
+      <c r="H527" s="1" t="n">
+        <v>44372.57427083333</v>
       </c>
       <c r="I527" t="n">
         <v>3</v>
@@ -38911,10 +37875,8 @@
           <t>4788679912</t>
         </is>
       </c>
-      <c r="H528" t="inlineStr">
-        <is>
-          <t>2021-06-25 13:46:52</t>
-        </is>
+      <c r="H528" s="1" t="n">
+        <v>44372.57421296297</v>
       </c>
       <c r="I528" t="n">
         <v>1</v>
@@ -38986,10 +37948,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H529" t="inlineStr">
-        <is>
-          <t>2021-06-25 13:46:48</t>
-        </is>
+      <c r="H529" s="1" t="n">
+        <v>44372.57416666667</v>
       </c>
       <c r="I529" t="n">
         <v>0</v>
@@ -39065,10 +38025,8 @@
           <t>4788679912</t>
         </is>
       </c>
-      <c r="H530" t="inlineStr">
-        <is>
-          <t>2021-06-25 13:46:31</t>
-        </is>
+      <c r="H530" s="1" t="n">
+        <v>44372.5739699074</v>
       </c>
       <c r="I530" t="n">
         <v>3</v>
@@ -39144,10 +38102,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H531" t="inlineStr">
-        <is>
-          <t>2021-06-25 13:46:03</t>
-        </is>
+      <c r="H531" s="1" t="n">
+        <v>44372.57364583333</v>
       </c>
       <c r="I531" t="n">
         <v>0</v>
@@ -39215,10 +38171,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H532" t="inlineStr">
-        <is>
-          <t>2021-06-25 13:45:28</t>
-        </is>
+      <c r="H532" s="1" t="n">
+        <v>44372.57324074074</v>
       </c>
       <c r="I532" t="n">
         <v>11</v>
@@ -39282,10 +38236,8 @@
           <t>4788686110</t>
         </is>
       </c>
-      <c r="H533" t="inlineStr">
-        <is>
-          <t>2021-06-25 13:45:06</t>
-        </is>
+      <c r="H533" s="1" t="n">
+        <v>44372.57298611111</v>
       </c>
       <c r="I533" t="n">
         <v>6</v>
@@ -39361,10 +38313,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H534" t="inlineStr">
-        <is>
-          <t>2021-06-25 13:45:04</t>
-        </is>
+      <c r="H534" s="1" t="n">
+        <v>44372.57296296296</v>
       </c>
       <c r="I534" t="n">
         <v>4</v>
@@ -39428,10 +38378,8 @@
           <t>4788679912</t>
         </is>
       </c>
-      <c r="H535" t="inlineStr">
-        <is>
-          <t>2021-06-25 13:44:38</t>
-        </is>
+      <c r="H535" s="1" t="n">
+        <v>44372.57266203704</v>
       </c>
       <c r="I535" t="n">
         <v>0</v>
@@ -39507,10 +38455,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H536" t="inlineStr">
-        <is>
-          <t>2021-06-25 13:44:22</t>
-        </is>
+      <c r="H536" s="1" t="n">
+        <v>44372.57247685185</v>
       </c>
       <c r="I536" t="n">
         <v>0</v>
@@ -39578,10 +38524,8 @@
           <t>4788568153</t>
         </is>
       </c>
-      <c r="H537" t="inlineStr">
-        <is>
-          <t>2021-06-25 13:44:19</t>
-        </is>
+      <c r="H537" s="1" t="n">
+        <v>44372.57244212963</v>
       </c>
       <c r="I537" t="n">
         <v>0</v>
@@ -39653,10 +38597,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H538" t="inlineStr">
-        <is>
-          <t>2021-06-25 13:44:15</t>
-        </is>
+      <c r="H538" s="1" t="n">
+        <v>44372.57239583333</v>
       </c>
       <c r="I538" t="n">
         <v>4</v>
@@ -39724,10 +38666,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H539" t="inlineStr">
-        <is>
-          <t>2021-06-25 13:44:14</t>
-        </is>
+      <c r="H539" s="1" t="n">
+        <v>44372.57238425926</v>
       </c>
       <c r="I539" t="n">
         <v>28</v>
@@ -39809,10 +38749,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H540" t="inlineStr">
-        <is>
-          <t>2021-06-25 13:44:14</t>
-        </is>
+      <c r="H540" s="1" t="n">
+        <v>44372.57238425926</v>
       </c>
       <c r="I540" t="n">
         <v>5</v>
@@ -39888,10 +38826,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H541" t="inlineStr">
-        <is>
-          <t>2021-06-25 13:44:11</t>
-        </is>
+      <c r="H541" s="1" t="n">
+        <v>44372.57234953704</v>
       </c>
       <c r="I541" t="n">
         <v>16</v>
@@ -39955,10 +38891,8 @@
           <t>4788679114</t>
         </is>
       </c>
-      <c r="H542" t="inlineStr">
-        <is>
-          <t>2021-06-25 13:44:07</t>
-        </is>
+      <c r="H542" s="1" t="n">
+        <v>44372.57230324074</v>
       </c>
       <c r="I542" t="n">
         <v>0</v>
@@ -40034,10 +38968,8 @@
           <t>4788679107</t>
         </is>
       </c>
-      <c r="H543" t="inlineStr">
-        <is>
-          <t>2021-06-25 13:44:06</t>
-        </is>
+      <c r="H543" s="1" t="n">
+        <v>44372.57229166666</v>
       </c>
       <c r="I543" t="n">
         <v>15</v>
@@ -40113,10 +39045,8 @@
           <t>4788568153</t>
         </is>
       </c>
-      <c r="H544" t="inlineStr">
-        <is>
-          <t>2021-06-25 13:44:03</t>
-        </is>
+      <c r="H544" s="1" t="n">
+        <v>44372.57225694445</v>
       </c>
       <c r="I544" t="n">
         <v>0</v>
@@ -40188,10 +39118,8 @@
           <t>4788674309</t>
         </is>
       </c>
-      <c r="H545" t="inlineStr">
-        <is>
-          <t>2021-06-25 13:43:51</t>
-        </is>
+      <c r="H545" s="1" t="n">
+        <v>44372.57211805556</v>
       </c>
       <c r="I545" t="n">
         <v>10</v>
@@ -40268,10 +39196,8 @@
           <t>4788680675</t>
         </is>
       </c>
-      <c r="H546" t="inlineStr">
-        <is>
-          <t>2021-06-25 13:43:30</t>
-        </is>
+      <c r="H546" s="1" t="n">
+        <v>44372.571875</v>
       </c>
       <c r="I546" t="n">
         <v>9</v>
@@ -40339,10 +39265,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H547" t="inlineStr">
-        <is>
-          <t>2021-06-25 13:43:13</t>
-        </is>
+      <c r="H547" s="1" t="n">
+        <v>44372.57167824074</v>
       </c>
       <c r="I547" t="n">
         <v>0</v>
@@ -40410,10 +39334,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H548" t="inlineStr">
-        <is>
-          <t>2021-06-25 13:41:49</t>
-        </is>
+      <c r="H548" s="1" t="n">
+        <v>44372.57070601852</v>
       </c>
       <c r="I548" t="n">
         <v>0</v>
@@ -40489,10 +39411,8 @@
           <t>4788671060</t>
         </is>
       </c>
-      <c r="H549" t="inlineStr">
-        <is>
-          <t>2021-06-25 13:41:37</t>
-        </is>
+      <c r="H549" s="1" t="n">
+        <v>44372.57056712963</v>
       </c>
       <c r="I549" t="n">
         <v>0</v>
@@ -40560,10 +39480,8 @@
           <t>4788664750</t>
         </is>
       </c>
-      <c r="H550" t="inlineStr">
-        <is>
-          <t>2021-06-25 13:41:11</t>
-        </is>
+      <c r="H550" s="1" t="n">
+        <v>44372.5702662037</v>
       </c>
       <c r="I550" t="n">
         <v>0</v>
@@ -40635,10 +39553,8 @@
           <t>4788633687</t>
         </is>
       </c>
-      <c r="H551" t="inlineStr">
-        <is>
-          <t>2021-06-25 13:40:11</t>
-        </is>
+      <c r="H551" s="1" t="n">
+        <v>44372.56957175926</v>
       </c>
       <c r="I551" t="n">
         <v>0</v>
@@ -40702,10 +39618,8 @@
           <t>4788658507</t>
         </is>
       </c>
-      <c r="H552" t="inlineStr">
-        <is>
-          <t>2021-06-25 13:39:56</t>
-        </is>
+      <c r="H552" s="1" t="n">
+        <v>44372.56939814815</v>
       </c>
       <c r="I552" t="n">
         <v>5</v>
@@ -40774,10 +39688,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H553" t="inlineStr">
-        <is>
-          <t>2021-06-25 13:39:55</t>
-        </is>
+      <c r="H553" s="1" t="n">
+        <v>44372.56938657408</v>
       </c>
       <c r="I553" t="n">
         <v>0</v>
@@ -40841,10 +39753,8 @@
           <t>4788665158</t>
         </is>
       </c>
-      <c r="H554" t="inlineStr">
-        <is>
-          <t>2021-06-25 13:39:42</t>
-        </is>
+      <c r="H554" s="1" t="n">
+        <v>44372.56923611111</v>
       </c>
       <c r="I554" t="n">
         <v>2</v>
@@ -40912,10 +39822,8 @@
           <t>4788654619</t>
         </is>
       </c>
-      <c r="H555" t="inlineStr">
-        <is>
-          <t>2021-06-25 13:39:19</t>
-        </is>
+      <c r="H555" s="1" t="n">
+        <v>44372.56896990741</v>
       </c>
       <c r="I555" t="n">
         <v>0</v>
@@ -40991,10 +39899,8 @@
           <t>4788654179</t>
         </is>
       </c>
-      <c r="H556" t="inlineStr">
-        <is>
-          <t>2021-06-25 13:39:02</t>
-        </is>
+      <c r="H556" s="1" t="n">
+        <v>44372.56877314814</v>
       </c>
       <c r="I556" t="n">
         <v>5</v>
@@ -41058,10 +39964,8 @@
           <t>4788652942</t>
         </is>
       </c>
-      <c r="H557" t="inlineStr">
-        <is>
-          <t>2021-06-25 13:38:11</t>
-        </is>
+      <c r="H557" s="1" t="n">
+        <v>44372.56818287037</v>
       </c>
       <c r="I557" t="n">
         <v>0</v>
@@ -41129,10 +40033,8 @@
           <t>4788633687</t>
         </is>
       </c>
-      <c r="H558" t="inlineStr">
-        <is>
-          <t>2021-06-25 13:37:58</t>
-        </is>
+      <c r="H558" s="1" t="n">
+        <v>44372.56803240741</v>
       </c>
       <c r="I558" t="n">
         <v>0</v>
@@ -41196,10 +40098,8 @@
           <t>4788575679</t>
         </is>
       </c>
-      <c r="H559" t="inlineStr">
-        <is>
-          <t>2021-06-25 13:37:39</t>
-        </is>
+      <c r="H559" s="1" t="n">
+        <v>44372.5678125</v>
       </c>
       <c r="I559" t="n">
         <v>1</v>
@@ -41263,10 +40163,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H560" t="inlineStr">
-        <is>
-          <t>2021-06-25 13:37:24</t>
-        </is>
+      <c r="H560" s="1" t="n">
+        <v>44372.56763888889</v>
       </c>
       <c r="I560" t="n">
         <v>71</v>
@@ -41334,10 +40232,8 @@
           <t>4788644652</t>
         </is>
       </c>
-      <c r="H561" t="inlineStr">
-        <is>
-          <t>2021-06-25 13:37:21</t>
-        </is>
+      <c r="H561" s="1" t="n">
+        <v>44372.56760416667</v>
       </c>
       <c r="I561" t="n">
         <v>0</v>
@@ -41409,10 +40305,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H562" t="inlineStr">
-        <is>
-          <t>2021-06-25 13:36:52</t>
-        </is>
+      <c r="H562" s="1" t="n">
+        <v>44372.56726851852</v>
       </c>
       <c r="I562" t="n">
         <v>0</v>
@@ -41488,10 +40382,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H563" t="inlineStr">
-        <is>
-          <t>2021-06-25 13:36:51</t>
-        </is>
+      <c r="H563" s="1" t="n">
+        <v>44372.56725694444</v>
       </c>
       <c r="I563" t="n">
         <v>1</v>
@@ -41576,10 +40468,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H564" t="inlineStr">
-        <is>
-          <t>2021-06-25 13:36:27</t>
-        </is>
+      <c r="H564" s="1" t="n">
+        <v>44372.56697916667</v>
       </c>
       <c r="I564" t="n">
         <v>0</v>
@@ -41655,10 +40545,8 @@
           <t>4788642843</t>
         </is>
       </c>
-      <c r="H565" t="inlineStr">
-        <is>
-          <t>2021-06-25 13:36:08</t>
-        </is>
+      <c r="H565" s="1" t="n">
+        <v>44372.56675925926</v>
       </c>
       <c r="I565" t="n">
         <v>0</v>
@@ -41730,10 +40618,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H566" t="inlineStr">
-        <is>
-          <t>2021-06-25 13:36:02</t>
-        </is>
+      <c r="H566" s="1" t="n">
+        <v>44372.56668981481</v>
       </c>
       <c r="I566" t="n">
         <v>39</v>
@@ -41805,10 +40691,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H567" t="inlineStr">
-        <is>
-          <t>2021-06-25 13:35:29</t>
-        </is>
+      <c r="H567" s="1" t="n">
+        <v>44372.56630787037</v>
       </c>
       <c r="I567" t="n">
         <v>2</v>
@@ -41876,10 +40760,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H568" t="inlineStr">
-        <is>
-          <t>2021-06-25 13:35:26</t>
-        </is>
+      <c r="H568" s="1" t="n">
+        <v>44372.56627314815</v>
       </c>
       <c r="I568" t="n">
         <v>0</v>
@@ -41955,10 +40837,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H569" t="inlineStr">
-        <is>
-          <t>2021-06-25 13:34:05</t>
-        </is>
+      <c r="H569" s="1" t="n">
+        <v>44372.56533564815</v>
       </c>
       <c r="I569" t="n">
         <v>0</v>
@@ -42026,10 +40906,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H570" t="inlineStr">
-        <is>
-          <t>2021-06-25 13:34:01</t>
-        </is>
+      <c r="H570" s="1" t="n">
+        <v>44372.56528935185</v>
       </c>
       <c r="I570" t="n">
         <v>0</v>
@@ -42105,10 +40983,8 @@
           <t>4788633687</t>
         </is>
       </c>
-      <c r="H571" t="inlineStr">
-        <is>
-          <t>2021-06-25 13:33:57</t>
-        </is>
+      <c r="H571" s="1" t="n">
+        <v>44372.56524305556</v>
       </c>
       <c r="I571" t="n">
         <v>1</v>
@@ -42172,10 +41048,8 @@
           <t>4788636696</t>
         </is>
       </c>
-      <c r="H572" t="inlineStr">
-        <is>
-          <t>2021-06-25 13:33:53</t>
-        </is>
+      <c r="H572" s="1" t="n">
+        <v>44372.56519675926</v>
       </c>
       <c r="I572" t="n">
         <v>40</v>
@@ -42251,10 +41125,8 @@
           <t>4788629315</t>
         </is>
       </c>
-      <c r="H573" t="inlineStr">
-        <is>
-          <t>2021-06-25 13:33:48</t>
-        </is>
+      <c r="H573" s="1" t="n">
+        <v>44372.56513888889</v>
       </c>
       <c r="I573" t="n">
         <v>11</v>
@@ -42330,10 +41202,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H574" t="inlineStr">
-        <is>
-          <t>2021-06-25 13:33:43</t>
-        </is>
+      <c r="H574" s="1" t="n">
+        <v>44372.56508101852</v>
       </c>
       <c r="I574" t="n">
         <v>1</v>
@@ -42409,10 +41279,8 @@
           <t>4788628279</t>
         </is>
       </c>
-      <c r="H575" t="inlineStr">
-        <is>
-          <t>2021-06-25 13:33:09</t>
-        </is>
+      <c r="H575" s="1" t="n">
+        <v>44372.5646875</v>
       </c>
       <c r="I575" t="n">
         <v>1</v>
@@ -42476,10 +41344,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H576" t="inlineStr">
-        <is>
-          <t>2021-06-25 13:31:56</t>
-        </is>
+      <c r="H576" s="1" t="n">
+        <v>44372.56384259259</v>
       </c>
       <c r="I576" t="n">
         <v>0</v>
@@ -42547,10 +41413,8 @@
           <t>4788623758</t>
         </is>
       </c>
-      <c r="H577" t="inlineStr">
-        <is>
-          <t>2021-06-25 13:31:54</t>
-        </is>
+      <c r="H577" s="1" t="n">
+        <v>44372.56381944445</v>
       </c>
       <c r="I577" t="n">
         <v>30</v>
@@ -42619,10 +41483,8 @@
           <t>4788605497</t>
         </is>
       </c>
-      <c r="H578" t="inlineStr">
-        <is>
-          <t>2021-06-25 13:31:28</t>
-        </is>
+      <c r="H578" s="1" t="n">
+        <v>44372.56351851852</v>
       </c>
       <c r="I578" t="n">
         <v>0</v>
@@ -42698,10 +41560,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H579" t="inlineStr">
-        <is>
-          <t>2021-06-25 13:30:21</t>
-        </is>
+      <c r="H579" s="1" t="n">
+        <v>44372.56274305555</v>
       </c>
       <c r="I579" t="n">
         <v>2</v>
@@ -42769,10 +41629,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H580" t="inlineStr">
-        <is>
-          <t>2021-06-25 13:30:11</t>
-        </is>
+      <c r="H580" s="1" t="n">
+        <v>44372.56262731482</v>
       </c>
       <c r="I580" t="n">
         <v>8</v>
@@ -42840,10 +41698,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H581" t="inlineStr">
-        <is>
-          <t>2021-06-25 13:29:58</t>
-        </is>
+      <c r="H581" s="1" t="n">
+        <v>44372.56247685185</v>
       </c>
       <c r="I581" t="n">
         <v>15</v>
@@ -42907,10 +41763,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H582" t="inlineStr">
-        <is>
-          <t>2021-06-25 13:29:44</t>
-        </is>
+      <c r="H582" s="1" t="n">
+        <v>44372.56231481482</v>
       </c>
       <c r="I582" t="n">
         <v>0</v>
@@ -42974,10 +41828,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H583" t="inlineStr">
-        <is>
-          <t>2021-06-25 13:29:23</t>
-        </is>
+      <c r="H583" s="1" t="n">
+        <v>44372.56207175926</v>
       </c>
       <c r="I583" t="n">
         <v>0</v>
@@ -43041,10 +41893,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H584" t="inlineStr">
-        <is>
-          <t>2021-06-25 13:29:16</t>
-        </is>
+      <c r="H584" s="1" t="n">
+        <v>44372.56199074074</v>
       </c>
       <c r="I584" t="n">
         <v>1</v>
@@ -43108,10 +41958,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H585" t="inlineStr">
-        <is>
-          <t>2021-06-25 13:29:08</t>
-        </is>
+      <c r="H585" s="1" t="n">
+        <v>44372.56189814815</v>
       </c>
       <c r="I585" t="n">
         <v>1</v>
@@ -43187,10 +42035,8 @@
           <t>4788615983</t>
         </is>
       </c>
-      <c r="H586" t="inlineStr">
-        <is>
-          <t>2021-06-25 13:29:04</t>
-        </is>
+      <c r="H586" s="1" t="n">
+        <v>44372.56185185185</v>
       </c>
       <c r="I586" t="n">
         <v>0</v>
@@ -43254,10 +42100,8 @@
           <t>4788590566</t>
         </is>
       </c>
-      <c r="H587" t="inlineStr">
-        <is>
-          <t>2021-06-25 13:29:00</t>
-        </is>
+      <c r="H587" s="1" t="n">
+        <v>44372.56180555555</v>
       </c>
       <c r="I587" t="n">
         <v>1</v>
@@ -43325,10 +42169,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H588" t="inlineStr">
-        <is>
-          <t>2021-06-25 13:28:57</t>
-        </is>
+      <c r="H588" s="1" t="n">
+        <v>44372.56177083333</v>
       </c>
       <c r="I588" t="n">
         <v>7</v>
@@ -43392,10 +42234,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H589" t="inlineStr">
-        <is>
-          <t>2021-06-25 13:28:52</t>
-        </is>
+      <c r="H589" s="1" t="n">
+        <v>44372.56171296296</v>
       </c>
       <c r="I589" t="n">
         <v>11</v>
@@ -43467,10 +42307,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H590" t="inlineStr">
-        <is>
-          <t>2021-06-25 13:28:41</t>
-        </is>
+      <c r="H590" s="1" t="n">
+        <v>44372.56158564815</v>
       </c>
       <c r="I590" t="n">
         <v>8</v>
@@ -43547,10 +42385,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H591" t="inlineStr">
-        <is>
-          <t>2021-06-25 13:28:37</t>
-        </is>
+      <c r="H591" s="1" t="n">
+        <v>44372.56153935185</v>
       </c>
       <c r="I591" t="n">
         <v>1</v>
@@ -43626,10 +42462,8 @@
           <t>4788590566</t>
         </is>
       </c>
-      <c r="H592" t="inlineStr">
-        <is>
-          <t>2021-06-25 13:28:35</t>
-        </is>
+      <c r="H592" s="1" t="n">
+        <v>44372.56151620371</v>
       </c>
       <c r="I592" t="n">
         <v>0</v>
@@ -43693,10 +42527,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H593" t="inlineStr">
-        <is>
-          <t>2021-06-25 13:28:24</t>
-        </is>
+      <c r="H593" s="1" t="n">
+        <v>44372.56138888889</v>
       </c>
       <c r="I593" t="n">
         <v>1</v>
@@ -43772,10 +42604,8 @@
           <t>4788608368</t>
         </is>
       </c>
-      <c r="H594" t="inlineStr">
-        <is>
-          <t>2021-06-25 13:28:18</t>
-        </is>
+      <c r="H594" s="1" t="n">
+        <v>44372.56131944444</v>
       </c>
       <c r="I594" t="n">
         <v>1</v>
@@ -43852,10 +42682,8 @@
           <t>4788594606</t>
         </is>
       </c>
-      <c r="H595" t="inlineStr">
-        <is>
-          <t>2021-06-25 13:27:46</t>
-        </is>
+      <c r="H595" s="1" t="n">
+        <v>44372.56094907408</v>
       </c>
       <c r="I595" t="n">
         <v>1</v>
@@ -43923,10 +42751,8 @@
           <t>4788568153</t>
         </is>
       </c>
-      <c r="H596" t="inlineStr">
-        <is>
-          <t>2021-06-25 13:27:41</t>
-        </is>
+      <c r="H596" s="1" t="n">
+        <v>44372.56089120371</v>
       </c>
       <c r="I596" t="n">
         <v>1</v>
@@ -43990,10 +42816,8 @@
           <t>4788606992</t>
         </is>
       </c>
-      <c r="H597" t="inlineStr">
-        <is>
-          <t>2021-06-25 13:27:23</t>
-        </is>
+      <c r="H597" s="1" t="n">
+        <v>44372.56068287037</v>
       </c>
       <c r="I597" t="n">
         <v>0</v>
@@ -44065,10 +42889,8 @@
           <t>4788606441</t>
         </is>
       </c>
-      <c r="H598" t="inlineStr">
-        <is>
-          <t>2021-06-25 13:27:02</t>
-        </is>
+      <c r="H598" s="1" t="n">
+        <v>44372.56043981481</v>
       </c>
       <c r="I598" t="n">
         <v>2</v>
@@ -44140,10 +42962,8 @@
           <t>4788598590</t>
         </is>
       </c>
-      <c r="H599" t="inlineStr">
-        <is>
-          <t>2021-06-25 13:26:50</t>
-        </is>
+      <c r="H599" s="1" t="n">
+        <v>44372.56030092593</v>
       </c>
       <c r="I599" t="n">
         <v>0</v>
@@ -44211,10 +43031,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H600" t="inlineStr">
-        <is>
-          <t>2021-06-25 13:26:41</t>
-        </is>
+      <c r="H600" s="1" t="n">
+        <v>44372.56019675926</v>
       </c>
       <c r="I600" t="n">
         <v>0</v>
@@ -44290,10 +43108,8 @@
           <t>4788575679</t>
         </is>
       </c>
-      <c r="H601" t="inlineStr">
-        <is>
-          <t>2021-06-25 13:26:35</t>
-        </is>
+      <c r="H601" s="1" t="n">
+        <v>44372.56012731481</v>
       </c>
       <c r="I601" t="n">
         <v>6</v>
@@ -44369,10 +43185,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H602" t="inlineStr">
-        <is>
-          <t>2021-06-25 13:26:25</t>
-        </is>
+      <c r="H602" s="1" t="n">
+        <v>44372.56001157407</v>
       </c>
       <c r="I602" t="n">
         <v>124</v>
@@ -44436,10 +43250,8 @@
           <t>4788605497</t>
         </is>
       </c>
-      <c r="H603" t="inlineStr">
-        <is>
-          <t>2021-06-25 13:26:25</t>
-        </is>
+      <c r="H603" s="1" t="n">
+        <v>44372.56001157407</v>
       </c>
       <c r="I603" t="n">
         <v>0</v>
@@ -44503,10 +43315,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H604" t="inlineStr">
-        <is>
-          <t>2021-06-25 13:26:21</t>
-        </is>
+      <c r="H604" s="1" t="n">
+        <v>44372.55996527777</v>
       </c>
       <c r="I604" t="n">
         <v>0</v>
@@ -44582,10 +43392,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H605" t="inlineStr">
-        <is>
-          <t>2021-06-25 13:26:03</t>
-        </is>
+      <c r="H605" s="1" t="n">
+        <v>44372.55975694444</v>
       </c>
       <c r="I605" t="n">
         <v>84</v>
@@ -44658,10 +43466,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H606" t="inlineStr">
-        <is>
-          <t>2021-06-25 13:25:56</t>
-        </is>
+      <c r="H606" s="1" t="n">
+        <v>44372.55967592593</v>
       </c>
       <c r="I606" t="n">
         <v>0</v>
@@ -44721,10 +43527,8 @@
           <t>4788594606</t>
         </is>
       </c>
-      <c r="H607" t="inlineStr">
-        <is>
-          <t>2021-06-25 13:25:49</t>
-        </is>
+      <c r="H607" s="1" t="n">
+        <v>44372.5595949074</v>
       </c>
       <c r="I607" t="n">
         <v>4</v>
@@ -44784,10 +43588,8 @@
           <t>4788594437</t>
         </is>
       </c>
-      <c r="H608" t="inlineStr">
-        <is>
-          <t>2021-06-25 13:25:43</t>
-        </is>
+      <c r="H608" s="1" t="n">
+        <v>44372.55952546297</v>
       </c>
       <c r="I608" t="n">
         <v>3</v>
@@ -44855,10 +43657,8 @@
           <t>4788590566</t>
         </is>
       </c>
-      <c r="H609" t="inlineStr">
-        <is>
-          <t>2021-06-25 13:25:28</t>
-        </is>
+      <c r="H609" s="1" t="n">
+        <v>44372.55935185185</v>
       </c>
       <c r="I609" t="n">
         <v>1</v>
@@ -44926,10 +43726,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H610" t="inlineStr">
-        <is>
-          <t>2021-06-25 13:25:09</t>
-        </is>
+      <c r="H610" s="1" t="n">
+        <v>44372.55913194444</v>
       </c>
       <c r="I610" t="n">
         <v>50</v>
@@ -44989,10 +43787,8 @@
           <t>4788593503</t>
         </is>
       </c>
-      <c r="H611" t="inlineStr">
-        <is>
-          <t>2021-06-25 13:25:07</t>
-        </is>
+      <c r="H611" s="1" t="n">
+        <v>44372.5591087963</v>
       </c>
       <c r="I611" t="n">
         <v>9</v>
@@ -45068,10 +43864,8 @@
           <t>4788595599</t>
         </is>
       </c>
-      <c r="H612" t="inlineStr">
-        <is>
-          <t>2021-06-25 13:24:57</t>
-        </is>
+      <c r="H612" s="1" t="n">
+        <v>44372.55899305556</v>
       </c>
       <c r="I612" t="n">
         <v>11</v>
@@ -45135,10 +43929,8 @@
           <t>4788593241</t>
         </is>
       </c>
-      <c r="H613" t="inlineStr">
-        <is>
-          <t>2021-06-25 13:24:57</t>
-        </is>
+      <c r="H613" s="1" t="n">
+        <v>44372.55899305556</v>
       </c>
       <c r="I613" t="n">
         <v>10</v>
@@ -45202,10 +43994,8 @@
           <t>4788590566</t>
         </is>
       </c>
-      <c r="H614" t="inlineStr">
-        <is>
-          <t>2021-06-25 13:24:49</t>
-        </is>
+      <c r="H614" s="1" t="n">
+        <v>44372.55890046297</v>
       </c>
       <c r="I614" t="n">
         <v>0</v>
@@ -45273,10 +44063,8 @@
           <t>4788590566</t>
         </is>
       </c>
-      <c r="H615" t="inlineStr">
-        <is>
-          <t>2021-06-25 13:24:30</t>
-        </is>
+      <c r="H615" s="1" t="n">
+        <v>44372.55868055556</v>
       </c>
       <c r="I615" t="n">
         <v>3</v>
@@ -45352,10 +44140,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H616" t="inlineStr">
-        <is>
-          <t>2021-06-25 13:24:12</t>
-        </is>
+      <c r="H616" s="1" t="n">
+        <v>44372.55847222222</v>
       </c>
       <c r="I616" t="n">
         <v>5</v>
@@ -45427,10 +44213,8 @@
           <t>4788568153</t>
         </is>
       </c>
-      <c r="H617" t="inlineStr">
-        <is>
-          <t>2021-06-25 13:23:52</t>
-        </is>
+      <c r="H617" s="1" t="n">
+        <v>44372.55824074074</v>
       </c>
       <c r="I617" t="n">
         <v>2</v>
@@ -45506,10 +44290,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H618" t="inlineStr">
-        <is>
-          <t>2021-06-25 13:23:41</t>
-        </is>
+      <c r="H618" s="1" t="n">
+        <v>44372.55811342593</v>
       </c>
       <c r="I618" t="n">
         <v>0</v>
@@ -45586,10 +44368,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H619" t="inlineStr">
-        <is>
-          <t>2021-06-25 13:23:35</t>
-        </is>
+      <c r="H619" s="1" t="n">
+        <v>44372.55804398148</v>
       </c>
       <c r="I619" t="n">
         <v>217</v>
@@ -45665,10 +44445,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H620" t="inlineStr">
-        <is>
-          <t>2021-06-25 13:23:21</t>
-        </is>
+      <c r="H620" s="1" t="n">
+        <v>44372.55788194444</v>
       </c>
       <c r="I620" t="n">
         <v>1</v>
@@ -45740,10 +44518,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H621" t="inlineStr">
-        <is>
-          <t>2021-06-25 13:22:58</t>
-        </is>
+      <c r="H621" s="1" t="n">
+        <v>44372.55761574074</v>
       </c>
       <c r="I621" t="n">
         <v>0</v>
@@ -45811,10 +44587,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H622" t="inlineStr">
-        <is>
-          <t>2021-06-25 13:22:58</t>
-        </is>
+      <c r="H622" s="1" t="n">
+        <v>44372.55761574074</v>
       </c>
       <c r="I622" t="n">
         <v>5</v>
@@ -45882,10 +44656,8 @@
           <t>4788568153</t>
         </is>
       </c>
-      <c r="H623" t="inlineStr">
-        <is>
-          <t>2021-06-25 13:22:52</t>
-        </is>
+      <c r="H623" s="1" t="n">
+        <v>44372.5575462963</v>
       </c>
       <c r="I623" t="n">
         <v>2</v>
@@ -45958,10 +44730,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H624" t="inlineStr">
-        <is>
-          <t>2021-06-25 13:22:51</t>
-        </is>
+      <c r="H624" s="1" t="n">
+        <v>44372.55753472223</v>
       </c>
       <c r="I624" t="n">
         <v>29</v>
@@ -46026,10 +44796,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H625" t="inlineStr">
-        <is>
-          <t>2021-06-25 13:22:30</t>
-        </is>
+      <c r="H625" s="1" t="n">
+        <v>44372.55729166666</v>
       </c>
       <c r="I625" t="n">
         <v>1</v>
@@ -46093,10 +44861,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H626" t="inlineStr">
-        <is>
-          <t>2021-06-25 13:22:18</t>
-        </is>
+      <c r="H626" s="1" t="n">
+        <v>44372.55715277778</v>
       </c>
       <c r="I626" t="n">
         <v>160</v>
@@ -46168,10 +44934,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H627" t="inlineStr">
-        <is>
-          <t>2021-06-25 13:21:51</t>
-        </is>
+      <c r="H627" s="1" t="n">
+        <v>44372.55684027778</v>
       </c>
       <c r="I627" t="n">
         <v>4</v>
@@ -46239,10 +45003,8 @@
           <t>4788578380</t>
         </is>
       </c>
-      <c r="H628" t="inlineStr">
-        <is>
-          <t>2021-06-25 13:21:48</t>
-        </is>
+      <c r="H628" s="1" t="n">
+        <v>44372.55680555556</v>
       </c>
       <c r="I628" t="n">
         <v>0</v>
@@ -46310,10 +45072,8 @@
           <t>4788573822</t>
         </is>
       </c>
-      <c r="H629" t="inlineStr">
-        <is>
-          <t>2021-06-25 13:21:33</t>
-        </is>
+      <c r="H629" s="1" t="n">
+        <v>44372.55663194445</v>
       </c>
       <c r="I629" t="n">
         <v>0</v>
@@ -46382,10 +45142,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H630" t="inlineStr">
-        <is>
-          <t>2021-06-25 13:21:29</t>
-        </is>
+      <c r="H630" s="1" t="n">
+        <v>44372.55658564815</v>
       </c>
       <c r="I630" t="n">
         <v>275</v>
@@ -46445,10 +45203,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H631" t="inlineStr">
-        <is>
-          <t>2021-06-25 13:21:26</t>
-        </is>
+      <c r="H631" s="1" t="n">
+        <v>44372.55655092592</v>
       </c>
       <c r="I631" t="n">
         <v>508</v>
@@ -46512,10 +45268,8 @@
           <t>4788569971</t>
         </is>
       </c>
-      <c r="H632" t="inlineStr">
-        <is>
-          <t>2021-06-25 13:21:26</t>
-        </is>
+      <c r="H632" s="1" t="n">
+        <v>44372.55655092592</v>
       </c>
       <c r="I632" t="n">
         <v>6</v>
@@ -46575,10 +45329,8 @@
           <t>4788569917</t>
         </is>
       </c>
-      <c r="H633" t="inlineStr">
-        <is>
-          <t>2021-06-25 13:21:25</t>
-        </is>
+      <c r="H633" s="1" t="n">
+        <v>44372.55653935186</v>
       </c>
       <c r="I633" t="n">
         <v>0</v>
@@ -46650,10 +45402,8 @@
           <t>4788575679</t>
         </is>
       </c>
-      <c r="H634" t="inlineStr">
-        <is>
-          <t>2021-06-25 13:21:24</t>
-        </is>
+      <c r="H634" s="1" t="n">
+        <v>44372.55652777778</v>
       </c>
       <c r="I634" t="n">
         <v>11</v>
@@ -46729,10 +45479,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H635" t="inlineStr">
-        <is>
-          <t>2021-06-25 13:21:19</t>
-        </is>
+      <c r="H635" s="1" t="n">
+        <v>44372.55646990741</v>
       </c>
       <c r="I635" t="n">
         <v>47</v>
@@ -46808,10 +45556,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H636" t="inlineStr">
-        <is>
-          <t>2021-06-25 13:20:47</t>
-        </is>
+      <c r="H636" s="1" t="n">
+        <v>44372.55609953704</v>
       </c>
       <c r="I636" t="n">
         <v>0</v>
@@ -46879,10 +45625,8 @@
           <t>4788576709</t>
         </is>
       </c>
-      <c r="H637" t="inlineStr">
-        <is>
-          <t>2021-06-25 13:20:46</t>
-        </is>
+      <c r="H637" s="1" t="n">
+        <v>44372.55608796296</v>
       </c>
       <c r="I637" t="n">
         <v>2</v>
@@ -46958,10 +45702,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H638" t="inlineStr">
-        <is>
-          <t>2021-06-25 13:20:44</t>
-        </is>
+      <c r="H638" s="1" t="n">
+        <v>44372.55606481482</v>
       </c>
       <c r="I638" t="n">
         <v>22</v>
@@ -47025,10 +45767,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H639" t="inlineStr">
-        <is>
-          <t>2021-06-25 13:20:40</t>
-        </is>
+      <c r="H639" s="1" t="n">
+        <v>44372.55601851852</v>
       </c>
       <c r="I639" t="n">
         <v>0</v>
@@ -47096,10 +45836,8 @@
           <t>4788570699</t>
         </is>
       </c>
-      <c r="H640" t="inlineStr">
-        <is>
-          <t>2021-06-25 13:20:39</t>
-        </is>
+      <c r="H640" s="1" t="n">
+        <v>44372.55600694445</v>
       </c>
       <c r="I640" t="n">
         <v>3</v>
@@ -47171,10 +45909,8 @@
           <t>4788568153</t>
         </is>
       </c>
-      <c r="H641" t="inlineStr">
-        <is>
-          <t>2021-06-25 13:20:22</t>
-        </is>
+      <c r="H641" s="1" t="n">
+        <v>44372.55581018519</v>
       </c>
       <c r="I641" t="n">
         <v>3</v>
@@ -47238,10 +45974,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H642" t="inlineStr">
-        <is>
-          <t>2021-06-25 13:20:21</t>
-        </is>
+      <c r="H642" s="1" t="n">
+        <v>44372.55579861111</v>
       </c>
       <c r="I642" t="n">
         <v>1</v>
@@ -47313,10 +46047,8 @@
           <t>4788575893</t>
         </is>
       </c>
-      <c r="H643" t="inlineStr">
-        <is>
-          <t>2021-06-25 13:20:16</t>
-        </is>
+      <c r="H643" s="1" t="n">
+        <v>44372.55574074074</v>
       </c>
       <c r="I643" t="n">
         <v>1</v>
@@ -47388,10 +46120,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H644" t="inlineStr">
-        <is>
-          <t>2021-06-25 13:20:13</t>
-        </is>
+      <c r="H644" s="1" t="n">
+        <v>44372.55570601852</v>
       </c>
       <c r="I644" t="n">
         <v>5</v>
@@ -47459,10 +46189,8 @@
           <t>4788567782</t>
         </is>
       </c>
-      <c r="H645" t="inlineStr">
-        <is>
-          <t>2021-06-25 13:20:09</t>
-        </is>
+      <c r="H645" s="1" t="n">
+        <v>44372.55565972222</v>
       </c>
       <c r="I645" t="n">
         <v>0</v>
@@ -47534,10 +46262,8 @@
           <t>4788575679</t>
         </is>
       </c>
-      <c r="H646" t="inlineStr">
-        <is>
-          <t>2021-06-25 13:20:07</t>
-        </is>
+      <c r="H646" s="1" t="n">
+        <v>44372.55563657408</v>
       </c>
       <c r="I646" t="n">
         <v>3</v>
@@ -47601,10 +46327,8 @@
           <t>4788555253</t>
         </is>
       </c>
-      <c r="H647" t="inlineStr">
-        <is>
-          <t>2021-06-25 13:20:04</t>
-        </is>
+      <c r="H647" s="1" t="n">
+        <v>44372.55560185185</v>
       </c>
       <c r="I647" t="n">
         <v>5</v>
@@ -47680,10 +46404,8 @@
           <t>4788567350</t>
         </is>
       </c>
-      <c r="H648" t="inlineStr">
-        <is>
-          <t>2021-06-25 13:19:53</t>
-        </is>
+      <c r="H648" s="1" t="n">
+        <v>44372.55547453704</v>
       </c>
       <c r="I648" t="n">
         <v>1</v>
@@ -47759,10 +46481,8 @@
           <t>4788570699</t>
         </is>
       </c>
-      <c r="H649" t="inlineStr">
-        <is>
-          <t>2021-06-25 13:19:46</t>
-        </is>
+      <c r="H649" s="1" t="n">
+        <v>44372.55539351852</v>
       </c>
       <c r="I649" t="n">
         <v>7</v>
@@ -47834,10 +46554,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H650" t="inlineStr">
-        <is>
-          <t>2021-06-25 13:19:44</t>
-        </is>
+      <c r="H650" s="1" t="n">
+        <v>44372.55537037037</v>
       </c>
       <c r="I650" t="n">
         <v>0</v>
@@ -47905,10 +46623,8 @@
           <t>4788564886</t>
         </is>
       </c>
-      <c r="H651" t="inlineStr">
-        <is>
-          <t>2021-06-25 13:19:37</t>
-        </is>
+      <c r="H651" s="1" t="n">
+        <v>44372.55528935185</v>
       </c>
       <c r="I651" t="n">
         <v>9</v>
@@ -47976,10 +46692,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H652" t="inlineStr">
-        <is>
-          <t>2021-06-25 13:19:25</t>
-        </is>
+      <c r="H652" s="1" t="n">
+        <v>44372.55515046296</v>
       </c>
       <c r="I652" t="n">
         <v>13</v>
@@ -48039,10 +46753,8 @@
           <t>4788570083</t>
         </is>
       </c>
-      <c r="H653" t="inlineStr">
-        <is>
-          <t>2021-06-25 13:19:22</t>
-        </is>
+      <c r="H653" s="1" t="n">
+        <v>44372.55511574074</v>
       </c>
       <c r="I653" t="n">
         <v>3</v>
@@ -48118,10 +46830,8 @@
           <t>4788535455</t>
         </is>
       </c>
-      <c r="H654" t="inlineStr">
-        <is>
-          <t>2021-06-25 13:19:22</t>
-        </is>
+      <c r="H654" s="1" t="n">
+        <v>44372.55511574074</v>
       </c>
       <c r="I654" t="n">
         <v>0</v>
@@ -48197,10 +46907,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H655" t="inlineStr">
-        <is>
-          <t>2021-06-25 13:19:20</t>
-        </is>
+      <c r="H655" s="1" t="n">
+        <v>44372.55509259259</v>
       </c>
       <c r="I655" t="n">
         <v>5</v>
@@ -48268,10 +46976,8 @@
           <t>4788535455</t>
         </is>
       </c>
-      <c r="H656" t="inlineStr">
-        <is>
-          <t>2021-06-25 13:19:15</t>
-        </is>
+      <c r="H656" s="1" t="n">
+        <v>44372.55503472222</v>
       </c>
       <c r="I656" t="n">
         <v>0</v>
@@ -48336,10 +47042,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H657" t="inlineStr">
-        <is>
-          <t>2021-06-25 13:19:14</t>
-        </is>
+      <c r="H657" s="1" t="n">
+        <v>44372.55502314815</v>
       </c>
       <c r="I657" t="n">
         <v>296</v>
@@ -48412,10 +47116,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H658" t="inlineStr">
-        <is>
-          <t>2021-06-25 13:19:09</t>
-        </is>
+      <c r="H658" s="1" t="n">
+        <v>44372.55496527778</v>
       </c>
       <c r="I658" t="n">
         <v>0</v>
@@ -48482,10 +47184,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H659" t="inlineStr">
-        <is>
-          <t>2021-06-25 13:19:04</t>
-        </is>
+      <c r="H659" s="1" t="n">
+        <v>44372.55490740741</v>
       </c>
       <c r="I659" t="n">
         <v>18</v>
@@ -48557,10 +47257,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H660" t="inlineStr">
-        <is>
-          <t>2021-06-25 13:19:01</t>
-        </is>
+      <c r="H660" s="1" t="n">
+        <v>44372.55487268518</v>
       </c>
       <c r="I660" t="n">
         <v>4</v>
@@ -48628,10 +47326,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H661" t="inlineStr">
-        <is>
-          <t>2021-06-25 13:18:57</t>
-        </is>
+      <c r="H661" s="1" t="n">
+        <v>44372.55482638889</v>
       </c>
       <c r="I661" t="n">
         <v>0</v>
@@ -48703,10 +47399,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H662" t="inlineStr">
-        <is>
-          <t>2021-06-25 13:18:48</t>
-        </is>
+      <c r="H662" s="1" t="n">
+        <v>44372.55472222222</v>
       </c>
       <c r="I662" t="n">
         <v>94</v>
@@ -48778,10 +47472,8 @@
           <t>4788565557</t>
         </is>
       </c>
-      <c r="H663" t="inlineStr">
-        <is>
-          <t>2021-06-25 13:18:48</t>
-        </is>
+      <c r="H663" s="1" t="n">
+        <v>44372.55472222222</v>
       </c>
       <c r="I663" t="n">
         <v>1</v>
@@ -48857,10 +47549,8 @@
           <t>4788558829</t>
         </is>
       </c>
-      <c r="H664" t="inlineStr">
-        <is>
-          <t>2021-06-25 13:18:40</t>
-        </is>
+      <c r="H664" s="1" t="n">
+        <v>44372.55462962963</v>
       </c>
       <c r="I664" t="n">
         <v>3</v>
@@ -48920,10 +47610,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H665" t="inlineStr">
-        <is>
-          <t>2021-06-25 13:18:38</t>
-        </is>
+      <c r="H665" s="1" t="n">
+        <v>44372.55460648148</v>
       </c>
       <c r="I665" t="n">
         <v>0</v>
@@ -48999,10 +47687,8 @@
           <t>4788563339</t>
         </is>
       </c>
-      <c r="H666" t="inlineStr">
-        <is>
-          <t>2021-06-25 13:18:38</t>
-        </is>
+      <c r="H666" s="1" t="n">
+        <v>44372.55460648148</v>
       </c>
       <c r="I666" t="n">
         <v>4</v>
@@ -49074,10 +47760,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H667" t="inlineStr">
-        <is>
-          <t>2021-06-25 13:18:32</t>
-        </is>
+      <c r="H667" s="1" t="n">
+        <v>44372.55453703704</v>
       </c>
       <c r="I667" t="n">
         <v>5</v>
@@ -49149,10 +47833,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H668" t="inlineStr">
-        <is>
-          <t>2021-06-25 13:18:21</t>
-        </is>
+      <c r="H668" s="1" t="n">
+        <v>44372.55440972222</v>
       </c>
       <c r="I668" t="n">
         <v>0</v>
@@ -49216,10 +47898,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H669" t="inlineStr">
-        <is>
-          <t>2021-06-25 13:17:51</t>
-        </is>
+      <c r="H669" s="1" t="n">
+        <v>44372.5540625</v>
       </c>
       <c r="I669" t="n">
         <v>0</v>
@@ -49291,10 +47971,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H670" t="inlineStr">
-        <is>
-          <t>2021-06-25 13:17:50</t>
-        </is>
+      <c r="H670" s="1" t="n">
+        <v>44372.55405092592</v>
       </c>
       <c r="I670" t="n">
         <v>0</v>
@@ -49366,10 +48044,8 @@
           <t>4788535455</t>
         </is>
       </c>
-      <c r="H671" t="inlineStr">
-        <is>
-          <t>2021-06-25 13:17:33</t>
-        </is>
+      <c r="H671" s="1" t="n">
+        <v>44372.55385416667</v>
       </c>
       <c r="I671" t="n">
         <v>0</v>
@@ -49437,10 +48113,8 @@
           <t>4788556316</t>
         </is>
       </c>
-      <c r="H672" t="inlineStr">
-        <is>
-          <t>2021-06-25 13:17:10</t>
-        </is>
+      <c r="H672" s="1" t="n">
+        <v>44372.55358796296</v>
       </c>
       <c r="I672" t="n">
         <v>2</v>
@@ -49508,10 +48182,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H673" t="inlineStr">
-        <is>
-          <t>2021-06-25 13:17:03</t>
-        </is>
+      <c r="H673" s="1" t="n">
+        <v>44372.55350694444</v>
       </c>
       <c r="I673" t="n">
         <v>5</v>
@@ -49579,10 +48251,8 @@
           <t>4788556082</t>
         </is>
       </c>
-      <c r="H674" t="inlineStr">
-        <is>
-          <t>2021-06-25 13:17:01</t>
-        </is>
+      <c r="H674" s="1" t="n">
+        <v>44372.5534837963</v>
       </c>
       <c r="I674" t="n">
         <v>1</v>
@@ -49654,10 +48324,8 @@
           <t>4788555719</t>
         </is>
       </c>
-      <c r="H675" t="inlineStr">
-        <is>
-          <t>2021-06-25 13:16:49</t>
-        </is>
+      <c r="H675" s="1" t="n">
+        <v>44372.55334490741</v>
       </c>
       <c r="I675" t="n">
         <v>10</v>
@@ -49725,10 +48393,8 @@
           <t>4788555253</t>
         </is>
       </c>
-      <c r="H676" t="inlineStr">
-        <is>
-          <t>2021-06-25 13:16:33</t>
-        </is>
+      <c r="H676" s="1" t="n">
+        <v>44372.55315972222</v>
       </c>
       <c r="I676" t="n">
         <v>12</v>
@@ -49788,10 +48454,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H677" t="inlineStr">
-        <is>
-          <t>2021-06-25 13:16:20</t>
-        </is>
+      <c r="H677" s="1" t="n">
+        <v>44372.55300925926</v>
       </c>
       <c r="I677" t="n">
         <v>68</v>
@@ -49863,10 +48527,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H678" t="inlineStr">
-        <is>
-          <t>2021-06-25 13:16:03</t>
-        </is>
+      <c r="H678" s="1" t="n">
+        <v>44372.5528125</v>
       </c>
       <c r="I678" t="n">
         <v>0</v>
@@ -49930,10 +48592,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H679" t="inlineStr">
-        <is>
-          <t>2021-06-25 13:15:56</t>
-        </is>
+      <c r="H679" s="1" t="n">
+        <v>44372.55273148148</v>
       </c>
       <c r="I679" t="n">
         <v>7</v>
@@ -50001,10 +48661,8 @@
           <t>4788543890</t>
         </is>
       </c>
-      <c r="H680" t="inlineStr">
-        <is>
-          <t>2021-06-25 13:15:48</t>
-        </is>
+      <c r="H680" s="1" t="n">
+        <v>44372.55263888889</v>
       </c>
       <c r="I680" t="n">
         <v>3</v>
@@ -50068,10 +48726,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H681" t="inlineStr">
-        <is>
-          <t>2021-06-25 13:15:15</t>
-        </is>
+      <c r="H681" s="1" t="n">
+        <v>44372.55225694444</v>
       </c>
       <c r="I681" t="n">
         <v>0</v>
@@ -50149,10 +48805,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H682" t="inlineStr">
-        <is>
-          <t>2021-06-25 13:15:06</t>
-        </is>
+      <c r="H682" s="1" t="n">
+        <v>44372.55215277777</v>
       </c>
       <c r="I682" t="n">
         <v>64</v>
@@ -50221,10 +48875,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H683" t="inlineStr">
-        <is>
-          <t>2021-06-25 13:15:05</t>
-        </is>
+      <c r="H683" s="1" t="n">
+        <v>44372.55214120371</v>
       </c>
       <c r="I683" t="n">
         <v>1</v>
@@ -50296,10 +48948,8 @@
           <t>4788547736</t>
         </is>
       </c>
-      <c r="H684" t="inlineStr">
-        <is>
-          <t>2021-06-25 13:15:05</t>
-        </is>
+      <c r="H684" s="1" t="n">
+        <v>44372.55214120371</v>
       </c>
       <c r="I684" t="n">
         <v>0</v>
@@ -50371,10 +49021,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H685" t="inlineStr">
-        <is>
-          <t>2021-06-25 13:14:50</t>
-        </is>
+      <c r="H685" s="1" t="n">
+        <v>44372.55196759259</v>
       </c>
       <c r="I685" t="n">
         <v>4</v>
@@ -50446,10 +49094,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H686" t="inlineStr">
-        <is>
-          <t>2021-06-25 13:14:47</t>
-        </is>
+      <c r="H686" s="1" t="n">
+        <v>44372.55193287037</v>
       </c>
       <c r="I686" t="n">
         <v>24</v>
@@ -50513,10 +49159,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H687" t="inlineStr">
-        <is>
-          <t>2021-06-25 13:14:39</t>
-        </is>
+      <c r="H687" s="1" t="n">
+        <v>44372.55184027777</v>
       </c>
       <c r="I687" t="n">
         <v>2</v>
@@ -50592,10 +49236,8 @@
           <t>4788546843</t>
         </is>
       </c>
-      <c r="H688" t="inlineStr">
-        <is>
-          <t>2021-06-25 13:14:33</t>
-        </is>
+      <c r="H688" s="1" t="n">
+        <v>44372.55177083334</v>
       </c>
       <c r="I688" t="n">
         <v>0</v>
@@ -50674,10 +49316,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H689" t="inlineStr">
-        <is>
-          <t>2021-06-25 13:14:32</t>
-        </is>
+      <c r="H689" s="1" t="n">
+        <v>44372.55175925926</v>
       </c>
       <c r="I689" t="n">
         <v>664</v>
@@ -50749,10 +49389,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H690" t="inlineStr">
-        <is>
-          <t>2021-06-25 13:14:16</t>
-        </is>
+      <c r="H690" s="1" t="n">
+        <v>44372.55157407407</v>
       </c>
       <c r="I690" t="n">
         <v>15</v>
@@ -50824,10 +49462,8 @@
           <t>4788541268</t>
         </is>
       </c>
-      <c r="H691" t="inlineStr">
-        <is>
-          <t>2021-06-25 13:14:11</t>
-        </is>
+      <c r="H691" s="1" t="n">
+        <v>44372.5515162037</v>
       </c>
       <c r="I691" t="n">
         <v>0</v>
@@ -50915,10 +49551,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H692" t="inlineStr">
-        <is>
-          <t>2021-06-25 13:14:01</t>
-        </is>
+      <c r="H692" s="1" t="n">
+        <v>44372.55140046297</v>
       </c>
       <c r="I692" t="n">
         <v>2</v>
@@ -50990,10 +49624,8 @@
           <t>4788540883</t>
         </is>
       </c>
-      <c r="H693" t="inlineStr">
-        <is>
-          <t>2021-06-25 13:13:58</t>
-        </is>
+      <c r="H693" s="1" t="n">
+        <v>44372.55136574074</v>
       </c>
       <c r="I693" t="n">
         <v>1</v>
@@ -51057,10 +49689,8 @@
           <t>4788540783</t>
         </is>
       </c>
-      <c r="H694" t="inlineStr">
-        <is>
-          <t>2021-06-25 13:13:54</t>
-        </is>
+      <c r="H694" s="1" t="n">
+        <v>44372.55131944444</v>
       </c>
       <c r="I694" t="n">
         <v>4</v>
@@ -51124,10 +49754,8 @@
           <t>4788545529</t>
         </is>
       </c>
-      <c r="H695" t="inlineStr">
-        <is>
-          <t>2021-06-25 13:13:48</t>
-        </is>
+      <c r="H695" s="1" t="n">
+        <v>44372.55125</v>
       </c>
       <c r="I695" t="n">
         <v>7</v>
@@ -51195,10 +49823,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H696" t="inlineStr">
-        <is>
-          <t>2021-06-25 13:13:39</t>
-        </is>
+      <c r="H696" s="1" t="n">
+        <v>44372.55114583333</v>
       </c>
       <c r="I696" t="n">
         <v>5</v>
@@ -51266,10 +49892,8 @@
           <t>4788545219</t>
         </is>
       </c>
-      <c r="H697" t="inlineStr">
-        <is>
-          <t>2021-06-25 13:13:37</t>
-        </is>
+      <c r="H697" s="1" t="n">
+        <v>44372.55112268519</v>
       </c>
       <c r="I697" t="n">
         <v>3</v>
@@ -51333,10 +49957,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H698" t="inlineStr">
-        <is>
-          <t>2021-06-25 13:13:33</t>
-        </is>
+      <c r="H698" s="1" t="n">
+        <v>44372.55107638889</v>
       </c>
       <c r="I698" t="n">
         <v>16</v>
@@ -51400,10 +50022,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H699" t="inlineStr">
-        <is>
-          <t>2021-06-25 13:13:25</t>
-        </is>
+      <c r="H699" s="1" t="n">
+        <v>44372.5509837963</v>
       </c>
       <c r="I699" t="n">
         <v>13</v>
@@ -51471,10 +50091,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H700" t="inlineStr">
-        <is>
-          <t>2021-06-25 13:13:24</t>
-        </is>
+      <c r="H700" s="1" t="n">
+        <v>44372.55097222222</v>
       </c>
       <c r="I700" t="n">
         <v>0</v>
@@ -51546,10 +50164,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H701" t="inlineStr">
-        <is>
-          <t>2021-06-25 13:13:18</t>
-        </is>
+      <c r="H701" s="1" t="n">
+        <v>44372.55090277778</v>
       </c>
       <c r="I701" t="n">
         <v>8</v>
@@ -51617,10 +50233,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H702" t="inlineStr">
-        <is>
-          <t>2021-06-25 13:13:17</t>
-        </is>
+      <c r="H702" s="1" t="n">
+        <v>44372.5508912037</v>
       </c>
       <c r="I702" t="n">
         <v>2</v>
@@ -51688,10 +50302,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H703" t="inlineStr">
-        <is>
-          <t>2021-06-25 13:13:12</t>
-        </is>
+      <c r="H703" s="1" t="n">
+        <v>44372.55083333333</v>
       </c>
       <c r="I703" t="n">
         <v>25</v>
@@ -51755,10 +50367,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H704" t="inlineStr">
-        <is>
-          <t>2021-06-25 13:13:08</t>
-        </is>
+      <c r="H704" s="1" t="n">
+        <v>44372.55078703703</v>
       </c>
       <c r="I704" t="n">
         <v>4</v>
@@ -51822,10 +50432,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H705" t="inlineStr">
-        <is>
-          <t>2021-06-25 13:13:05</t>
-        </is>
+      <c r="H705" s="1" t="n">
+        <v>44372.55075231481</v>
       </c>
       <c r="I705" t="n">
         <v>1</v>
@@ -51894,10 +50502,8 @@
           <t>4788534210</t>
         </is>
       </c>
-      <c r="H706" t="inlineStr">
-        <is>
-          <t>2021-06-25 13:13:03</t>
-        </is>
+      <c r="H706" s="1" t="n">
+        <v>44372.55072916667</v>
       </c>
       <c r="I706" t="n">
         <v>5</v>
@@ -51973,10 +50579,8 @@
           <t>4788535455</t>
         </is>
       </c>
-      <c r="H707" t="inlineStr">
-        <is>
-          <t>2021-06-25 13:12:48</t>
-        </is>
+      <c r="H707" s="1" t="n">
+        <v>44372.55055555556</v>
       </c>
       <c r="I707" t="n">
         <v>7</v>
@@ -52044,10 +50648,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H708" t="inlineStr">
-        <is>
-          <t>2021-06-25 13:12:46</t>
-        </is>
+      <c r="H708" s="1" t="n">
+        <v>44372.5505324074</v>
       </c>
       <c r="I708" t="n">
         <v>4</v>
@@ -52111,10 +50713,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H709" t="inlineStr">
-        <is>
-          <t>2021-06-25 13:12:37</t>
-        </is>
+      <c r="H709" s="1" t="n">
+        <v>44372.55042824074</v>
       </c>
       <c r="I709" t="n">
         <v>2</v>
@@ -52182,10 +50782,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H710" t="inlineStr">
-        <is>
-          <t>2021-06-25 13:12:18</t>
-        </is>
+      <c r="H710" s="1" t="n">
+        <v>44372.55020833333</v>
       </c>
       <c r="I710" t="n">
         <v>0</v>
@@ -52253,10 +50851,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H711" t="inlineStr">
-        <is>
-          <t>2021-06-25 13:12:11</t>
-        </is>
+      <c r="H711" s="1" t="n">
+        <v>44372.55012731482</v>
       </c>
       <c r="I711" t="n">
         <v>20</v>
@@ -52324,10 +50920,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H712" t="inlineStr">
-        <is>
-          <t>2021-06-25 13:12:06</t>
-        </is>
+      <c r="H712" s="1" t="n">
+        <v>44372.55006944444</v>
       </c>
       <c r="I712" t="n">
         <v>64</v>
@@ -52395,10 +50989,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H713" t="inlineStr">
-        <is>
-          <t>2021-06-25 13:11:54</t>
-        </is>
+      <c r="H713" s="1" t="n">
+        <v>44372.54993055556</v>
       </c>
       <c r="I713" t="n">
         <v>18</v>
@@ -52470,10 +51062,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H714" t="inlineStr">
-        <is>
-          <t>2021-06-25 13:11:38</t>
-        </is>
+      <c r="H714" s="1" t="n">
+        <v>44372.54974537037</v>
       </c>
       <c r="I714" t="n">
         <v>188</v>
@@ -52549,10 +51139,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H715" t="inlineStr">
-        <is>
-          <t>2021-06-25 13:11:18</t>
-        </is>
+      <c r="H715" s="1" t="n">
+        <v>44372.54951388889</v>
       </c>
       <c r="I715" t="n">
         <v>0</v>
@@ -52620,10 +51208,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H716" t="inlineStr">
-        <is>
-          <t>2021-06-25 13:11:06</t>
-        </is>
+      <c r="H716" s="1" t="n">
+        <v>44372.549375</v>
       </c>
       <c r="I716" t="n">
         <v>12</v>
@@ -52699,10 +51285,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H717" t="inlineStr">
-        <is>
-          <t>2021-06-25 13:11:05</t>
-        </is>
+      <c r="H717" s="1" t="n">
+        <v>44372.54936342593</v>
       </c>
       <c r="I717" t="n">
         <v>0</v>
@@ -52766,10 +51350,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H718" t="inlineStr">
-        <is>
-          <t>2021-06-25 13:11:04</t>
-        </is>
+      <c r="H718" s="1" t="n">
+        <v>44372.54935185185</v>
       </c>
       <c r="I718" t="n">
         <v>2</v>
@@ -52837,10 +51419,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H719" t="inlineStr">
-        <is>
-          <t>2021-06-25 13:10:59</t>
-        </is>
+      <c r="H719" s="1" t="n">
+        <v>44372.54929398148</v>
       </c>
       <c r="I719" t="n">
         <v>0</v>
@@ -52917,10 +51497,8 @@
           <t>4788525903</t>
         </is>
       </c>
-      <c r="H720" t="inlineStr">
-        <is>
-          <t>2021-06-25 13:10:55</t>
-        </is>
+      <c r="H720" s="1" t="n">
+        <v>44372.54924768519</v>
       </c>
       <c r="I720" t="n">
         <v>1</v>
@@ -52988,10 +51566,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H721" t="inlineStr">
-        <is>
-          <t>2021-06-25 13:10:49</t>
-        </is>
+      <c r="H721" s="1" t="n">
+        <v>44372.54917824074</v>
       </c>
       <c r="I721" t="n">
         <v>0</v>
@@ -53055,10 +51631,8 @@
           <t>4788521758</t>
         </is>
       </c>
-      <c r="H722" t="inlineStr">
-        <is>
-          <t>2021-06-25 13:10:39</t>
-        </is>
+      <c r="H722" s="1" t="n">
+        <v>44372.5490625</v>
       </c>
       <c r="I722" t="n">
         <v>1</v>
@@ -53130,10 +51704,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H723" t="inlineStr">
-        <is>
-          <t>2021-06-25 13:10:38</t>
-        </is>
+      <c r="H723" s="1" t="n">
+        <v>44372.54905092593</v>
       </c>
       <c r="I723" t="n">
         <v>5</v>
@@ -53209,10 +51781,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H724" t="inlineStr">
-        <is>
-          <t>2021-06-25 13:10:35</t>
-        </is>
+      <c r="H724" s="1" t="n">
+        <v>44372.5490162037</v>
       </c>
       <c r="I724" t="n">
         <v>8</v>
@@ -53284,10 +51854,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H725" t="inlineStr">
-        <is>
-          <t>2021-06-25 13:10:34</t>
-        </is>
+      <c r="H725" s="1" t="n">
+        <v>44372.54900462963</v>
       </c>
       <c r="I725" t="n">
         <v>16</v>
@@ -53351,10 +51919,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H726" t="inlineStr">
-        <is>
-          <t>2021-06-25 13:10:31</t>
-        </is>
+      <c r="H726" s="1" t="n">
+        <v>44372.54896990741</v>
       </c>
       <c r="I726" t="n">
         <v>6</v>
@@ -53418,10 +51984,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H727" t="inlineStr">
-        <is>
-          <t>2021-06-25 13:10:28</t>
-        </is>
+      <c r="H727" s="1" t="n">
+        <v>44372.54893518519</v>
       </c>
       <c r="I727" t="n">
         <v>8</v>
@@ -53493,10 +52057,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H728" t="inlineStr">
-        <is>
-          <t>2021-06-25 13:10:15</t>
-        </is>
+      <c r="H728" s="1" t="n">
+        <v>44372.54878472222</v>
       </c>
       <c r="I728" t="n">
         <v>2</v>
@@ -53560,10 +52122,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H729" t="inlineStr">
-        <is>
-          <t>2021-06-25 13:10:05</t>
-        </is>
+      <c r="H729" s="1" t="n">
+        <v>44372.54866898148</v>
       </c>
       <c r="I729" t="n">
         <v>0</v>
@@ -53631,10 +52191,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H730" t="inlineStr">
-        <is>
-          <t>2021-06-25 13:09:58</t>
-        </is>
+      <c r="H730" s="1" t="n">
+        <v>44372.54858796296</v>
       </c>
       <c r="I730" t="n">
         <v>49</v>
@@ -53710,10 +52268,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H731" t="inlineStr">
-        <is>
-          <t>2021-06-25 13:09:55</t>
-        </is>
+      <c r="H731" s="1" t="n">
+        <v>44372.54855324074</v>
       </c>
       <c r="I731" t="n">
         <v>79</v>
@@ -53789,10 +52345,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H732" t="inlineStr">
-        <is>
-          <t>2021-06-25 13:09:53</t>
-        </is>
+      <c r="H732" s="1" t="n">
+        <v>44372.54853009259</v>
       </c>
       <c r="I732" t="n">
         <v>0</v>
@@ -53860,10 +52414,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H733" t="inlineStr">
-        <is>
-          <t>2021-06-25 13:09:53</t>
-        </is>
+      <c r="H733" s="1" t="n">
+        <v>44372.54853009259</v>
       </c>
       <c r="I733" t="n">
         <v>1</v>
@@ -53940,10 +52492,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H734" t="inlineStr">
-        <is>
-          <t>2021-06-25 13:09:52</t>
-        </is>
+      <c r="H734" s="1" t="n">
+        <v>44372.54851851852</v>
       </c>
       <c r="I734" t="n">
         <v>5</v>
@@ -54019,10 +52569,8 @@
           <t>4788518445</t>
         </is>
       </c>
-      <c r="H735" t="inlineStr">
-        <is>
-          <t>2021-06-25 13:09:48</t>
-        </is>
+      <c r="H735" s="1" t="n">
+        <v>44372.54847222222</v>
       </c>
       <c r="I735" t="n">
         <v>0</v>
@@ -54082,10 +52630,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H736" t="inlineStr">
-        <is>
-          <t>2021-06-25 13:09:47</t>
-        </is>
+      <c r="H736" s="1" t="n">
+        <v>44372.54846064815</v>
       </c>
       <c r="I736" t="n">
         <v>1402</v>
@@ -54149,10 +52695,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H737" t="inlineStr">
-        <is>
-          <t>2021-06-25 13:09:43</t>
-        </is>
+      <c r="H737" s="1" t="n">
+        <v>44372.54841435186</v>
       </c>
       <c r="I737" t="n">
         <v>0</v>
@@ -54220,10 +52764,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H738" t="inlineStr">
-        <is>
-          <t>2021-06-25 13:09:43</t>
-        </is>
+      <c r="H738" s="1" t="n">
+        <v>44372.54841435186</v>
       </c>
       <c r="I738" t="n">
         <v>14</v>
@@ -54287,10 +52829,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H739" t="inlineStr">
-        <is>
-          <t>2021-06-25 13:09:36</t>
-        </is>
+      <c r="H739" s="1" t="n">
+        <v>44372.54833333333</v>
       </c>
       <c r="I739" t="n">
         <v>15</v>
@@ -54362,10 +52902,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H740" t="inlineStr">
-        <is>
-          <t>2021-06-25 13:09:31</t>
-        </is>
+      <c r="H740" s="1" t="n">
+        <v>44372.54827546296</v>
       </c>
       <c r="I740" t="n">
         <v>63</v>
@@ -54437,10 +52975,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H741" t="inlineStr">
-        <is>
-          <t>2021-06-25 13:09:25</t>
-        </is>
+      <c r="H741" s="1" t="n">
+        <v>44372.54820601852</v>
       </c>
       <c r="I741" t="n">
         <v>4</v>
@@ -54504,10 +53040,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H742" t="inlineStr">
-        <is>
-          <t>2021-06-25 13:09:23</t>
-        </is>
+      <c r="H742" s="1" t="n">
+        <v>44372.54818287037</v>
       </c>
       <c r="I742" t="n">
         <v>6</v>
@@ -54571,10 +53105,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H743" t="inlineStr">
-        <is>
-          <t>2021-06-25 13:09:20</t>
-        </is>
+      <c r="H743" s="1" t="n">
+        <v>44372.54814814815</v>
       </c>
       <c r="I743" t="n">
         <v>3</v>
@@ -54650,10 +53182,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H744" t="inlineStr">
-        <is>
-          <t>2021-06-25 13:09:19</t>
-        </is>
+      <c r="H744" s="1" t="n">
+        <v>44372.54813657407</v>
       </c>
       <c r="I744" t="n">
         <v>2</v>
@@ -54721,10 +53251,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H745" t="inlineStr">
-        <is>
-          <t>2021-06-25 13:09:15</t>
-        </is>
+      <c r="H745" s="1" t="n">
+        <v>44372.54809027778</v>
       </c>
       <c r="I745" t="n">
         <v>1</v>
@@ -54800,10 +53328,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H746" t="inlineStr">
-        <is>
-          <t>2021-06-25 13:09:13</t>
-        </is>
+      <c r="H746" s="1" t="n">
+        <v>44372.54806712963</v>
       </c>
       <c r="I746" t="n">
         <v>0</v>
@@ -54867,10 +53393,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H747" t="inlineStr">
-        <is>
-          <t>2021-06-25 13:09:08</t>
-        </is>
+      <c r="H747" s="1" t="n">
+        <v>44372.54800925926</v>
       </c>
       <c r="I747" t="n">
         <v>357</v>
@@ -54938,10 +53462,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H748" t="inlineStr">
-        <is>
-          <t>2021-06-25 13:09:06</t>
-        </is>
+      <c r="H748" s="1" t="n">
+        <v>44372.54798611111</v>
       </c>
       <c r="I748" t="n">
         <v>27</v>
@@ -55017,10 +53539,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H749" t="inlineStr">
-        <is>
-          <t>2021-06-25 13:08:52</t>
-        </is>
+      <c r="H749" s="1" t="n">
+        <v>44372.54782407408</v>
       </c>
       <c r="I749" t="n">
         <v>3</v>
